--- a/name/vnindex/20221208/VNINDEX_HOSE_5p_20221208.xlsx
+++ b/name/vnindex/20221208/VNINDEX_HOSE_5p_20221208.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P119"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,7 +454,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1670490300000</v>
+        <v>1670490360000</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -481,7 +481,7 @@
         <v>2020000</v>
       </c>
       <c r="J2" t="str">
-        <v>2022-12-08T09:05:00.000Z</v>
+        <v>2022-12-08T09:06:00.000Z</v>
       </c>
       <c r="K2">
         <v>2020000</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>1670490600000</v>
+        <v>1670490720000</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -531,7 +531,7 @@
         <v>8080000</v>
       </c>
       <c r="J3" t="str">
-        <v>2022-12-08T09:10:00.000Z</v>
+        <v>2022-12-08T09:12:00.000Z</v>
       </c>
       <c r="K3">
         <v>10100000</v>
@@ -554,2407 +554,5807 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>1670490900000</v>
+        <v>1670490840000</v>
       </c>
       <c r="B4">
-        <v>14014400</v>
+        <v>5227200</v>
       </c>
       <c r="C4">
-        <v>46923700</v>
+        <v>13143100</v>
       </c>
       <c r="D4">
-        <v>20839300</v>
+        <v>20567600</v>
       </c>
       <c r="E4">
-        <v>222244903000</v>
+        <v>74852450000</v>
       </c>
       <c r="F4">
-        <v>784646991000</v>
+        <v>236563027000</v>
       </c>
       <c r="G4">
-        <v>347650359000</v>
+        <v>343692372000</v>
       </c>
       <c r="H4">
-        <v>81777400</v>
+        <v>38937900</v>
       </c>
       <c r="I4">
-        <v>1354542253000</v>
+        <v>655107849000</v>
       </c>
       <c r="J4" t="str">
-        <v>2022-12-08T09:15:00.000Z</v>
+        <v>2022-12-08T09:14:00.000Z</v>
       </c>
       <c r="K4">
-        <v>1354552353000</v>
+        <v>655117949000</v>
       </c>
       <c r="L4">
-        <v>81778400</v>
+        <v>38938900</v>
       </c>
       <c r="M4">
-        <v>32909300</v>
+        <v>7915900</v>
       </c>
       <c r="N4">
-        <v>562402088000</v>
+        <v>161710577000</v>
       </c>
       <c r="O4">
-        <v>32910300</v>
+        <v>7916900</v>
       </c>
       <c r="P4">
-        <v>562412188000</v>
+        <v>161720677000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1670491200000</v>
+        <v>1670490960000</v>
       </c>
       <c r="B5">
-        <v>24708200</v>
+        <v>4349700</v>
       </c>
       <c r="C5">
-        <v>52693800</v>
+        <v>22044100</v>
       </c>
       <c r="D5">
-        <v>458400</v>
+        <v>112500</v>
       </c>
       <c r="E5">
-        <v>400611965000</v>
+        <v>72919056000</v>
       </c>
       <c r="F5">
-        <v>615969484000</v>
+        <v>375699088000</v>
       </c>
       <c r="G5">
-        <v>7007026000</v>
+        <v>1431003000</v>
       </c>
       <c r="H5">
-        <v>77860400</v>
+        <v>26506300</v>
       </c>
       <c r="I5">
-        <v>1023588475000</v>
+        <v>450049147000</v>
       </c>
       <c r="J5" t="str">
-        <v>2022-12-08T09:20:00.000Z</v>
+        <v>2022-12-08T09:16:00.000Z</v>
       </c>
       <c r="K5">
-        <v>2378140828000</v>
+        <v>1105167096000</v>
       </c>
       <c r="L5">
-        <v>159638800</v>
+        <v>65445200</v>
       </c>
       <c r="M5">
-        <v>27985600</v>
+        <v>17694400</v>
       </c>
       <c r="N5">
-        <v>215357519000</v>
+        <v>302780032000</v>
       </c>
       <c r="O5">
-        <v>60895900</v>
+        <v>25611300</v>
       </c>
       <c r="P5">
-        <v>777769707000</v>
+        <v>464500709000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1670491500000</v>
+        <v>1670491080000</v>
       </c>
       <c r="B6">
-        <v>26847900</v>
+        <v>4437500</v>
       </c>
       <c r="C6">
-        <v>26596900</v>
+        <v>11736500</v>
       </c>
       <c r="D6">
-        <v>433700</v>
+        <v>159200</v>
       </c>
       <c r="E6">
-        <v>349530837000</v>
+        <v>74473397000</v>
       </c>
       <c r="F6">
-        <v>368100815000</v>
+        <v>172384876000</v>
       </c>
       <c r="G6">
-        <v>6444644000</v>
+        <v>2526984000</v>
       </c>
       <c r="H6">
-        <v>53878500</v>
+        <v>16333200</v>
       </c>
       <c r="I6">
-        <v>724076296000</v>
+        <v>249385257000</v>
       </c>
       <c r="J6" t="str">
-        <v>2022-12-08T09:25:00.000Z</v>
+        <v>2022-12-08T09:18:00.000Z</v>
       </c>
       <c r="K6">
-        <v>3102217124000</v>
+        <v>1354552353000</v>
       </c>
       <c r="L6">
-        <v>213517300</v>
+        <v>81778400</v>
       </c>
       <c r="M6">
-        <v>-251000</v>
+        <v>7299000</v>
       </c>
       <c r="N6">
-        <v>18569978000</v>
+        <v>97911479000</v>
       </c>
       <c r="O6">
-        <v>60644900</v>
+        <v>32910300</v>
       </c>
       <c r="P6">
-        <v>796339685000</v>
+        <v>562412188000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1670491800000</v>
+        <v>1670491200000</v>
       </c>
       <c r="B7">
-        <v>15933900</v>
+        <v>8877400</v>
       </c>
       <c r="C7">
-        <v>17142600</v>
+        <v>16375700</v>
       </c>
       <c r="D7">
-        <v>319500</v>
+        <v>235700</v>
       </c>
       <c r="E7">
-        <v>229178281000</v>
+        <v>147936739000</v>
       </c>
       <c r="F7">
-        <v>253012186000</v>
+        <v>230623932000</v>
       </c>
       <c r="G7">
-        <v>6270055000</v>
+        <v>3681942000</v>
       </c>
       <c r="H7">
-        <v>33396000</v>
+        <v>25488800</v>
       </c>
       <c r="I7">
-        <v>488460522000</v>
+        <v>382242613000</v>
       </c>
       <c r="J7" t="str">
-        <v>2022-12-08T09:30:00.000Z</v>
+        <v>2022-12-08T09:20:00.000Z</v>
       </c>
       <c r="K7">
-        <v>3590677646000</v>
+        <v>1736794966000</v>
       </c>
       <c r="L7">
-        <v>246913300</v>
+        <v>107267200</v>
       </c>
       <c r="M7">
-        <v>1208700</v>
+        <v>7498300</v>
       </c>
       <c r="N7">
-        <v>23833905000</v>
+        <v>82687193000</v>
       </c>
       <c r="O7">
-        <v>61853600</v>
+        <v>40408600</v>
       </c>
       <c r="P7">
-        <v>820173590000</v>
+        <v>645099381000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1670492100000</v>
+        <v>1670491320000</v>
       </c>
       <c r="B8">
-        <v>21219700</v>
+        <v>10800700</v>
       </c>
       <c r="C8">
-        <v>12067900</v>
+        <v>31463200</v>
       </c>
       <c r="D8">
-        <v>127900</v>
+        <v>159500</v>
       </c>
       <c r="E8">
-        <v>323710691000</v>
+        <v>180462785000</v>
       </c>
       <c r="F8">
-        <v>187224681000</v>
+        <v>314572732000</v>
       </c>
       <c r="G8">
-        <v>2050332000</v>
+        <v>2199800000</v>
       </c>
       <c r="H8">
-        <v>33415500</v>
+        <v>42423400</v>
       </c>
       <c r="I8">
-        <v>512985704000</v>
+        <v>497235317000</v>
       </c>
       <c r="J8" t="str">
-        <v>2022-12-08T09:35:00.000Z</v>
+        <v>2022-12-08T09:22:00.000Z</v>
       </c>
       <c r="K8">
-        <v>4103663350000</v>
+        <v>2234030283000</v>
       </c>
       <c r="L8">
-        <v>280328800</v>
+        <v>149690600</v>
       </c>
       <c r="M8">
-        <v>-9151800</v>
+        <v>20662500</v>
       </c>
       <c r="N8">
-        <v>-136486010000</v>
+        <v>134109947000</v>
       </c>
       <c r="O8">
-        <v>52701800</v>
+        <v>61071100</v>
       </c>
       <c r="P8">
-        <v>683687580000</v>
+        <v>779209328000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1670492400000</v>
+        <v>1670491440000</v>
       </c>
       <c r="B9">
-        <v>12801000</v>
+        <v>8455100</v>
       </c>
       <c r="C9">
-        <v>17342800</v>
+        <v>9877900</v>
       </c>
       <c r="D9">
-        <v>85000</v>
+        <v>111700</v>
       </c>
       <c r="E9">
-        <v>213745693000</v>
+        <v>124903496000</v>
       </c>
       <c r="F9">
-        <v>302351928000</v>
+        <v>139290918000</v>
       </c>
       <c r="G9">
-        <v>1807477000</v>
+        <v>1850841000</v>
       </c>
       <c r="H9">
-        <v>30228800</v>
+        <v>18444700</v>
       </c>
       <c r="I9">
-        <v>517905098000</v>
+        <v>266045255000</v>
       </c>
       <c r="J9" t="str">
-        <v>2022-12-08T09:40:00.000Z</v>
+        <v>2022-12-08T09:24:00.000Z</v>
       </c>
       <c r="K9">
-        <v>4621568448000</v>
+        <v>2500075538000</v>
       </c>
       <c r="L9">
-        <v>310557600</v>
+        <v>168135300</v>
       </c>
       <c r="M9">
-        <v>4541800</v>
+        <v>1422800</v>
       </c>
       <c r="N9">
-        <v>88606235000</v>
+        <v>14387422000</v>
       </c>
       <c r="O9">
-        <v>57243600</v>
+        <v>62493900</v>
       </c>
       <c r="P9">
-        <v>772293815000</v>
+        <v>793596750000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1670492700000</v>
+        <v>1670491560000</v>
       </c>
       <c r="B10">
-        <v>24224200</v>
+        <v>14562900</v>
       </c>
       <c r="C10">
-        <v>47077700</v>
+        <v>11974100</v>
       </c>
       <c r="D10">
-        <v>388100</v>
+        <v>222100</v>
       </c>
       <c r="E10">
-        <v>360410208000</v>
+        <v>175039089000</v>
       </c>
       <c r="F10">
-        <v>788299354000</v>
+        <v>161232059000</v>
       </c>
       <c r="G10">
-        <v>8955413000</v>
+        <v>2841830000</v>
       </c>
       <c r="H10">
-        <v>71690000</v>
+        <v>26759100</v>
       </c>
       <c r="I10">
-        <v>1157664975000</v>
+        <v>339112978000</v>
       </c>
       <c r="J10" t="str">
-        <v>2022-12-08T09:45:00.000Z</v>
+        <v>2022-12-08T09:26:00.000Z</v>
       </c>
       <c r="K10">
-        <v>5779233423000</v>
+        <v>2839188516000</v>
       </c>
       <c r="L10">
-        <v>382247600</v>
+        <v>194894400</v>
       </c>
       <c r="M10">
-        <v>22853500</v>
+        <v>-2588800</v>
       </c>
       <c r="N10">
-        <v>427889146000</v>
+        <v>-13807030000</v>
       </c>
       <c r="O10">
-        <v>80097100</v>
+        <v>59905100</v>
       </c>
       <c r="P10">
-        <v>1200182961000</v>
+        <v>779789720000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1670493000000</v>
+        <v>1670491680000</v>
       </c>
       <c r="B11">
-        <v>29229900</v>
+        <v>8860000</v>
       </c>
       <c r="C11">
-        <v>40294200</v>
+        <v>9599800</v>
       </c>
       <c r="D11">
-        <v>352000</v>
+        <v>163100</v>
       </c>
       <c r="E11">
-        <v>498437470000</v>
+        <v>121800693000</v>
       </c>
       <c r="F11">
-        <v>707203662000</v>
+        <v>138350658000</v>
       </c>
       <c r="G11">
-        <v>6351744000</v>
+        <v>2877257000</v>
       </c>
       <c r="H11">
-        <v>69876100</v>
+        <v>18622900</v>
       </c>
       <c r="I11">
-        <v>1211992876000</v>
+        <v>263028608000</v>
       </c>
       <c r="J11" t="str">
-        <v>2022-12-08T09:50:00.000Z</v>
+        <v>2022-12-08T09:28:00.000Z</v>
       </c>
       <c r="K11">
-        <v>6991226299000</v>
+        <v>3102217124000</v>
       </c>
       <c r="L11">
-        <v>452123700</v>
+        <v>213517300</v>
       </c>
       <c r="M11">
-        <v>11064300</v>
+        <v>739800</v>
       </c>
       <c r="N11">
-        <v>208766192000</v>
+        <v>16549965000</v>
       </c>
       <c r="O11">
-        <v>91161400</v>
+        <v>60644900</v>
       </c>
       <c r="P11">
-        <v>1408949153000</v>
+        <v>796339685000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1670493300000</v>
+        <v>1670491800000</v>
       </c>
       <c r="B12">
-        <v>13769100</v>
+        <v>5417300</v>
       </c>
       <c r="C12">
-        <v>18175000</v>
+        <v>9318200</v>
       </c>
       <c r="D12">
-        <v>107900</v>
+        <v>171600</v>
       </c>
       <c r="E12">
-        <v>237816884000</v>
+        <v>84889931000</v>
       </c>
       <c r="F12">
-        <v>309588772000</v>
+        <v>138355842000</v>
       </c>
       <c r="G12">
-        <v>2660961000</v>
+        <v>3609734000</v>
       </c>
       <c r="H12">
-        <v>32052000</v>
+        <v>14907100</v>
       </c>
       <c r="I12">
-        <v>550066617000</v>
+        <v>226855507000</v>
       </c>
       <c r="J12" t="str">
-        <v>2022-12-08T09:55:00.000Z</v>
+        <v>2022-12-08T09:30:00.000Z</v>
       </c>
       <c r="K12">
-        <v>7541292916000</v>
+        <v>3329072631000</v>
       </c>
       <c r="L12">
-        <v>484175700</v>
+        <v>228424400</v>
       </c>
       <c r="M12">
-        <v>4405900</v>
+        <v>3900900</v>
       </c>
       <c r="N12">
-        <v>71771888000</v>
+        <v>53465911000</v>
       </c>
       <c r="O12">
-        <v>95567300</v>
+        <v>64545800</v>
       </c>
       <c r="P12">
-        <v>1480721041000</v>
+        <v>849805596000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1670493600000</v>
+        <v>1670491920000</v>
       </c>
       <c r="B13">
-        <v>11154800</v>
+        <v>7277100</v>
       </c>
       <c r="C13">
-        <v>12535900</v>
+        <v>5706300</v>
       </c>
       <c r="D13">
-        <v>120400</v>
+        <v>138900</v>
       </c>
       <c r="E13">
-        <v>173532083000</v>
+        <v>98999712000</v>
       </c>
       <c r="F13">
-        <v>191335116000</v>
+        <v>83769910000</v>
       </c>
       <c r="G13">
-        <v>1980393000</v>
+        <v>2499896000</v>
       </c>
       <c r="H13">
-        <v>23811100</v>
+        <v>13122300</v>
       </c>
       <c r="I13">
-        <v>366847592000</v>
+        <v>185269518000</v>
       </c>
       <c r="J13" t="str">
-        <v>2022-12-08T10:00:00.000Z</v>
+        <v>2022-12-08T09:32:00.000Z</v>
       </c>
       <c r="K13">
-        <v>7908140508000</v>
+        <v>3514342149000</v>
       </c>
       <c r="L13">
-        <v>507986800</v>
+        <v>241546700</v>
       </c>
       <c r="M13">
-        <v>1381100</v>
+        <v>-1570800</v>
       </c>
       <c r="N13">
-        <v>17803033000</v>
+        <v>-15229802000</v>
       </c>
       <c r="O13">
-        <v>96948400</v>
+        <v>62975000</v>
       </c>
       <c r="P13">
-        <v>1498524074000</v>
+        <v>834575794000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1670493900000</v>
+        <v>1670492040000</v>
       </c>
       <c r="B14">
-        <v>14118000</v>
+        <v>7573800</v>
       </c>
       <c r="C14">
-        <v>7121800</v>
+        <v>4107000</v>
       </c>
       <c r="D14">
-        <v>89700</v>
+        <v>73300</v>
       </c>
       <c r="E14">
-        <v>216595010000</v>
+        <v>109381908000</v>
       </c>
       <c r="F14">
-        <v>138782477000</v>
+        <v>59730270000</v>
       </c>
       <c r="G14">
-        <v>1211854000</v>
+        <v>1206846000</v>
       </c>
       <c r="H14">
-        <v>21329500</v>
+        <v>11754100</v>
       </c>
       <c r="I14">
-        <v>356589341000</v>
+        <v>170319024000</v>
       </c>
       <c r="J14" t="str">
-        <v>2022-12-08T10:05:00.000Z</v>
+        <v>2022-12-08T09:34:00.000Z</v>
       </c>
       <c r="K14">
-        <v>8264729849000</v>
+        <v>3684661173000</v>
       </c>
       <c r="L14">
-        <v>529316300</v>
+        <v>253300800</v>
       </c>
       <c r="M14">
-        <v>-6996200</v>
+        <v>-3466800</v>
       </c>
       <c r="N14">
-        <v>-77812533000</v>
+        <v>-49651638000</v>
       </c>
       <c r="O14">
-        <v>89952200</v>
+        <v>59508200</v>
       </c>
       <c r="P14">
-        <v>1420711541000</v>
+        <v>784924156000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1670494200000</v>
+        <v>1670492160000</v>
       </c>
       <c r="B15">
-        <v>11110000</v>
+        <v>10458100</v>
       </c>
       <c r="C15">
-        <v>14173600</v>
+        <v>4544000</v>
       </c>
       <c r="D15">
-        <v>73400</v>
+        <v>44400</v>
       </c>
       <c r="E15">
-        <v>172479979000</v>
+        <v>152446982000</v>
       </c>
       <c r="F15">
-        <v>224175156000</v>
+        <v>67755515000</v>
       </c>
       <c r="G15">
-        <v>1177344000</v>
+        <v>753921000</v>
       </c>
       <c r="H15">
-        <v>25357000</v>
+        <v>15046500</v>
       </c>
       <c r="I15">
-        <v>397832479000</v>
+        <v>220956418000</v>
       </c>
       <c r="J15" t="str">
-        <v>2022-12-08T10:10:00.000Z</v>
+        <v>2022-12-08T09:36:00.000Z</v>
       </c>
       <c r="K15">
-        <v>8662562328000</v>
+        <v>3905617591000</v>
       </c>
       <c r="L15">
-        <v>554673300</v>
+        <v>268347300</v>
       </c>
       <c r="M15">
-        <v>3063600</v>
+        <v>-5914100</v>
       </c>
       <c r="N15">
-        <v>51695177000</v>
+        <v>-84691467000</v>
       </c>
       <c r="O15">
-        <v>93015800</v>
+        <v>53594100</v>
       </c>
       <c r="P15">
-        <v>1472406718000</v>
+        <v>700232689000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1670494500000</v>
+        <v>1670492280000</v>
       </c>
       <c r="B16">
-        <v>9415800</v>
+        <v>6427300</v>
       </c>
       <c r="C16">
-        <v>11088500</v>
+        <v>5535000</v>
       </c>
       <c r="D16">
-        <v>166400</v>
+        <v>19200</v>
       </c>
       <c r="E16">
-        <v>163385903000</v>
+        <v>107170439000</v>
       </c>
       <c r="F16">
-        <v>230481396000</v>
+        <v>90625330000</v>
       </c>
       <c r="G16">
-        <v>3105979000</v>
+        <v>249990000</v>
       </c>
       <c r="H16">
-        <v>20670700</v>
+        <v>11981500</v>
       </c>
       <c r="I16">
-        <v>396973278000</v>
+        <v>198045759000</v>
       </c>
       <c r="J16" t="str">
-        <v>2022-12-08T10:15:00.000Z</v>
+        <v>2022-12-08T09:38:00.000Z</v>
       </c>
       <c r="K16">
-        <v>9059535606000</v>
+        <v>4103663350000</v>
       </c>
       <c r="L16">
-        <v>575344000</v>
+        <v>280328800</v>
       </c>
       <c r="M16">
-        <v>1672700</v>
+        <v>-892300</v>
       </c>
       <c r="N16">
-        <v>67095493000</v>
+        <v>-16545109000</v>
       </c>
       <c r="O16">
-        <v>94688500</v>
+        <v>52701800</v>
       </c>
       <c r="P16">
-        <v>1539502211000</v>
+        <v>683687580000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1670494800000</v>
+        <v>1670492400000</v>
       </c>
       <c r="B17">
-        <v>8630600</v>
+        <v>5903000</v>
       </c>
       <c r="C17">
-        <v>13789600</v>
+        <v>5998900</v>
       </c>
       <c r="D17">
-        <v>42400</v>
+        <v>62300</v>
       </c>
       <c r="E17">
-        <v>136990483000</v>
+        <v>95114300000</v>
       </c>
       <c r="F17">
-        <v>278160186000</v>
+        <v>109159362000</v>
       </c>
       <c r="G17">
-        <v>675392000</v>
+        <v>1388760000</v>
       </c>
       <c r="H17">
-        <v>22462600</v>
+        <v>11964200</v>
       </c>
       <c r="I17">
-        <v>415826061000</v>
+        <v>205662422000</v>
       </c>
       <c r="J17" t="str">
-        <v>2022-12-08T10:20:00.000Z</v>
+        <v>2022-12-08T09:40:00.000Z</v>
       </c>
       <c r="K17">
-        <v>9475361667000</v>
+        <v>4309325772000</v>
       </c>
       <c r="L17">
-        <v>597806600</v>
+        <v>292293000</v>
       </c>
       <c r="M17">
-        <v>5159000</v>
+        <v>95900</v>
       </c>
       <c r="N17">
-        <v>141169703000</v>
+        <v>14045062000</v>
       </c>
       <c r="O17">
-        <v>99847500</v>
+        <v>52797700</v>
       </c>
       <c r="P17">
-        <v>1680671914000</v>
+        <v>697732642000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1670495100000</v>
+        <v>1670492520000</v>
       </c>
       <c r="B18">
-        <v>6731100</v>
+        <v>4155800</v>
       </c>
       <c r="C18">
-        <v>11382900</v>
+        <v>8229200</v>
       </c>
       <c r="D18">
-        <v>109300</v>
+        <v>15300</v>
       </c>
       <c r="E18">
-        <v>124826314000</v>
+        <v>72345969000</v>
       </c>
       <c r="F18">
-        <v>233347749000</v>
+        <v>132484843000</v>
       </c>
       <c r="G18">
-        <v>2029178000</v>
+        <v>279370000</v>
       </c>
       <c r="H18">
-        <v>18223300</v>
+        <v>12400300</v>
       </c>
       <c r="I18">
-        <v>360203241000</v>
+        <v>205110182000</v>
       </c>
       <c r="J18" t="str">
-        <v>2022-12-08T10:25:00.000Z</v>
+        <v>2022-12-08T09:42:00.000Z</v>
       </c>
       <c r="K18">
-        <v>9835564908000</v>
+        <v>4514435954000</v>
       </c>
       <c r="L18">
-        <v>616029900</v>
+        <v>304693300</v>
       </c>
       <c r="M18">
-        <v>4651800</v>
+        <v>4073400</v>
       </c>
       <c r="N18">
-        <v>108521435000</v>
+        <v>60138874000</v>
       </c>
       <c r="O18">
-        <v>104499300</v>
+        <v>56871100</v>
       </c>
       <c r="P18">
-        <v>1789193349000</v>
+        <v>757871516000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1670495400000</v>
+        <v>1670492640000</v>
       </c>
       <c r="B19">
-        <v>7388800</v>
+        <v>7158600</v>
       </c>
       <c r="C19">
-        <v>27311300</v>
+        <v>6358900</v>
       </c>
       <c r="D19">
-        <v>154500</v>
+        <v>122600</v>
       </c>
       <c r="E19">
-        <v>122921997000</v>
+        <v>113568391000</v>
       </c>
       <c r="F19">
-        <v>575313041000</v>
+        <v>120901244000</v>
       </c>
       <c r="G19">
-        <v>2506304000</v>
+        <v>2870895000</v>
       </c>
       <c r="H19">
-        <v>34854600</v>
+        <v>13640100</v>
       </c>
       <c r="I19">
-        <v>700741342000</v>
+        <v>237340530000</v>
       </c>
       <c r="J19" t="str">
-        <v>2022-12-08T10:30:00.000Z</v>
+        <v>2022-12-08T09:44:00.000Z</v>
       </c>
       <c r="K19">
-        <v>10536306250000</v>
+        <v>4751776484000</v>
       </c>
       <c r="L19">
-        <v>650884500</v>
+        <v>318333400</v>
       </c>
       <c r="M19">
-        <v>19922500</v>
+        <v>-799700</v>
       </c>
       <c r="N19">
-        <v>452391044000</v>
+        <v>7332853000</v>
       </c>
       <c r="O19">
-        <v>124421800</v>
+        <v>56071400</v>
       </c>
       <c r="P19">
-        <v>2241584393000</v>
+        <v>765204369000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1670495700000</v>
+        <v>1670492760000</v>
       </c>
       <c r="B20">
-        <v>7757600</v>
+        <v>9298600</v>
       </c>
       <c r="C20">
-        <v>46982400</v>
+        <v>20449700</v>
       </c>
       <c r="D20">
-        <v>272000</v>
+        <v>63400</v>
       </c>
       <c r="E20">
-        <v>149100468000</v>
+        <v>122875262000</v>
       </c>
       <c r="F20">
-        <v>866608482000</v>
+        <v>317288709000</v>
       </c>
       <c r="G20">
-        <v>4173762000</v>
+        <v>1061032000</v>
       </c>
       <c r="H20">
-        <v>55012000</v>
+        <v>29811700</v>
       </c>
       <c r="I20">
-        <v>1019882712000</v>
+        <v>441225003000</v>
       </c>
       <c r="J20" t="str">
-        <v>2022-12-08T10:35:00.000Z</v>
+        <v>2022-12-08T09:46:00.000Z</v>
       </c>
       <c r="K20">
-        <v>11556188962000</v>
+        <v>5193001487000</v>
       </c>
       <c r="L20">
-        <v>705896500</v>
+        <v>348145100</v>
       </c>
       <c r="M20">
-        <v>39224800</v>
+        <v>11151100</v>
       </c>
       <c r="N20">
-        <v>717508014000</v>
+        <v>194413447000</v>
       </c>
       <c r="O20">
-        <v>163646600</v>
+        <v>67222500</v>
       </c>
       <c r="P20">
-        <v>2959092407000</v>
+        <v>959617816000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1670496000000</v>
+        <v>1670492880000</v>
       </c>
       <c r="B21">
-        <v>11250900</v>
+        <v>10509200</v>
       </c>
       <c r="C21">
-        <v>31953500</v>
+        <v>23383800</v>
       </c>
       <c r="D21">
-        <v>161400</v>
+        <v>209500</v>
       </c>
       <c r="E21">
-        <v>194812951000</v>
+        <v>170251979000</v>
       </c>
       <c r="F21">
-        <v>670568583000</v>
+        <v>410817124000</v>
       </c>
       <c r="G21">
-        <v>3355242000</v>
+        <v>5162833000</v>
       </c>
       <c r="H21">
-        <v>43365800</v>
+        <v>34102500</v>
       </c>
       <c r="I21">
-        <v>868736776000</v>
+        <v>586231936000</v>
       </c>
       <c r="J21" t="str">
-        <v>2022-12-08T10:40:00.000Z</v>
+        <v>2022-12-08T09:48:00.000Z</v>
       </c>
       <c r="K21">
-        <v>12424925738000</v>
+        <v>5779233423000</v>
       </c>
       <c r="L21">
-        <v>749262300</v>
+        <v>382247600</v>
       </c>
       <c r="M21">
-        <v>20702600</v>
+        <v>12874600</v>
       </c>
       <c r="N21">
-        <v>475755632000</v>
+        <v>240565145000</v>
       </c>
       <c r="O21">
-        <v>184349200</v>
+        <v>80097100</v>
       </c>
       <c r="P21">
-        <v>3434848039000</v>
+        <v>1200182961000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1670496300000</v>
+        <v>1670493000000</v>
       </c>
       <c r="B22">
-        <v>13284600</v>
+        <v>11107500</v>
       </c>
       <c r="C22">
-        <v>25294400</v>
+        <v>20044500</v>
       </c>
       <c r="D22">
-        <v>158000</v>
+        <v>191100</v>
       </c>
       <c r="E22">
-        <v>243522774000</v>
+        <v>188338121000</v>
       </c>
       <c r="F22">
-        <v>489175039000</v>
+        <v>340344162000</v>
       </c>
       <c r="G22">
-        <v>3002596000</v>
+        <v>3887928000</v>
       </c>
       <c r="H22">
-        <v>38737000</v>
+        <v>31343100</v>
       </c>
       <c r="I22">
-        <v>735700409000</v>
+        <v>532570211000</v>
       </c>
       <c r="J22" t="str">
-        <v>2022-12-08T10:45:00.000Z</v>
+        <v>2022-12-08T09:50:00.000Z</v>
       </c>
       <c r="K22">
-        <v>13160626147000</v>
+        <v>6311803634000</v>
       </c>
       <c r="L22">
-        <v>787999300</v>
+        <v>413590700</v>
       </c>
       <c r="M22">
-        <v>12009800</v>
+        <v>8937000</v>
       </c>
       <c r="N22">
-        <v>245652265000</v>
+        <v>152006041000</v>
       </c>
       <c r="O22">
-        <v>196359000</v>
+        <v>89034100</v>
       </c>
       <c r="P22">
-        <v>3680500304000</v>
+        <v>1352189002000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1670496600000</v>
+        <v>1670493120000</v>
       </c>
       <c r="B23">
-        <v>14075300</v>
+        <v>15288100</v>
       </c>
       <c r="C23">
-        <v>9343400</v>
+        <v>12410700</v>
       </c>
       <c r="D23">
-        <v>123700</v>
+        <v>80900</v>
       </c>
       <c r="E23">
-        <v>242135141000</v>
+        <v>264467296000</v>
       </c>
       <c r="F23">
-        <v>191978607000</v>
+        <v>223537523000</v>
       </c>
       <c r="G23">
-        <v>1427394000</v>
+        <v>1223136000</v>
       </c>
       <c r="H23">
-        <v>23542400</v>
+        <v>27779700</v>
       </c>
       <c r="I23">
-        <v>435541142000</v>
+        <v>489227955000</v>
       </c>
       <c r="J23" t="str">
-        <v>2022-12-08T10:50:00.000Z</v>
+        <v>2022-12-08T09:52:00.000Z</v>
       </c>
       <c r="K23">
-        <v>13596167289000</v>
+        <v>6801031589000</v>
       </c>
       <c r="L23">
-        <v>811541700</v>
+        <v>441370400</v>
       </c>
       <c r="M23">
-        <v>-4731900</v>
+        <v>-2877400</v>
       </c>
       <c r="N23">
-        <v>-50156534000</v>
+        <v>-40929773000</v>
       </c>
       <c r="O23">
-        <v>191627100</v>
+        <v>86156700</v>
       </c>
       <c r="P23">
-        <v>3630343770000</v>
+        <v>1311259229000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1670496900000</v>
+        <v>1670493240000</v>
       </c>
       <c r="B24">
-        <v>17972800</v>
+        <v>5791100</v>
       </c>
       <c r="C24">
-        <v>7343100</v>
+        <v>14090200</v>
       </c>
       <c r="D24">
-        <v>92700</v>
+        <v>100000</v>
       </c>
       <c r="E24">
-        <v>301507244000</v>
+        <v>95976521000</v>
       </c>
       <c r="F24">
-        <v>146144979000</v>
+        <v>244832276000</v>
       </c>
       <c r="G24">
-        <v>1451522000</v>
+        <v>1453456000</v>
       </c>
       <c r="H24">
-        <v>25408600</v>
+        <v>19981300</v>
       </c>
       <c r="I24">
-        <v>449103745000</v>
+        <v>342262253000</v>
       </c>
       <c r="J24" t="str">
-        <v>2022-12-08T10:55:00.000Z</v>
+        <v>2022-12-08T09:54:00.000Z</v>
       </c>
       <c r="K24">
-        <v>14045271034000</v>
+        <v>7143293842000</v>
       </c>
       <c r="L24">
-        <v>836950300</v>
+        <v>461351700</v>
       </c>
       <c r="M24">
-        <v>-10629700</v>
+        <v>8299100</v>
       </c>
       <c r="N24">
-        <v>-155362265000</v>
+        <v>148855755000</v>
       </c>
       <c r="O24">
-        <v>180997400</v>
+        <v>94455800</v>
       </c>
       <c r="P24">
-        <v>3474981505000</v>
+        <v>1460114984000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1670497200000</v>
+        <v>1670493360000</v>
       </c>
       <c r="B25">
-        <v>11217800</v>
+        <v>6772700</v>
       </c>
       <c r="C25">
-        <v>8089500</v>
+        <v>7278800</v>
       </c>
       <c r="D25">
-        <v>83000</v>
+        <v>71000</v>
       </c>
       <c r="E25">
-        <v>202061874000</v>
+        <v>113602796000</v>
       </c>
       <c r="F25">
-        <v>173428914000</v>
+        <v>120906417000</v>
       </c>
       <c r="G25">
-        <v>1423192000</v>
+        <v>2123828000</v>
       </c>
       <c r="H25">
-        <v>19390300</v>
+        <v>14122500</v>
       </c>
       <c r="I25">
-        <v>376913980000</v>
+        <v>236633041000</v>
       </c>
       <c r="J25" t="str">
-        <v>2022-12-08T11:00:00.000Z</v>
+        <v>2022-12-08T09:56:00.000Z</v>
       </c>
       <c r="K25">
-        <v>14422185014000</v>
+        <v>7379926883000</v>
       </c>
       <c r="L25">
-        <v>856340600</v>
+        <v>475474200</v>
       </c>
       <c r="M25">
-        <v>-3128300</v>
+        <v>506100</v>
       </c>
       <c r="N25">
-        <v>-28632960000</v>
+        <v>7303621000</v>
       </c>
       <c r="O25">
-        <v>177869100</v>
+        <v>94961900</v>
       </c>
       <c r="P25">
-        <v>3446348545000</v>
+        <v>1467418605000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1670497500000</v>
+        <v>1670493480000</v>
       </c>
       <c r="B26">
-        <v>9138000</v>
+        <v>4039600</v>
       </c>
       <c r="C26">
-        <v>10162800</v>
+        <v>4645000</v>
       </c>
       <c r="D26">
-        <v>56500</v>
+        <v>16900</v>
       </c>
       <c r="E26">
-        <v>180246979000</v>
+        <v>73869620000</v>
       </c>
       <c r="F26">
-        <v>175950508000</v>
+        <v>87172056000</v>
       </c>
       <c r="G26">
-        <v>1135388000</v>
+        <v>324357000</v>
       </c>
       <c r="H26">
-        <v>19357300</v>
+        <v>8701500</v>
       </c>
       <c r="I26">
-        <v>357332875000</v>
+        <v>161366033000</v>
       </c>
       <c r="J26" t="str">
-        <v>2022-12-08T11:05:00.000Z</v>
+        <v>2022-12-08T09:58:00.000Z</v>
       </c>
       <c r="K26">
-        <v>14779517889000</v>
+        <v>7541292916000</v>
       </c>
       <c r="L26">
-        <v>875697900</v>
+        <v>484175700</v>
       </c>
       <c r="M26">
-        <v>1024800</v>
+        <v>605400</v>
       </c>
       <c r="N26">
-        <v>-4296471000</v>
+        <v>13302436000</v>
       </c>
       <c r="O26">
-        <v>178893900</v>
+        <v>95567300</v>
       </c>
       <c r="P26">
-        <v>3442052074000</v>
+        <v>1480721041000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1670497800000</v>
+        <v>1670493600000</v>
       </c>
       <c r="B27">
-        <v>16244700</v>
+        <v>3640800</v>
       </c>
       <c r="C27">
-        <v>3661200</v>
+        <v>3603100</v>
       </c>
       <c r="D27">
-        <v>116700</v>
+        <v>22700</v>
       </c>
       <c r="E27">
-        <v>287901246000</v>
+        <v>56415976000</v>
       </c>
       <c r="F27">
-        <v>66171760000</v>
+        <v>54991418000</v>
       </c>
       <c r="G27">
-        <v>1806317000</v>
+        <v>173250000</v>
       </c>
       <c r="H27">
-        <v>20022600</v>
+        <v>7266600</v>
       </c>
       <c r="I27">
-        <v>355879323000</v>
+        <v>111580644000</v>
       </c>
       <c r="J27" t="str">
-        <v>2022-12-08T11:10:00.000Z</v>
+        <v>2022-12-08T10:00:00.000Z</v>
       </c>
       <c r="K27">
-        <v>15135397212000</v>
+        <v>7652873560000</v>
       </c>
       <c r="L27">
-        <v>895720500</v>
+        <v>491442300</v>
       </c>
       <c r="M27">
-        <v>-12583500</v>
+        <v>-37700</v>
       </c>
       <c r="N27">
-        <v>-221729486000</v>
+        <v>-1424558000</v>
       </c>
       <c r="O27">
-        <v>166310400</v>
+        <v>95529600</v>
       </c>
       <c r="P27">
-        <v>3220322588000</v>
+        <v>1479296483000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1670498100000</v>
+        <v>1670493720000</v>
       </c>
       <c r="B28">
-        <v>5820800</v>
+        <v>5090500</v>
       </c>
       <c r="C28">
-        <v>7700900</v>
+        <v>5779500</v>
       </c>
       <c r="D28">
-        <v>179800</v>
+        <v>94100</v>
       </c>
       <c r="E28">
-        <v>121303797000</v>
+        <v>81078611000</v>
       </c>
       <c r="F28">
-        <v>165676839000</v>
+        <v>86718440000</v>
       </c>
       <c r="G28">
-        <v>3555516000</v>
+        <v>1752091000</v>
       </c>
       <c r="H28">
-        <v>13701500</v>
+        <v>10964100</v>
       </c>
       <c r="I28">
-        <v>290536152000</v>
+        <v>169549142000</v>
       </c>
       <c r="J28" t="str">
-        <v>2022-12-08T11:15:00.000Z</v>
+        <v>2022-12-08T10:02:00.000Z</v>
       </c>
       <c r="K28">
-        <v>15425933364000</v>
+        <v>7822422702000</v>
       </c>
       <c r="L28">
-        <v>909422000</v>
+        <v>502406400</v>
       </c>
       <c r="M28">
-        <v>1880100</v>
+        <v>689000</v>
       </c>
       <c r="N28">
-        <v>44373042000</v>
+        <v>5639829000</v>
       </c>
       <c r="O28">
-        <v>168190500</v>
+        <v>96218600</v>
       </c>
       <c r="P28">
-        <v>3264695630000</v>
+        <v>1484936312000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1670498400000</v>
+        <v>1670493840000</v>
       </c>
       <c r="B29">
-        <v>9426300</v>
+        <v>5862200</v>
       </c>
       <c r="C29">
-        <v>2788000</v>
+        <v>4838900</v>
       </c>
       <c r="D29">
-        <v>55600</v>
+        <v>39800</v>
       </c>
       <c r="E29">
-        <v>175324574000</v>
+        <v>84644981000</v>
       </c>
       <c r="F29">
-        <v>51387279000</v>
+        <v>83017038000</v>
       </c>
       <c r="G29">
-        <v>718771000</v>
+        <v>456501000</v>
       </c>
       <c r="H29">
-        <v>12269900</v>
+        <v>10740900</v>
       </c>
       <c r="I29">
-        <v>227430624000</v>
+        <v>168118520000</v>
       </c>
       <c r="J29" t="str">
-        <v>2022-12-08T11:20:00.000Z</v>
+        <v>2022-12-08T10:04:00.000Z</v>
       </c>
       <c r="K29">
-        <v>15653363988000</v>
+        <v>7990541222000</v>
       </c>
       <c r="L29">
-        <v>921691900</v>
+        <v>513147300</v>
       </c>
       <c r="M29">
-        <v>-6638300</v>
+        <v>-1023300</v>
       </c>
       <c r="N29">
-        <v>-123937295000</v>
+        <v>-1627943000</v>
       </c>
       <c r="O29">
-        <v>161552200</v>
+        <v>95195300</v>
       </c>
       <c r="P29">
-        <v>3140758335000</v>
+        <v>1483308369000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1670498700000</v>
+        <v>1670493960000</v>
       </c>
       <c r="B30">
-        <v>21714300</v>
+        <v>5139100</v>
       </c>
       <c r="C30">
-        <v>5203800</v>
+        <v>2890200</v>
       </c>
       <c r="D30">
-        <v>42200</v>
+        <v>20500</v>
       </c>
       <c r="E30">
-        <v>360426889000</v>
+        <v>87350742000</v>
       </c>
       <c r="F30">
-        <v>94848131000</v>
+        <v>56906498000</v>
       </c>
       <c r="G30">
-        <v>992755000</v>
+        <v>194453000</v>
       </c>
       <c r="H30">
-        <v>26960300</v>
+        <v>8049800</v>
       </c>
       <c r="I30">
-        <v>456267775000</v>
+        <v>144451693000</v>
       </c>
       <c r="J30" t="str">
-        <v>2022-12-08T11:25:00.000Z</v>
+        <v>2022-12-08T10:06:00.000Z</v>
       </c>
       <c r="K30">
-        <v>16109631763000</v>
+        <v>8134992915000</v>
       </c>
       <c r="L30">
-        <v>948652200</v>
+        <v>521197100</v>
       </c>
       <c r="M30">
-        <v>-16510500</v>
+        <v>-2248900</v>
       </c>
       <c r="N30">
-        <v>-265578758000</v>
+        <v>-30444244000</v>
       </c>
       <c r="O30">
-        <v>145041700</v>
+        <v>92946400</v>
       </c>
       <c r="P30">
-        <v>2875179577000</v>
+        <v>1452864125000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1670499000000</v>
+        <v>1670494080000</v>
       </c>
       <c r="B31">
-        <v>2800</v>
+        <v>5540200</v>
       </c>
       <c r="C31">
-        <v>16400</v>
+        <v>2546000</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>33000</v>
       </c>
       <c r="E31">
-        <v>26080000</v>
+        <v>80636783000</v>
       </c>
       <c r="F31">
-        <v>155446000</v>
+        <v>48484199000</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>615952000</v>
       </c>
       <c r="H31">
-        <v>19200</v>
+        <v>8119200</v>
       </c>
       <c r="I31">
-        <v>181526000</v>
+        <v>129736934000</v>
       </c>
       <c r="J31" t="str">
-        <v>2022-12-08T11:30:00.000Z</v>
+        <v>2022-12-08T10:08:00.000Z</v>
       </c>
       <c r="K31">
-        <v>16109813289000</v>
+        <v>8264729849000</v>
       </c>
       <c r="L31">
-        <v>948671400</v>
+        <v>529316300</v>
       </c>
       <c r="M31">
-        <v>13600</v>
+        <v>-2994200</v>
       </c>
       <c r="N31">
-        <v>129366000</v>
+        <v>-32152584000</v>
       </c>
       <c r="O31">
-        <v>145055300</v>
+        <v>89952200</v>
       </c>
       <c r="P31">
-        <v>2875308943000</v>
+        <v>1420711541000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1670504400000</v>
+        <v>1670494200000</v>
       </c>
       <c r="B32">
-        <v>31611300</v>
+        <v>3476800</v>
       </c>
       <c r="C32">
-        <v>20734300</v>
+        <v>3297900</v>
       </c>
       <c r="D32">
-        <v>1870000</v>
+        <v>18100</v>
       </c>
       <c r="E32">
-        <v>521961106000</v>
+        <v>59553947000</v>
       </c>
       <c r="F32">
-        <v>368808190000</v>
+        <v>54698097000</v>
       </c>
       <c r="G32">
-        <v>30719057000</v>
+        <v>322263000</v>
       </c>
       <c r="H32">
-        <v>54215600</v>
+        <v>6792800</v>
       </c>
       <c r="I32">
-        <v>921488353000</v>
+        <v>114574307000</v>
       </c>
       <c r="J32" t="str">
-        <v>2022-12-08T13:00:00.000Z</v>
+        <v>2022-12-08T10:10:00.000Z</v>
       </c>
       <c r="K32">
-        <v>17031301642000</v>
+        <v>8379304156000</v>
       </c>
       <c r="L32">
-        <v>1002887000</v>
+        <v>536109100</v>
       </c>
       <c r="M32">
-        <v>-10877000</v>
+        <v>-178900</v>
       </c>
       <c r="N32">
-        <v>-153152916000</v>
+        <v>-4855850000</v>
       </c>
       <c r="O32">
-        <v>134178300</v>
+        <v>89773300</v>
       </c>
       <c r="P32">
-        <v>2722156027000</v>
+        <v>1415855691000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1670504700000</v>
+        <v>1670494320000</v>
       </c>
       <c r="B33">
-        <v>13927800</v>
+        <v>4001000</v>
       </c>
       <c r="C33">
-        <v>16059500</v>
+        <v>8773300</v>
       </c>
       <c r="D33">
-        <v>201800</v>
+        <v>11500</v>
       </c>
       <c r="E33">
-        <v>223546389000</v>
+        <v>56855124000</v>
       </c>
       <c r="F33">
-        <v>289819911000</v>
+        <v>132303367000</v>
       </c>
       <c r="G33">
-        <v>2637426000</v>
+        <v>218568000</v>
       </c>
       <c r="H33">
-        <v>30189100</v>
+        <v>12785800</v>
       </c>
       <c r="I33">
-        <v>516003726000</v>
+        <v>189377059000</v>
       </c>
       <c r="J33" t="str">
-        <v>2022-12-08T13:05:00.000Z</v>
+        <v>2022-12-08T10:12:00.000Z</v>
       </c>
       <c r="K33">
-        <v>17547305368000</v>
+        <v>8568681215000</v>
       </c>
       <c r="L33">
-        <v>1033076100</v>
+        <v>548894900</v>
       </c>
       <c r="M33">
-        <v>2131700</v>
+        <v>4772300</v>
       </c>
       <c r="N33">
-        <v>66273522000</v>
+        <v>75448243000</v>
       </c>
       <c r="O33">
-        <v>136310000</v>
+        <v>94545600</v>
       </c>
       <c r="P33">
-        <v>2788429549000</v>
+        <v>1491303934000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1670505000000</v>
+        <v>1670494440000</v>
       </c>
       <c r="B34">
-        <v>9749400</v>
+        <v>5873900</v>
       </c>
       <c r="C34">
-        <v>13409500</v>
+        <v>4478000</v>
       </c>
       <c r="D34">
-        <v>107200</v>
+        <v>48500</v>
       </c>
       <c r="E34">
-        <v>168935196000</v>
+        <v>93344445000</v>
       </c>
       <c r="F34">
-        <v>264910683000</v>
+        <v>81605939000</v>
       </c>
       <c r="G34">
-        <v>2007425000</v>
+        <v>704475000</v>
       </c>
       <c r="H34">
-        <v>23266100</v>
+        <v>10400400</v>
       </c>
       <c r="I34">
-        <v>435853304000</v>
+        <v>175654859000</v>
       </c>
       <c r="J34" t="str">
-        <v>2022-12-08T13:10:00.000Z</v>
+        <v>2022-12-08T10:14:00.000Z</v>
       </c>
       <c r="K34">
-        <v>17983158672000</v>
+        <v>8744336074000</v>
       </c>
       <c r="L34">
-        <v>1056342200</v>
+        <v>559295300</v>
       </c>
       <c r="M34">
-        <v>3660100</v>
+        <v>-1395900</v>
       </c>
       <c r="N34">
-        <v>95975487000</v>
+        <v>-11738506000</v>
       </c>
       <c r="O34">
-        <v>139970100</v>
+        <v>93149700</v>
       </c>
       <c r="P34">
-        <v>2884405036000</v>
+        <v>1479565428000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1670505300000</v>
+        <v>1670494560000</v>
       </c>
       <c r="B35">
-        <v>10108100</v>
+        <v>4419000</v>
       </c>
       <c r="C35">
-        <v>12400200</v>
+        <v>4256000</v>
       </c>
       <c r="D35">
-        <v>42500</v>
+        <v>149100</v>
       </c>
       <c r="E35">
-        <v>185460847000</v>
+        <v>79561480000</v>
       </c>
       <c r="F35">
-        <v>206425166000</v>
+        <v>93659729000</v>
       </c>
       <c r="G35">
-        <v>749670000</v>
+        <v>2864568000</v>
       </c>
       <c r="H35">
-        <v>22550800</v>
+        <v>8824100</v>
       </c>
       <c r="I35">
-        <v>392635683000</v>
+        <v>176085777000</v>
       </c>
       <c r="J35" t="str">
-        <v>2022-12-08T13:15:00.000Z</v>
+        <v>2022-12-08T10:16:00.000Z</v>
       </c>
       <c r="K35">
-        <v>18375794355000</v>
+        <v>8920421851000</v>
       </c>
       <c r="L35">
-        <v>1078893000</v>
+        <v>568119400</v>
       </c>
       <c r="M35">
-        <v>2292100</v>
+        <v>-163000</v>
       </c>
       <c r="N35">
-        <v>20964319000</v>
+        <v>14098249000</v>
       </c>
       <c r="O35">
-        <v>142262200</v>
+        <v>92986700</v>
       </c>
       <c r="P35">
-        <v>2905369355000</v>
+        <v>1493663677000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1670505600000</v>
+        <v>1670494680000</v>
       </c>
       <c r="B36">
-        <v>18655900</v>
+        <v>2755100</v>
       </c>
       <c r="C36">
-        <v>6977600</v>
+        <v>4456900</v>
       </c>
       <c r="D36">
-        <v>146300</v>
+        <v>12600</v>
       </c>
       <c r="E36">
-        <v>338644422000</v>
+        <v>46550886000</v>
       </c>
       <c r="F36">
-        <v>114572227000</v>
+        <v>92389420000</v>
       </c>
       <c r="G36">
-        <v>2558909000</v>
+        <v>173449000</v>
       </c>
       <c r="H36">
-        <v>25779800</v>
+        <v>7224600</v>
       </c>
       <c r="I36">
-        <v>455775558000</v>
+        <v>139113755000</v>
       </c>
       <c r="J36" t="str">
-        <v>2022-12-08T13:20:00.000Z</v>
+        <v>2022-12-08T10:18:00.000Z</v>
       </c>
       <c r="K36">
-        <v>18831569913000</v>
+        <v>9059535606000</v>
       </c>
       <c r="L36">
-        <v>1104672800</v>
+        <v>575344000</v>
       </c>
       <c r="M36">
-        <v>-11678300</v>
+        <v>1701800</v>
       </c>
       <c r="N36">
-        <v>-224072195000</v>
+        <v>45838534000</v>
       </c>
       <c r="O36">
-        <v>130583900</v>
+        <v>94688500</v>
       </c>
       <c r="P36">
-        <v>2681297160000</v>
+        <v>1539502211000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1670505900000</v>
+        <v>1670494800000</v>
       </c>
       <c r="B37">
-        <v>18318500</v>
+        <v>4400700</v>
       </c>
       <c r="C37">
-        <v>5888200</v>
+        <v>5544000</v>
       </c>
       <c r="D37">
-        <v>76800</v>
+        <v>2100</v>
       </c>
       <c r="E37">
-        <v>287442188000</v>
+        <v>68669404000</v>
       </c>
       <c r="F37">
-        <v>100124298000</v>
+        <v>114342566000</v>
       </c>
       <c r="G37">
-        <v>2385355000</v>
+        <v>45467000</v>
       </c>
       <c r="H37">
-        <v>24283500</v>
+        <v>9946800</v>
       </c>
       <c r="I37">
-        <v>389951841000</v>
+        <v>183057437000</v>
       </c>
       <c r="J37" t="str">
-        <v>2022-12-08T13:25:00.000Z</v>
+        <v>2022-12-08T10:20:00.000Z</v>
       </c>
       <c r="K37">
-        <v>19221521754000</v>
+        <v>9242593043000</v>
       </c>
       <c r="L37">
-        <v>1128956300</v>
+        <v>585290800</v>
       </c>
       <c r="M37">
-        <v>-12430300</v>
+        <v>1143300</v>
       </c>
       <c r="N37">
-        <v>-187317890000</v>
+        <v>45673162000</v>
       </c>
       <c r="O37">
-        <v>118153600</v>
+        <v>95831800</v>
       </c>
       <c r="P37">
-        <v>2493979270000</v>
+        <v>1585175373000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1670506200000</v>
+        <v>1670494920000</v>
       </c>
       <c r="B38">
-        <v>33463500</v>
+        <v>3125400</v>
       </c>
       <c r="C38">
-        <v>9871200</v>
+        <v>5843600</v>
       </c>
       <c r="D38">
-        <v>180700</v>
+        <v>38200</v>
       </c>
       <c r="E38">
-        <v>578566764000</v>
+        <v>50635995000</v>
       </c>
       <c r="F38">
-        <v>176839521000</v>
+        <v>117660617000</v>
       </c>
       <c r="G38">
-        <v>5185801000</v>
+        <v>608570000</v>
       </c>
       <c r="H38">
-        <v>43515400</v>
+        <v>9007200</v>
       </c>
       <c r="I38">
-        <v>760592086000</v>
+        <v>168905182000</v>
       </c>
       <c r="J38" t="str">
-        <v>2022-12-08T13:30:00.000Z</v>
+        <v>2022-12-08T10:22:00.000Z</v>
       </c>
       <c r="K38">
-        <v>19982113840000</v>
+        <v>9411498225000</v>
       </c>
       <c r="L38">
-        <v>1172471700</v>
+        <v>594298000</v>
       </c>
       <c r="M38">
-        <v>-23592300</v>
+        <v>2718200</v>
       </c>
       <c r="N38">
-        <v>-401727243000</v>
+        <v>67024622000</v>
       </c>
       <c r="O38">
-        <v>94561300</v>
+        <v>98550000</v>
       </c>
       <c r="P38">
-        <v>2092252027000</v>
+        <v>1652199995000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1670506500000</v>
+        <v>1670495040000</v>
       </c>
       <c r="B39">
-        <v>8880000</v>
+        <v>2327000</v>
       </c>
       <c r="C39">
-        <v>12635300</v>
+        <v>4535300</v>
       </c>
       <c r="D39">
-        <v>144500</v>
+        <v>23300</v>
       </c>
       <c r="E39">
-        <v>183102214000</v>
+        <v>40531254000</v>
       </c>
       <c r="F39">
-        <v>218683890000</v>
+        <v>87125323000</v>
       </c>
       <c r="G39">
-        <v>3641747000</v>
+        <v>249493000</v>
       </c>
       <c r="H39">
-        <v>21659800</v>
+        <v>6885600</v>
       </c>
       <c r="I39">
-        <v>405427851000</v>
+        <v>127906070000</v>
       </c>
       <c r="J39" t="str">
-        <v>2022-12-08T13:35:00.000Z</v>
+        <v>2022-12-08T10:24:00.000Z</v>
       </c>
       <c r="K39">
-        <v>20387541691000</v>
+        <v>9539404295000</v>
       </c>
       <c r="L39">
-        <v>1194131500</v>
+        <v>601183600</v>
       </c>
       <c r="M39">
-        <v>3755300</v>
+        <v>2208300</v>
       </c>
       <c r="N39">
-        <v>35581676000</v>
+        <v>46594069000</v>
       </c>
       <c r="O39">
-        <v>98316600</v>
+        <v>100758300</v>
       </c>
       <c r="P39">
-        <v>2127833703000</v>
+        <v>1698794064000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1670506800000</v>
+        <v>1670495160000</v>
       </c>
       <c r="B40">
-        <v>8402200</v>
+        <v>2787400</v>
       </c>
       <c r="C40">
-        <v>7605800</v>
+        <v>4675900</v>
       </c>
       <c r="D40">
-        <v>53000</v>
+        <v>62000</v>
       </c>
       <c r="E40">
-        <v>154013244000</v>
+        <v>52574743000</v>
       </c>
       <c r="F40">
-        <v>139283874000</v>
+        <v>91745088000</v>
       </c>
       <c r="G40">
-        <v>1705807000</v>
+        <v>1331048000</v>
       </c>
       <c r="H40">
-        <v>16061000</v>
+        <v>7525300</v>
       </c>
       <c r="I40">
-        <v>295002925000</v>
+        <v>145650879000</v>
       </c>
       <c r="J40" t="str">
-        <v>2022-12-08T13:40:00.000Z</v>
+        <v>2022-12-08T10:26:00.000Z</v>
       </c>
       <c r="K40">
-        <v>20682544616000</v>
+        <v>9685055174000</v>
       </c>
       <c r="L40">
-        <v>1210192500</v>
+        <v>608708900</v>
       </c>
       <c r="M40">
-        <v>-796400</v>
+        <v>1888500</v>
       </c>
       <c r="N40">
-        <v>-14729370000</v>
+        <v>39170345000</v>
       </c>
       <c r="O40">
-        <v>97520200</v>
+        <v>102646800</v>
       </c>
       <c r="P40">
-        <v>2113104333000</v>
+        <v>1737964409000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1670507100000</v>
+        <v>1670495280000</v>
       </c>
       <c r="B41">
-        <v>15351000</v>
+        <v>2721200</v>
       </c>
       <c r="C41">
-        <v>5373200</v>
+        <v>4573700</v>
       </c>
       <c r="D41">
-        <v>84200</v>
+        <v>26100</v>
       </c>
       <c r="E41">
-        <v>269165619000</v>
+        <v>49405401000</v>
       </c>
       <c r="F41">
-        <v>97815735000</v>
+        <v>100634341000</v>
       </c>
       <c r="G41">
-        <v>787773000</v>
+        <v>469992000</v>
       </c>
       <c r="H41">
-        <v>20808400</v>
+        <v>7321000</v>
       </c>
       <c r="I41">
-        <v>367769127000</v>
+        <v>150509734000</v>
       </c>
       <c r="J41" t="str">
-        <v>2022-12-08T13:45:00.000Z</v>
+        <v>2022-12-08T10:28:00.000Z</v>
       </c>
       <c r="K41">
-        <v>21050313743000</v>
+        <v>9835564908000</v>
       </c>
       <c r="L41">
-        <v>1231000900</v>
+        <v>616029900</v>
       </c>
       <c r="M41">
-        <v>-9977800</v>
+        <v>1852500</v>
       </c>
       <c r="N41">
-        <v>-171349884000</v>
+        <v>51228940000</v>
       </c>
       <c r="O41">
-        <v>87542400</v>
+        <v>104499300</v>
       </c>
       <c r="P41">
-        <v>1941754449000</v>
+        <v>1789193349000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1670507400000</v>
+        <v>1670495400000</v>
       </c>
       <c r="B42">
-        <v>13158400</v>
+        <v>3425000</v>
       </c>
       <c r="C42">
-        <v>8640300</v>
+        <v>7379100</v>
       </c>
       <c r="D42">
-        <v>121400</v>
+        <v>112000</v>
       </c>
       <c r="E42">
-        <v>230028645000</v>
+        <v>59575113000</v>
       </c>
       <c r="F42">
-        <v>148243087000</v>
+        <v>156306352000</v>
       </c>
       <c r="G42">
-        <v>1532234000</v>
+        <v>1773308000</v>
       </c>
       <c r="H42">
-        <v>21920100</v>
+        <v>10916100</v>
       </c>
       <c r="I42">
-        <v>379803966000</v>
+        <v>217654773000</v>
       </c>
       <c r="J42" t="str">
-        <v>2022-12-08T13:50:00.000Z</v>
+        <v>2022-12-08T10:30:00.000Z</v>
       </c>
       <c r="K42">
-        <v>21430117709000</v>
+        <v>10053219681000</v>
       </c>
       <c r="L42">
-        <v>1252921000</v>
+        <v>626946000</v>
       </c>
       <c r="M42">
-        <v>-4518100</v>
+        <v>3954100</v>
       </c>
       <c r="N42">
-        <v>-81785558000</v>
+        <v>96731239000</v>
       </c>
       <c r="O42">
-        <v>83024300</v>
+        <v>108453400</v>
       </c>
       <c r="P42">
-        <v>1859968891000</v>
+        <v>1885924588000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1670507700000</v>
+        <v>1670495520000</v>
       </c>
       <c r="B43">
-        <v>8359300</v>
+        <v>2750700</v>
       </c>
       <c r="C43">
-        <v>8273200</v>
+        <v>12432400</v>
       </c>
       <c r="D43">
-        <v>124700</v>
+        <v>36200</v>
       </c>
       <c r="E43">
-        <v>167267459000</v>
+        <v>44039827000</v>
       </c>
       <c r="F43">
-        <v>158124553000</v>
+        <v>245064993000</v>
       </c>
       <c r="G43">
-        <v>3053161000</v>
+        <v>527911000</v>
       </c>
       <c r="H43">
-        <v>16757200</v>
+        <v>15219300</v>
       </c>
       <c r="I43">
-        <v>328445173000</v>
+        <v>289632731000</v>
       </c>
       <c r="J43" t="str">
-        <v>2022-12-08T13:55:00.000Z</v>
+        <v>2022-12-08T10:32:00.000Z</v>
       </c>
       <c r="K43">
-        <v>21758562882000</v>
+        <v>10342852412000</v>
       </c>
       <c r="L43">
-        <v>1269678200</v>
+        <v>642165300</v>
       </c>
       <c r="M43">
-        <v>-86100</v>
+        <v>9681700</v>
       </c>
       <c r="N43">
-        <v>-9142906000</v>
+        <v>201025166000</v>
       </c>
       <c r="O43">
-        <v>82938200</v>
+        <v>118135100</v>
       </c>
       <c r="P43">
-        <v>1850825985000</v>
+        <v>2086949754000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1670508000000</v>
+        <v>1670495640000</v>
       </c>
       <c r="B44">
-        <v>48333500</v>
+        <v>2759700</v>
       </c>
       <c r="C44">
-        <v>7231200</v>
+        <v>15945300</v>
       </c>
       <c r="D44">
-        <v>338600</v>
+        <v>21500</v>
       </c>
       <c r="E44">
-        <v>825485915000</v>
+        <v>50326381000</v>
       </c>
       <c r="F44">
-        <v>129409038000</v>
+        <v>322497935000</v>
       </c>
       <c r="G44">
-        <v>7832820000</v>
+        <v>375085000</v>
       </c>
       <c r="H44">
-        <v>55903300</v>
+        <v>18726500</v>
       </c>
       <c r="I44">
-        <v>962727773000</v>
+        <v>373199401000</v>
       </c>
       <c r="J44" t="str">
-        <v>2022-12-08T14:00:00.000Z</v>
+        <v>2022-12-08T10:34:00.000Z</v>
       </c>
       <c r="K44">
-        <v>22721290655000</v>
+        <v>10716051813000</v>
       </c>
       <c r="L44">
-        <v>1325581500</v>
+        <v>660891800</v>
       </c>
       <c r="M44">
-        <v>-41102300</v>
+        <v>13185600</v>
       </c>
       <c r="N44">
-        <v>-696076877000</v>
+        <v>272171554000</v>
       </c>
       <c r="O44">
-        <v>41835900</v>
+        <v>131320700</v>
       </c>
       <c r="P44">
-        <v>1154749108000</v>
+        <v>2359121308000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1670508300000</v>
+        <v>1670495760000</v>
       </c>
       <c r="B45">
-        <v>21613500</v>
+        <v>3015300</v>
       </c>
       <c r="C45">
-        <v>16968900</v>
+        <v>24168600</v>
       </c>
       <c r="D45">
-        <v>172500</v>
+        <v>187100</v>
       </c>
       <c r="E45">
-        <v>336984955000</v>
+        <v>61997497000</v>
       </c>
       <c r="F45">
-        <v>296187392000</v>
+        <v>484383861000</v>
       </c>
       <c r="G45">
-        <v>2771700000</v>
+        <v>3386390000</v>
       </c>
       <c r="H45">
-        <v>38754900</v>
+        <v>27371000</v>
       </c>
       <c r="I45">
-        <v>635944047000</v>
+        <v>549767748000</v>
       </c>
       <c r="J45" t="str">
-        <v>2022-12-08T14:05:00.000Z</v>
+        <v>2022-12-08T10:36:00.000Z</v>
       </c>
       <c r="K45">
-        <v>23357234702000</v>
+        <v>11265819561000</v>
       </c>
       <c r="L45">
-        <v>1364336400</v>
+        <v>688262800</v>
       </c>
       <c r="M45">
-        <v>-4644600</v>
+        <v>21153300</v>
       </c>
       <c r="N45">
-        <v>-40797563000</v>
+        <v>422386364000</v>
       </c>
       <c r="O45">
-        <v>37191300</v>
+        <v>152474000</v>
       </c>
       <c r="P45">
-        <v>1113951545000</v>
+        <v>2781507672000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1670508600000</v>
+        <v>1670495880000</v>
       </c>
       <c r="B46">
-        <v>28753200</v>
+        <v>3195700</v>
       </c>
       <c r="C46">
-        <v>7802100</v>
+        <v>14368300</v>
       </c>
       <c r="D46">
-        <v>312800</v>
+        <v>69700</v>
       </c>
       <c r="E46">
-        <v>529278666000</v>
+        <v>56083647000</v>
       </c>
       <c r="F46">
-        <v>129359242000</v>
+        <v>233668382000</v>
       </c>
       <c r="G46">
-        <v>6878075000</v>
+        <v>617372000</v>
       </c>
       <c r="H46">
-        <v>36868100</v>
+        <v>17633700</v>
       </c>
       <c r="I46">
-        <v>665515983000</v>
+        <v>290369401000</v>
       </c>
       <c r="J46" t="str">
-        <v>2022-12-08T14:10:00.000Z</v>
+        <v>2022-12-08T10:38:00.000Z</v>
       </c>
       <c r="K46">
-        <v>24022750685000</v>
+        <v>11556188962000</v>
       </c>
       <c r="L46">
-        <v>1401204500</v>
+        <v>705896500</v>
       </c>
       <c r="M46">
-        <v>-20951100</v>
+        <v>11172600</v>
       </c>
       <c r="N46">
-        <v>-399919424000</v>
+        <v>177584735000</v>
       </c>
       <c r="O46">
-        <v>16240200</v>
+        <v>163646600</v>
       </c>
       <c r="P46">
-        <v>714032121000</v>
+        <v>2959092407000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1670508900000</v>
+        <v>1670496000000</v>
       </c>
       <c r="B47">
-        <v>80256000</v>
+        <v>3552800</v>
       </c>
       <c r="C47">
-        <v>24053100</v>
+        <v>13626200</v>
       </c>
       <c r="D47">
-        <v>976700</v>
+        <v>19700</v>
       </c>
       <c r="E47">
-        <v>1426155334000</v>
+        <v>61354709000</v>
       </c>
       <c r="F47">
-        <v>425877955000</v>
+        <v>292579637000</v>
       </c>
       <c r="G47">
-        <v>13556374000</v>
+        <v>525143000</v>
       </c>
       <c r="H47">
-        <v>105285800</v>
+        <v>17198700</v>
       </c>
       <c r="I47">
-        <v>1865589663000</v>
+        <v>354459489000</v>
       </c>
       <c r="J47" t="str">
-        <v>2022-12-08T14:15:00.000Z</v>
+        <v>2022-12-08T10:40:00.000Z</v>
       </c>
       <c r="K47">
-        <v>25888340348000</v>
+        <v>11910648451000</v>
       </c>
       <c r="L47">
-        <v>1506490300</v>
+        <v>723095200</v>
       </c>
       <c r="M47">
-        <v>-56202900</v>
+        <v>10073400</v>
       </c>
       <c r="N47">
-        <v>-1000277379000</v>
+        <v>231224928000</v>
       </c>
       <c r="O47">
-        <v>-39962700</v>
+        <v>173720000</v>
       </c>
       <c r="P47">
-        <v>-286245258000</v>
+        <v>3190317335000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1670509200000</v>
+        <v>1670496120000</v>
       </c>
       <c r="B48">
-        <v>20334700</v>
+        <v>3528400</v>
       </c>
       <c r="C48">
-        <v>20635800</v>
+        <v>10630700</v>
       </c>
       <c r="D48">
-        <v>269500</v>
+        <v>107200</v>
       </c>
       <c r="E48">
-        <v>340279805000</v>
+        <v>57642749000</v>
       </c>
       <c r="F48">
-        <v>384461066000</v>
+        <v>228084945000</v>
       </c>
       <c r="G48">
-        <v>5553403000</v>
+        <v>1993110000</v>
       </c>
       <c r="H48">
-        <v>41240000</v>
+        <v>14266300</v>
       </c>
       <c r="I48">
-        <v>730294274000</v>
+        <v>287720804000</v>
       </c>
       <c r="J48" t="str">
-        <v>2022-12-08T14:20:00.000Z</v>
+        <v>2022-12-08T10:42:00.000Z</v>
       </c>
       <c r="K48">
-        <v>26618634622000</v>
+        <v>12198369255000</v>
       </c>
       <c r="L48">
-        <v>1547730300</v>
+        <v>737361500</v>
       </c>
       <c r="M48">
-        <v>301100</v>
+        <v>7102300</v>
       </c>
       <c r="N48">
-        <v>44181261000</v>
+        <v>170442196000</v>
       </c>
       <c r="O48">
-        <v>-39661600</v>
+        <v>180822300</v>
       </c>
       <c r="P48">
-        <v>-242063997000</v>
+        <v>3360759531000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1670509500000</v>
+        <v>1670496240000</v>
       </c>
       <c r="B49">
-        <v>14439500</v>
+        <v>7418700</v>
       </c>
       <c r="C49">
-        <v>19927300</v>
+        <v>13306300</v>
       </c>
       <c r="D49">
-        <v>471800</v>
+        <v>44400</v>
       </c>
       <c r="E49">
-        <v>251136645000</v>
+        <v>131416209000</v>
       </c>
       <c r="F49">
-        <v>354288650000</v>
+        <v>260233596000</v>
       </c>
       <c r="G49">
-        <v>6345735000</v>
+        <v>1174999000</v>
       </c>
       <c r="H49">
-        <v>34838600</v>
+        <v>20769400</v>
       </c>
       <c r="I49">
-        <v>611771030000</v>
+        <v>392824804000</v>
       </c>
       <c r="J49" t="str">
-        <v>2022-12-08T14:25:00.000Z</v>
+        <v>2022-12-08T10:44:00.000Z</v>
       </c>
       <c r="K49">
-        <v>27230405652000</v>
+        <v>12591194059000</v>
       </c>
       <c r="L49">
-        <v>1582568900</v>
+        <v>758130900</v>
       </c>
       <c r="M49">
-        <v>5487800</v>
+        <v>5887600</v>
       </c>
       <c r="N49">
-        <v>103152005000</v>
+        <v>128817387000</v>
       </c>
       <c r="O49">
-        <v>-34173800</v>
+        <v>186709900</v>
       </c>
       <c r="P49">
-        <v>-138911992000</v>
+        <v>3489576918000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1670509800000</v>
+        <v>1670496360000</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>5689500</v>
       </c>
       <c r="C50">
-        <v>10200</v>
+        <v>13051600</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>63400</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>104937187000</v>
       </c>
       <c r="F50">
-        <v>140520000</v>
+        <v>259212824000</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>931371000</v>
       </c>
       <c r="H50">
-        <v>10200</v>
+        <v>18804500</v>
       </c>
       <c r="I50">
-        <v>140520000</v>
+        <v>365081382000</v>
       </c>
       <c r="J50" t="str">
-        <v>2022-12-08T14:30:00.000Z</v>
+        <v>2022-12-08T10:46:00.000Z</v>
       </c>
       <c r="K50">
-        <v>27230546172000</v>
+        <v>12956275441000</v>
       </c>
       <c r="L50">
-        <v>1582579100</v>
+        <v>776935400</v>
       </c>
       <c r="M50">
-        <v>10200</v>
+        <v>7362100</v>
       </c>
       <c r="N50">
-        <v>140520000</v>
+        <v>154275637000</v>
       </c>
       <c r="O50">
-        <v>-34163600</v>
+        <v>194072000</v>
       </c>
       <c r="P50">
-        <v>-138771472000</v>
+        <v>3643852555000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>1670510700000</v>
+        <v>1670496480000</v>
       </c>
       <c r="B51">
+        <v>4346100</v>
+      </c>
+      <c r="C51">
+        <v>6633100</v>
+      </c>
+      <c r="D51">
+        <v>84700</v>
+      </c>
+      <c r="E51">
+        <v>82984871000</v>
+      </c>
+      <c r="F51">
+        <v>119632620000</v>
+      </c>
+      <c r="G51">
+        <v>1733215000</v>
+      </c>
+      <c r="H51">
+        <v>11063900</v>
+      </c>
+      <c r="I51">
+        <v>204350706000</v>
+      </c>
+      <c r="J51" t="str">
+        <v>2022-12-08T10:48:00.000Z</v>
+      </c>
+      <c r="K51">
+        <v>13160626147000</v>
+      </c>
+      <c r="L51">
+        <v>787999300</v>
+      </c>
+      <c r="M51">
+        <v>2287000</v>
+      </c>
+      <c r="N51">
+        <v>36647749000</v>
+      </c>
+      <c r="O51">
+        <v>196359000</v>
+      </c>
+      <c r="P51">
+        <v>3680500304000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>1670496600000</v>
+      </c>
+      <c r="B52">
+        <v>5556600</v>
+      </c>
+      <c r="C52">
+        <v>4451200</v>
+      </c>
+      <c r="D52">
+        <v>62800</v>
+      </c>
+      <c r="E52">
+        <v>100121786000</v>
+      </c>
+      <c r="F52">
+        <v>88963779000</v>
+      </c>
+      <c r="G52">
+        <v>614299000</v>
+      </c>
+      <c r="H52">
+        <v>10070600</v>
+      </c>
+      <c r="I52">
+        <v>189699864000</v>
+      </c>
+      <c r="J52" t="str">
+        <v>2022-12-08T10:50:00.000Z</v>
+      </c>
+      <c r="K52">
+        <v>13350326011000</v>
+      </c>
+      <c r="L52">
+        <v>798069900</v>
+      </c>
+      <c r="M52">
+        <v>-1105400</v>
+      </c>
+      <c r="N52">
+        <v>-11158007000</v>
+      </c>
+      <c r="O52">
+        <v>195253600</v>
+      </c>
+      <c r="P52">
+        <v>3669342297000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>1670496720000</v>
+      </c>
+      <c r="B53">
+        <v>5764800</v>
+      </c>
+      <c r="C53">
+        <v>3557800</v>
+      </c>
+      <c r="D53">
+        <v>32600</v>
+      </c>
+      <c r="E53">
+        <v>95191177000</v>
+      </c>
+      <c r="F53">
+        <v>79967041000</v>
+      </c>
+      <c r="G53">
+        <v>507753000</v>
+      </c>
+      <c r="H53">
+        <v>9355200</v>
+      </c>
+      <c r="I53">
+        <v>175665971000</v>
+      </c>
+      <c r="J53" t="str">
+        <v>2022-12-08T10:52:00.000Z</v>
+      </c>
+      <c r="K53">
+        <v>13525991982000</v>
+      </c>
+      <c r="L53">
+        <v>807425100</v>
+      </c>
+      <c r="M53">
+        <v>-2207000</v>
+      </c>
+      <c r="N53">
+        <v>-15224136000</v>
+      </c>
+      <c r="O53">
+        <v>193046600</v>
+      </c>
+      <c r="P53">
+        <v>3654118161000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1670496840000</v>
+      </c>
+      <c r="B54">
+        <v>7308000</v>
+      </c>
+      <c r="C54">
+        <v>2806600</v>
+      </c>
+      <c r="D54">
+        <v>68000</v>
+      </c>
+      <c r="E54">
+        <v>110815527000</v>
+      </c>
+      <c r="F54">
+        <v>47802278000</v>
+      </c>
+      <c r="G54">
+        <v>998856000</v>
+      </c>
+      <c r="H54">
+        <v>10182600</v>
+      </c>
+      <c r="I54">
+        <v>159616661000</v>
+      </c>
+      <c r="J54" t="str">
+        <v>2022-12-08T10:54:00.000Z</v>
+      </c>
+      <c r="K54">
+        <v>13685608643000</v>
+      </c>
+      <c r="L54">
+        <v>817607700</v>
+      </c>
+      <c r="M54">
+        <v>-4501400</v>
+      </c>
+      <c r="N54">
+        <v>-63013249000</v>
+      </c>
+      <c r="O54">
+        <v>188545200</v>
+      </c>
+      <c r="P54">
+        <v>3591104912000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1670496960000</v>
+      </c>
+      <c r="B55">
+        <v>7542700</v>
+      </c>
+      <c r="C55">
+        <v>3020500</v>
+      </c>
+      <c r="D55">
+        <v>29400</v>
+      </c>
+      <c r="E55">
+        <v>130453997000</v>
+      </c>
+      <c r="F55">
+        <v>58506880000</v>
+      </c>
+      <c r="G55">
+        <v>377525000</v>
+      </c>
+      <c r="H55">
+        <v>10592600</v>
+      </c>
+      <c r="I55">
+        <v>189338402000</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2022-12-08T10:56:00.000Z</v>
+      </c>
+      <c r="K55">
+        <v>13874947045000</v>
+      </c>
+      <c r="L55">
+        <v>828200300</v>
+      </c>
+      <c r="M55">
+        <v>-4522200</v>
+      </c>
+      <c r="N55">
+        <v>-71947117000</v>
+      </c>
+      <c r="O55">
+        <v>184023000</v>
+      </c>
+      <c r="P55">
+        <v>3519157795000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1670497080000</v>
+      </c>
+      <c r="B56">
+        <v>5876000</v>
+      </c>
+      <c r="C56">
+        <v>2850400</v>
+      </c>
+      <c r="D56">
+        <v>23600</v>
+      </c>
+      <c r="E56">
+        <v>107059898000</v>
+      </c>
+      <c r="F56">
+        <v>62883608000</v>
+      </c>
+      <c r="G56">
+        <v>380483000</v>
+      </c>
+      <c r="H56">
+        <v>8750000</v>
+      </c>
+      <c r="I56">
+        <v>170323989000</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2022-12-08T10:58:00.000Z</v>
+      </c>
+      <c r="K56">
+        <v>14045271034000</v>
+      </c>
+      <c r="L56">
+        <v>836950300</v>
+      </c>
+      <c r="M56">
+        <v>-3025600</v>
+      </c>
+      <c r="N56">
+        <v>-44176290000</v>
+      </c>
+      <c r="O56">
+        <v>180997400</v>
+      </c>
+      <c r="P56">
+        <v>3474981505000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1670497200000</v>
+      </c>
+      <c r="B57">
+        <v>5164400</v>
+      </c>
+      <c r="C57">
+        <v>2062800</v>
+      </c>
+      <c r="D57">
+        <v>35700</v>
+      </c>
+      <c r="E57">
+        <v>97342882000</v>
+      </c>
+      <c r="F57">
+        <v>39781596000</v>
+      </c>
+      <c r="G57">
+        <v>936785000</v>
+      </c>
+      <c r="H57">
+        <v>7262900</v>
+      </c>
+      <c r="I57">
+        <v>138061263000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2022-12-08T11:00:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>14183332297000</v>
+      </c>
+      <c r="L57">
+        <v>844213200</v>
+      </c>
+      <c r="M57">
+        <v>-3101600</v>
+      </c>
+      <c r="N57">
+        <v>-57561286000</v>
+      </c>
+      <c r="O57">
+        <v>177895800</v>
+      </c>
+      <c r="P57">
+        <v>3417420219000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1670497320000</v>
+      </c>
+      <c r="B58">
+        <v>4333300</v>
+      </c>
+      <c r="C58">
+        <v>3464900</v>
+      </c>
+      <c r="D58">
+        <v>41800</v>
+      </c>
+      <c r="E58">
+        <v>72159733000</v>
+      </c>
+      <c r="F58">
+        <v>73833508000</v>
+      </c>
+      <c r="G58">
+        <v>353576000</v>
+      </c>
+      <c r="H58">
+        <v>7840000</v>
+      </c>
+      <c r="I58">
+        <v>146346817000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2022-12-08T11:02:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>14329679114000</v>
+      </c>
+      <c r="L58">
+        <v>852053200</v>
+      </c>
+      <c r="M58">
+        <v>-868400</v>
+      </c>
+      <c r="N58">
+        <v>1673775000</v>
+      </c>
+      <c r="O58">
+        <v>177027400</v>
+      </c>
+      <c r="P58">
+        <v>3419093994000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1670497440000</v>
+      </c>
+      <c r="B59">
+        <v>2617600</v>
+      </c>
+      <c r="C59">
+        <v>5570500</v>
+      </c>
+      <c r="D59">
+        <v>18600</v>
+      </c>
+      <c r="E59">
+        <v>52401604000</v>
+      </c>
+      <c r="F59">
+        <v>121682980000</v>
+      </c>
+      <c r="G59">
+        <v>446415000</v>
+      </c>
+      <c r="H59">
+        <v>8206700</v>
+      </c>
+      <c r="I59">
+        <v>174530999000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2022-12-08T11:04:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>14504210113000</v>
+      </c>
+      <c r="L59">
+        <v>860259900</v>
+      </c>
+      <c r="M59">
+        <v>2952900</v>
+      </c>
+      <c r="N59">
+        <v>69281376000</v>
+      </c>
+      <c r="O59">
+        <v>179980300</v>
+      </c>
+      <c r="P59">
+        <v>3488375370000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1670497560000</v>
+      </c>
+      <c r="B60">
+        <v>3485000</v>
+      </c>
+      <c r="C60">
+        <v>5069000</v>
+      </c>
+      <c r="D60">
+        <v>37200</v>
+      </c>
+      <c r="E60">
+        <v>61075068000</v>
+      </c>
+      <c r="F60">
+        <v>78526769000</v>
+      </c>
+      <c r="G60">
+        <v>580713000</v>
+      </c>
+      <c r="H60">
+        <v>8591200</v>
+      </c>
+      <c r="I60">
+        <v>140182550000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2022-12-08T11:06:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>14644392663000</v>
+      </c>
+      <c r="L60">
+        <v>868851100</v>
+      </c>
+      <c r="M60">
+        <v>1584000</v>
+      </c>
+      <c r="N60">
+        <v>17451701000</v>
+      </c>
+      <c r="O60">
+        <v>181564300</v>
+      </c>
+      <c r="P60">
+        <v>3505827071000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1670497680000</v>
+      </c>
+      <c r="B61">
+        <v>4755500</v>
+      </c>
+      <c r="C61">
+        <v>2085100</v>
+      </c>
+      <c r="D61">
+        <v>6200</v>
+      </c>
+      <c r="E61">
+        <v>99329566000</v>
+      </c>
+      <c r="F61">
+        <v>35554569000</v>
+      </c>
+      <c r="G61">
+        <v>241091000</v>
+      </c>
+      <c r="H61">
+        <v>6846800</v>
+      </c>
+      <c r="I61">
+        <v>135125226000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2022-12-08T11:08:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>14779517889000</v>
+      </c>
+      <c r="L61">
+        <v>875697900</v>
+      </c>
+      <c r="M61">
+        <v>-2670400</v>
+      </c>
+      <c r="N61">
+        <v>-63774997000</v>
+      </c>
+      <c r="O61">
+        <v>178893900</v>
+      </c>
+      <c r="P61">
+        <v>3442052074000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1670497800000</v>
+      </c>
+      <c r="B62">
+        <v>7067100</v>
+      </c>
+      <c r="C62">
+        <v>1482700</v>
+      </c>
+      <c r="D62">
+        <v>71100</v>
+      </c>
+      <c r="E62">
+        <v>148752365000</v>
+      </c>
+      <c r="F62">
+        <v>25019102000</v>
+      </c>
+      <c r="G62">
+        <v>484513000</v>
+      </c>
+      <c r="H62">
+        <v>8620900</v>
+      </c>
+      <c r="I62">
+        <v>174255980000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2022-12-08T11:10:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>14953773869000</v>
+      </c>
+      <c r="L62">
+        <v>884318800</v>
+      </c>
+      <c r="M62">
+        <v>-5584400</v>
+      </c>
+      <c r="N62">
+        <v>-123733263000</v>
+      </c>
+      <c r="O62">
+        <v>173309500</v>
+      </c>
+      <c r="P62">
+        <v>3318318811000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1670497920000</v>
+      </c>
+      <c r="B63">
+        <v>5652000</v>
+      </c>
+      <c r="C63">
+        <v>1332900</v>
+      </c>
+      <c r="D63">
+        <v>45200</v>
+      </c>
+      <c r="E63">
+        <v>94813954000</v>
+      </c>
+      <c r="F63">
+        <v>25535582000</v>
+      </c>
+      <c r="G63">
+        <v>1309884000</v>
+      </c>
+      <c r="H63">
+        <v>7030100</v>
+      </c>
+      <c r="I63">
+        <v>121659420000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2022-12-08T11:12:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>15075433289000</v>
+      </c>
+      <c r="L63">
+        <v>891348900</v>
+      </c>
+      <c r="M63">
+        <v>-4319100</v>
+      </c>
+      <c r="N63">
+        <v>-69278372000</v>
+      </c>
+      <c r="O63">
+        <v>168990400</v>
+      </c>
+      <c r="P63">
+        <v>3249040439000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1670498040000</v>
+      </c>
+      <c r="B64">
+        <v>4599200</v>
+      </c>
+      <c r="C64">
+        <v>1740700</v>
+      </c>
+      <c r="D64">
+        <v>45000</v>
+      </c>
+      <c r="E64">
+        <v>65538198000</v>
+      </c>
+      <c r="F64">
+        <v>28081439000</v>
+      </c>
+      <c r="G64">
+        <v>657625000</v>
+      </c>
+      <c r="H64">
+        <v>6384900</v>
+      </c>
+      <c r="I64">
+        <v>94277262000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2022-12-08T11:14:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>15169710551000</v>
+      </c>
+      <c r="L64">
+        <v>897733800</v>
+      </c>
+      <c r="M64">
+        <v>-2858500</v>
+      </c>
+      <c r="N64">
+        <v>-37456759000</v>
+      </c>
+      <c r="O64">
+        <v>166131900</v>
+      </c>
+      <c r="P64">
+        <v>3211583680000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1670498160000</v>
+      </c>
+      <c r="B65">
+        <v>2178900</v>
+      </c>
+      <c r="C65">
+        <v>3670400</v>
+      </c>
+      <c r="D65">
+        <v>51900</v>
+      </c>
+      <c r="E65">
+        <v>41791258000</v>
+      </c>
+      <c r="F65">
+        <v>94924172000</v>
+      </c>
+      <c r="G65">
+        <v>1897715000</v>
+      </c>
+      <c r="H65">
+        <v>5901200</v>
+      </c>
+      <c r="I65">
+        <v>138613145000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2022-12-08T11:16:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>15308323696000</v>
+      </c>
+      <c r="L65">
+        <v>903635000</v>
+      </c>
+      <c r="M65">
+        <v>1491500</v>
+      </c>
+      <c r="N65">
+        <v>53132914000</v>
+      </c>
+      <c r="O65">
+        <v>167623400</v>
+      </c>
+      <c r="P65">
+        <v>3264716594000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1670498280000</v>
+      </c>
+      <c r="B66">
+        <v>2568300</v>
+      </c>
+      <c r="C66">
+        <v>3135400</v>
+      </c>
+      <c r="D66">
+        <v>83300</v>
+      </c>
+      <c r="E66">
+        <v>58309268000</v>
+      </c>
+      <c r="F66">
+        <v>58288304000</v>
+      </c>
+      <c r="G66">
+        <v>1012096000</v>
+      </c>
+      <c r="H66">
+        <v>5787000</v>
+      </c>
+      <c r="I66">
+        <v>117609668000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2022-12-08T11:18:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>15425933364000</v>
+      </c>
+      <c r="L66">
+        <v>909422000</v>
+      </c>
+      <c r="M66">
+        <v>567100</v>
+      </c>
+      <c r="N66">
+        <v>-20964000</v>
+      </c>
+      <c r="O66">
+        <v>168190500</v>
+      </c>
+      <c r="P66">
+        <v>3264695630000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1670498400000</v>
+      </c>
+      <c r="B67">
+        <v>3827800</v>
+      </c>
+      <c r="C67">
+        <v>1171500</v>
+      </c>
+      <c r="D67">
+        <v>38000</v>
+      </c>
+      <c r="E67">
+        <v>79042897000</v>
+      </c>
+      <c r="F67">
+        <v>20853660000</v>
+      </c>
+      <c r="G67">
+        <v>558611000</v>
+      </c>
+      <c r="H67">
+        <v>5037300</v>
+      </c>
+      <c r="I67">
+        <v>100455168000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2022-12-08T11:20:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>15526388532000</v>
+      </c>
+      <c r="L67">
+        <v>914459300</v>
+      </c>
+      <c r="M67">
+        <v>-2656300</v>
+      </c>
+      <c r="N67">
+        <v>-58189237000</v>
+      </c>
+      <c r="O67">
+        <v>165534200</v>
+      </c>
+      <c r="P67">
+        <v>3206506393000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1670498520000</v>
+      </c>
+      <c r="B68">
+        <v>4283600</v>
+      </c>
+      <c r="C68">
+        <v>1215500</v>
+      </c>
+      <c r="D68">
+        <v>6300</v>
+      </c>
+      <c r="E68">
+        <v>72751012000</v>
+      </c>
+      <c r="F68">
+        <v>23473947000</v>
+      </c>
+      <c r="G68">
+        <v>95890000</v>
+      </c>
+      <c r="H68">
+        <v>5505400</v>
+      </c>
+      <c r="I68">
+        <v>96320849000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2022-12-08T11:22:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>15622709381000</v>
+      </c>
+      <c r="L68">
+        <v>919964700</v>
+      </c>
+      <c r="M68">
+        <v>-3068100</v>
+      </c>
+      <c r="N68">
+        <v>-49277065000</v>
+      </c>
+      <c r="O68">
+        <v>162466100</v>
+      </c>
+      <c r="P68">
+        <v>3157229328000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1670498640000</v>
+      </c>
+      <c r="B69">
+        <v>4377800</v>
+      </c>
+      <c r="C69">
+        <v>871000</v>
+      </c>
+      <c r="D69">
+        <v>22900</v>
+      </c>
+      <c r="E69">
+        <v>49984428000</v>
+      </c>
+      <c r="F69">
+        <v>16599594000</v>
+      </c>
+      <c r="G69">
+        <v>232952000</v>
+      </c>
+      <c r="H69">
+        <v>5271700</v>
+      </c>
+      <c r="I69">
+        <v>66816974000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2022-12-08T11:24:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>15689526355000</v>
+      </c>
+      <c r="L69">
+        <v>925236400</v>
+      </c>
+      <c r="M69">
+        <v>-3506800</v>
+      </c>
+      <c r="N69">
+        <v>-33384834000</v>
+      </c>
+      <c r="O69">
+        <v>158959300</v>
+      </c>
+      <c r="P69">
+        <v>3123844494000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1670498760000</v>
+      </c>
+      <c r="B70">
+        <v>7252000</v>
+      </c>
+      <c r="C70">
+        <v>1561400</v>
+      </c>
+      <c r="D70">
+        <v>22900</v>
+      </c>
+      <c r="E70">
+        <v>135608225000</v>
+      </c>
+      <c r="F70">
+        <v>28579723000</v>
+      </c>
+      <c r="G70">
+        <v>714810000</v>
+      </c>
+      <c r="H70">
+        <v>8836300</v>
+      </c>
+      <c r="I70">
+        <v>164902758000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2022-12-08T11:26:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>15854429113000</v>
+      </c>
+      <c r="L70">
+        <v>934072700</v>
+      </c>
+      <c r="M70">
+        <v>-5690600</v>
+      </c>
+      <c r="N70">
+        <v>-107028502000</v>
+      </c>
+      <c r="O70">
+        <v>153268700</v>
+      </c>
+      <c r="P70">
+        <v>3016815992000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1670498880000</v>
+      </c>
+      <c r="B71">
+        <v>11399400</v>
+      </c>
+      <c r="C71">
+        <v>3172400</v>
+      </c>
+      <c r="D71">
+        <v>7700</v>
+      </c>
+      <c r="E71">
+        <v>198364901000</v>
+      </c>
+      <c r="F71">
+        <v>56728486000</v>
+      </c>
+      <c r="G71">
+        <v>109263000</v>
+      </c>
+      <c r="H71">
+        <v>14579500</v>
+      </c>
+      <c r="I71">
+        <v>255202650000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2022-12-08T11:28:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>16109631763000</v>
+      </c>
+      <c r="L71">
+        <v>948652200</v>
+      </c>
+      <c r="M71">
+        <v>-8227000</v>
+      </c>
+      <c r="N71">
+        <v>-141636415000</v>
+      </c>
+      <c r="O71">
+        <v>145041700</v>
+      </c>
+      <c r="P71">
+        <v>2875179577000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1670499000000</v>
+      </c>
+      <c r="B72">
+        <v>2800</v>
+      </c>
+      <c r="C72">
+        <v>16400</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>26080000</v>
+      </c>
+      <c r="F72">
+        <v>155446000</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>19200</v>
+      </c>
+      <c r="I72">
+        <v>181526000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2022-12-08T11:30:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>16109813289000</v>
+      </c>
+      <c r="L72">
+        <v>948671400</v>
+      </c>
+      <c r="M72">
+        <v>13600</v>
+      </c>
+      <c r="N72">
+        <v>129366000</v>
+      </c>
+      <c r="O72">
+        <v>145055300</v>
+      </c>
+      <c r="P72">
+        <v>2875308943000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1670504400000</v>
+      </c>
+      <c r="B73">
+        <v>23481700</v>
+      </c>
+      <c r="C73">
+        <v>14361700</v>
+      </c>
+      <c r="D73">
+        <v>1634600</v>
+      </c>
+      <c r="E73">
+        <v>378141347000</v>
+      </c>
+      <c r="F73">
+        <v>261018630000</v>
+      </c>
+      <c r="G73">
+        <v>26711361000</v>
+      </c>
+      <c r="H73">
+        <v>39478000</v>
+      </c>
+      <c r="I73">
+        <v>665871338000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2022-12-08T13:00:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>16775684627000</v>
+      </c>
+      <c r="L73">
+        <v>988149400</v>
+      </c>
+      <c r="M73">
+        <v>-9120000</v>
+      </c>
+      <c r="N73">
+        <v>-117122717000</v>
+      </c>
+      <c r="O73">
+        <v>135935300</v>
+      </c>
+      <c r="P73">
+        <v>2758186226000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1670504520000</v>
+      </c>
+      <c r="B74">
+        <v>4873500</v>
+      </c>
+      <c r="C74">
+        <v>4308200</v>
+      </c>
+      <c r="D74">
+        <v>218600</v>
+      </c>
+      <c r="E74">
+        <v>94735525000</v>
+      </c>
+      <c r="F74">
+        <v>69617976000</v>
+      </c>
+      <c r="G74">
+        <v>3322616000.0000005</v>
+      </c>
+      <c r="H74">
+        <v>9400300</v>
+      </c>
+      <c r="I74">
+        <v>167676117000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2022-12-08T13:02:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>16943360744000</v>
+      </c>
+      <c r="L74">
+        <v>997549700</v>
+      </c>
+      <c r="M74">
+        <v>-565300</v>
+      </c>
+      <c r="N74">
+        <v>-25117549000</v>
+      </c>
+      <c r="O74">
+        <v>135370000</v>
+      </c>
+      <c r="P74">
+        <v>2733068677000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1670504640000</v>
+      </c>
+      <c r="B75">
+        <v>7293800</v>
+      </c>
+      <c r="C75">
+        <v>4194900</v>
+      </c>
+      <c r="D75">
+        <v>48400</v>
+      </c>
+      <c r="E75">
+        <v>111194281000</v>
+      </c>
+      <c r="F75">
+        <v>72444813000</v>
+      </c>
+      <c r="G75">
+        <v>1133826000</v>
+      </c>
+      <c r="H75">
+        <v>11537100</v>
+      </c>
+      <c r="I75">
+        <v>184772920000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2022-12-08T13:04:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>17128133664000</v>
+      </c>
+      <c r="L75">
+        <v>1009086800</v>
+      </c>
+      <c r="M75">
+        <v>-3098900</v>
+      </c>
+      <c r="N75">
+        <v>-38749468000</v>
+      </c>
+      <c r="O75">
+        <v>132271100</v>
+      </c>
+      <c r="P75">
+        <v>2694319209000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1670504760000</v>
+      </c>
+      <c r="B76">
+        <v>6128900</v>
+      </c>
+      <c r="C76">
+        <v>7293900</v>
+      </c>
+      <c r="D76">
+        <v>139700</v>
+      </c>
+      <c r="E76">
+        <v>88855467000</v>
+      </c>
+      <c r="F76">
+        <v>148341528000</v>
+      </c>
+      <c r="G76">
+        <v>1460950000</v>
+      </c>
+      <c r="H76">
+        <v>13562500</v>
+      </c>
+      <c r="I76">
+        <v>238657945000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2022-12-08T13:06:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>17366791609000</v>
+      </c>
+      <c r="L76">
+        <v>1022649300</v>
+      </c>
+      <c r="M76">
+        <v>1165000</v>
+      </c>
+      <c r="N76">
+        <v>59486061000</v>
+      </c>
+      <c r="O76">
+        <v>133436100</v>
+      </c>
+      <c r="P76">
+        <v>2753805270000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1670504880000</v>
+      </c>
+      <c r="B77">
+        <v>3761200</v>
+      </c>
+      <c r="C77">
+        <v>6635100</v>
+      </c>
+      <c r="D77">
+        <v>30500</v>
+      </c>
+      <c r="E77">
+        <v>72580875000</v>
+      </c>
+      <c r="F77">
+        <v>107205154000</v>
+      </c>
+      <c r="G77">
+        <v>727730000</v>
+      </c>
+      <c r="H77">
+        <v>10426800</v>
+      </c>
+      <c r="I77">
+        <v>180513759000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2022-12-08T13:08:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>17547305368000</v>
+      </c>
+      <c r="L77">
+        <v>1033076100</v>
+      </c>
+      <c r="M77">
+        <v>2873900</v>
+      </c>
+      <c r="N77">
+        <v>34624279000</v>
+      </c>
+      <c r="O77">
+        <v>136310000</v>
+      </c>
+      <c r="P77">
+        <v>2788429549000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1670505000000</v>
+      </c>
+      <c r="B78">
+        <v>5661100</v>
+      </c>
+      <c r="C78">
+        <v>4852400</v>
+      </c>
+      <c r="D78">
+        <v>69200</v>
+      </c>
+      <c r="E78">
+        <v>93784126000</v>
+      </c>
+      <c r="F78">
+        <v>66847505000</v>
+      </c>
+      <c r="G78">
+        <v>1423090000</v>
+      </c>
+      <c r="H78">
+        <v>10582700</v>
+      </c>
+      <c r="I78">
+        <v>162054721000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2022-12-08T13:10:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>17709360089000</v>
+      </c>
+      <c r="L78">
+        <v>1043658800</v>
+      </c>
+      <c r="M78">
+        <v>-808700</v>
+      </c>
+      <c r="N78">
+        <v>-26936621000</v>
+      </c>
+      <c r="O78">
+        <v>135501300</v>
+      </c>
+      <c r="P78">
+        <v>2761492928000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1670505120000</v>
+      </c>
+      <c r="B79">
+        <v>2755600</v>
+      </c>
+      <c r="C79">
+        <v>5781500</v>
+      </c>
+      <c r="D79">
+        <v>32600</v>
+      </c>
+      <c r="E79">
+        <v>52686919000</v>
+      </c>
+      <c r="F79">
+        <v>144695940000</v>
+      </c>
+      <c r="G79">
+        <v>521674000</v>
+      </c>
+      <c r="H79">
+        <v>8569700</v>
+      </c>
+      <c r="I79">
+        <v>197904533000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2022-12-08T13:12:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>17907264622000</v>
+      </c>
+      <c r="L79">
+        <v>1052228500</v>
+      </c>
+      <c r="M79">
+        <v>3025900</v>
+      </c>
+      <c r="N79">
+        <v>92009021000</v>
+      </c>
+      <c r="O79">
+        <v>138527200</v>
+      </c>
+      <c r="P79">
+        <v>2853501949000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1670505240000</v>
+      </c>
+      <c r="B80">
+        <v>2552600</v>
+      </c>
+      <c r="C80">
+        <v>5103900</v>
+      </c>
+      <c r="D80">
+        <v>15500</v>
+      </c>
+      <c r="E80">
+        <v>45839362000</v>
+      </c>
+      <c r="F80">
+        <v>96867086000</v>
+      </c>
+      <c r="G80">
+        <v>175016000</v>
+      </c>
+      <c r="H80">
+        <v>7672000</v>
+      </c>
+      <c r="I80">
+        <v>142881464000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2022-12-08T13:14:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>18050146086000</v>
+      </c>
+      <c r="L80">
+        <v>1059900500</v>
+      </c>
+      <c r="M80">
+        <v>2551300</v>
+      </c>
+      <c r="N80">
+        <v>51027724000</v>
+      </c>
+      <c r="O80">
+        <v>141078500</v>
+      </c>
+      <c r="P80">
+        <v>2904529673000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1670505360000</v>
+      </c>
+      <c r="B81">
+        <v>4804800</v>
+      </c>
+      <c r="C81">
+        <v>3441900</v>
+      </c>
+      <c r="D81">
+        <v>16300</v>
+      </c>
+      <c r="E81">
+        <v>84959997000</v>
+      </c>
+      <c r="F81">
+        <v>62204291000</v>
+      </c>
+      <c r="G81">
+        <v>429775000</v>
+      </c>
+      <c r="H81">
+        <v>8263000</v>
+      </c>
+      <c r="I81">
+        <v>147594063000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2022-12-08T13:16:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>18197740149000</v>
+      </c>
+      <c r="L81">
+        <v>1068163500</v>
+      </c>
+      <c r="M81">
+        <v>-1362900</v>
+      </c>
+      <c r="N81">
+        <v>-22755706000</v>
+      </c>
+      <c r="O81">
+        <v>139715600</v>
+      </c>
+      <c r="P81">
+        <v>2881773967000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1670505480000</v>
+      </c>
+      <c r="B82">
+        <v>4083400</v>
+      </c>
+      <c r="C82">
+        <v>6630000</v>
+      </c>
+      <c r="D82">
+        <v>16100</v>
+      </c>
+      <c r="E82">
+        <v>77125639000</v>
+      </c>
+      <c r="F82">
+        <v>100721027000</v>
+      </c>
+      <c r="G82">
+        <v>207540000</v>
+      </c>
+      <c r="H82">
+        <v>10729500</v>
+      </c>
+      <c r="I82">
+        <v>178054206000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2022-12-08T13:18:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>18375794355000</v>
+      </c>
+      <c r="L82">
+        <v>1078893000</v>
+      </c>
+      <c r="M82">
+        <v>2546600</v>
+      </c>
+      <c r="N82">
+        <v>23595388000</v>
+      </c>
+      <c r="O82">
+        <v>142262200</v>
+      </c>
+      <c r="P82">
+        <v>2905369355000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1670505600000</v>
+      </c>
+      <c r="B83">
+        <v>6182500</v>
+      </c>
+      <c r="C83">
+        <v>3410600</v>
+      </c>
+      <c r="D83">
+        <v>96000</v>
+      </c>
+      <c r="E83">
+        <v>119741401000</v>
+      </c>
+      <c r="F83">
+        <v>57214043000</v>
+      </c>
+      <c r="G83">
+        <v>1496268000</v>
+      </c>
+      <c r="H83">
+        <v>9689100</v>
+      </c>
+      <c r="I83">
+        <v>178451712000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2022-12-08T13:20:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>18554246067000</v>
+      </c>
+      <c r="L83">
+        <v>1088582100</v>
+      </c>
+      <c r="M83">
+        <v>-2771900</v>
+      </c>
+      <c r="N83">
+        <v>-62527358000</v>
+      </c>
+      <c r="O83">
+        <v>139490300</v>
+      </c>
+      <c r="P83">
+        <v>2842841997000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1670505720000</v>
+      </c>
+      <c r="B84">
+        <v>8884500</v>
+      </c>
+      <c r="C84">
+        <v>2550600</v>
+      </c>
+      <c r="D84">
+        <v>27800</v>
+      </c>
+      <c r="E84">
+        <v>155033251000</v>
+      </c>
+      <c r="F84">
+        <v>41012740000</v>
+      </c>
+      <c r="G84">
+        <v>703178000</v>
+      </c>
+      <c r="H84">
+        <v>11462900</v>
+      </c>
+      <c r="I84">
+        <v>196749169000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2022-12-08T13:22:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>18750995236000</v>
+      </c>
+      <c r="L84">
+        <v>1100045000</v>
+      </c>
+      <c r="M84">
+        <v>-6333900</v>
+      </c>
+      <c r="N84">
+        <v>-114020511000</v>
+      </c>
+      <c r="O84">
+        <v>133156400</v>
+      </c>
+      <c r="P84">
+        <v>2728821486000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1670505840000</v>
+      </c>
+      <c r="B85">
+        <v>6597600</v>
+      </c>
+      <c r="C85">
+        <v>1896800</v>
+      </c>
+      <c r="D85">
+        <v>24000</v>
+      </c>
+      <c r="E85">
+        <v>111411097000</v>
+      </c>
+      <c r="F85">
+        <v>31143414000</v>
+      </c>
+      <c r="G85">
+        <v>386817000</v>
+      </c>
+      <c r="H85">
+        <v>8518400</v>
+      </c>
+      <c r="I85">
+        <v>142941328000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2022-12-08T13:24:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>18893936564000</v>
+      </c>
+      <c r="L85">
+        <v>1108563400</v>
+      </c>
+      <c r="M85">
+        <v>-4700800</v>
+      </c>
+      <c r="N85">
+        <v>-80267683000</v>
+      </c>
+      <c r="O85">
+        <v>128455600</v>
+      </c>
+      <c r="P85">
+        <v>2648553803000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1670505960000</v>
+      </c>
+      <c r="B86">
+        <v>9154300</v>
+      </c>
+      <c r="C86">
+        <v>2806700</v>
+      </c>
+      <c r="D86">
+        <v>56300</v>
+      </c>
+      <c r="E86">
+        <v>137076926000</v>
+      </c>
+      <c r="F86">
+        <v>45867252000</v>
+      </c>
+      <c r="G86">
+        <v>1999544000</v>
+      </c>
+      <c r="H86">
+        <v>12017300</v>
+      </c>
+      <c r="I86">
+        <v>184943722000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2022-12-08T13:26:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>19078880286000</v>
+      </c>
+      <c r="L86">
+        <v>1120580700</v>
+      </c>
+      <c r="M86">
+        <v>-6347600</v>
+      </c>
+      <c r="N86">
+        <v>-91209674000</v>
+      </c>
+      <c r="O86">
+        <v>122108000</v>
+      </c>
+      <c r="P86">
+        <v>2557344129000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1670506080000</v>
+      </c>
+      <c r="B87">
+        <v>6155500</v>
+      </c>
+      <c r="C87">
+        <v>2201100</v>
+      </c>
+      <c r="D87">
+        <v>19000</v>
+      </c>
+      <c r="E87">
+        <v>102823935000</v>
+      </c>
+      <c r="F87">
+        <v>39459076000</v>
+      </c>
+      <c r="G87">
+        <v>358457000</v>
+      </c>
+      <c r="H87">
+        <v>8375600</v>
+      </c>
+      <c r="I87">
+        <v>142641468000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2022-12-08T13:28:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>19221521754000</v>
+      </c>
+      <c r="L87">
+        <v>1128956300</v>
+      </c>
+      <c r="M87">
+        <v>-3954400</v>
+      </c>
+      <c r="N87">
+        <v>-63364859000</v>
+      </c>
+      <c r="O87">
+        <v>118153600</v>
+      </c>
+      <c r="P87">
+        <v>2493979270000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1670506200000</v>
+      </c>
+      <c r="B88">
+        <v>14773800</v>
+      </c>
+      <c r="C88">
+        <v>2253900</v>
+      </c>
+      <c r="D88">
+        <v>24700</v>
+      </c>
+      <c r="E88">
+        <v>263750111000</v>
+      </c>
+      <c r="F88">
+        <v>43605182000</v>
+      </c>
+      <c r="G88">
+        <v>443482000</v>
+      </c>
+      <c r="H88">
+        <v>17052400</v>
+      </c>
+      <c r="I88">
+        <v>307798775000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2022-12-08T13:30:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>19529320529000</v>
+      </c>
+      <c r="L88">
+        <v>1146008700</v>
+      </c>
+      <c r="M88">
+        <v>-12519900</v>
+      </c>
+      <c r="N88">
+        <v>-220144929000</v>
+      </c>
+      <c r="O88">
+        <v>105633700</v>
+      </c>
+      <c r="P88">
+        <v>2273834341000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1670506320000</v>
+      </c>
+      <c r="B89">
+        <v>14847000</v>
+      </c>
+      <c r="C89">
+        <v>4802200</v>
+      </c>
+      <c r="D89">
+        <v>132400</v>
+      </c>
+      <c r="E89">
+        <v>254020096000</v>
+      </c>
+      <c r="F89">
+        <v>85494817000</v>
+      </c>
+      <c r="G89">
+        <v>4294990000</v>
+      </c>
+      <c r="H89">
+        <v>19781600</v>
+      </c>
+      <c r="I89">
+        <v>343809903000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2022-12-08T13:32:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>19873130432000</v>
+      </c>
+      <c r="L89">
+        <v>1165790300</v>
+      </c>
+      <c r="M89">
+        <v>-10044800</v>
+      </c>
+      <c r="N89">
+        <v>-168525279000</v>
+      </c>
+      <c r="O89">
+        <v>95588900</v>
+      </c>
+      <c r="P89">
+        <v>2105309062000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1670506440000</v>
+      </c>
+      <c r="B90">
+        <v>5578200</v>
+      </c>
+      <c r="C90">
+        <v>5665700</v>
+      </c>
+      <c r="D90">
+        <v>55800</v>
+      </c>
+      <c r="E90">
+        <v>97523293000</v>
+      </c>
+      <c r="F90">
+        <v>100830446000</v>
+      </c>
+      <c r="G90">
+        <v>1337338000</v>
+      </c>
+      <c r="H90">
+        <v>11299700</v>
+      </c>
+      <c r="I90">
+        <v>199691077000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2022-12-08T13:34:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>20072821509000</v>
+      </c>
+      <c r="L90">
+        <v>1177090000</v>
+      </c>
+      <c r="M90">
+        <v>87500</v>
+      </c>
+      <c r="N90">
+        <v>3307153000</v>
+      </c>
+      <c r="O90">
+        <v>95676400</v>
+      </c>
+      <c r="P90">
+        <v>2108616215000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1670506560000</v>
+      </c>
+      <c r="B91">
+        <v>3728900</v>
+      </c>
+      <c r="C91">
+        <v>6529600</v>
+      </c>
+      <c r="D91">
+        <v>58600</v>
+      </c>
+      <c r="E91">
+        <v>77862407000</v>
+      </c>
+      <c r="F91">
+        <v>102482239000</v>
+      </c>
+      <c r="G91">
+        <v>1420665000</v>
+      </c>
+      <c r="H91">
+        <v>10317100</v>
+      </c>
+      <c r="I91">
+        <v>181765311000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2022-12-08T13:36:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>20254586820000</v>
+      </c>
+      <c r="L91">
+        <v>1187407100</v>
+      </c>
+      <c r="M91">
+        <v>2800700</v>
+      </c>
+      <c r="N91">
+        <v>24619832000</v>
+      </c>
+      <c r="O91">
+        <v>98477100</v>
+      </c>
+      <c r="P91">
+        <v>2133236047000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1670506680000</v>
+      </c>
+      <c r="B92">
+        <v>3415600</v>
+      </c>
+      <c r="C92">
+        <v>3255100</v>
+      </c>
+      <c r="D92">
+        <v>53700</v>
+      </c>
+      <c r="E92">
+        <v>68513071000</v>
+      </c>
+      <c r="F92">
+        <v>63110727000</v>
+      </c>
+      <c r="G92">
+        <v>1331073000</v>
+      </c>
+      <c r="H92">
+        <v>6724400</v>
+      </c>
+      <c r="I92">
+        <v>132954871000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2022-12-08T13:38:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>20387541691000</v>
+      </c>
+      <c r="L92">
+        <v>1194131500</v>
+      </c>
+      <c r="M92">
+        <v>-160500</v>
+      </c>
+      <c r="N92">
+        <v>-5402344000</v>
+      </c>
+      <c r="O92">
+        <v>98316600</v>
+      </c>
+      <c r="P92">
+        <v>2127833703000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1670506800000</v>
+      </c>
+      <c r="B93">
+        <v>3837100</v>
+      </c>
+      <c r="C93">
+        <v>2750600</v>
+      </c>
+      <c r="D93">
+        <v>29600</v>
+      </c>
+      <c r="E93">
+        <v>67353132000</v>
+      </c>
+      <c r="F93">
+        <v>56066054000</v>
+      </c>
+      <c r="G93">
+        <v>663099000</v>
+      </c>
+      <c r="H93">
+        <v>6617300</v>
+      </c>
+      <c r="I93">
+        <v>124082285000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2022-12-08T13:40:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>20511623976000</v>
+      </c>
+      <c r="L93">
+        <v>1200748800</v>
+      </c>
+      <c r="M93">
+        <v>-1086500</v>
+      </c>
+      <c r="N93">
+        <v>-11287078000</v>
+      </c>
+      <c r="O93">
+        <v>97230100</v>
+      </c>
+      <c r="P93">
+        <v>2116546625000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1670506920000</v>
+      </c>
+      <c r="B94">
+        <v>2584300</v>
+      </c>
+      <c r="C94">
+        <v>3069300</v>
+      </c>
+      <c r="D94">
+        <v>8500</v>
+      </c>
+      <c r="E94">
+        <v>44458958000</v>
+      </c>
+      <c r="F94">
+        <v>55739741000</v>
+      </c>
+      <c r="G94">
+        <v>264742000</v>
+      </c>
+      <c r="H94">
+        <v>5662100</v>
+      </c>
+      <c r="I94">
+        <v>100463441000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2022-12-08T13:42:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>20612087417000</v>
+      </c>
+      <c r="L94">
+        <v>1206410900</v>
+      </c>
+      <c r="M94">
+        <v>485000</v>
+      </c>
+      <c r="N94">
+        <v>11280783000</v>
+      </c>
+      <c r="O94">
+        <v>97715100</v>
+      </c>
+      <c r="P94">
+        <v>2127827408000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1670507040000</v>
+      </c>
+      <c r="B95">
+        <v>4045700</v>
+      </c>
+      <c r="C95">
+        <v>2771800</v>
+      </c>
+      <c r="D95">
+        <v>77200</v>
+      </c>
+      <c r="E95">
+        <v>76075359000</v>
+      </c>
+      <c r="F95">
+        <v>44741740000</v>
+      </c>
+      <c r="G95">
+        <v>1335367000</v>
+      </c>
+      <c r="H95">
+        <v>6894700</v>
+      </c>
+      <c r="I95">
+        <v>122152466000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2022-12-08T13:44:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>20734239883000</v>
+      </c>
+      <c r="L95">
+        <v>1213305600</v>
+      </c>
+      <c r="M95">
+        <v>-1273900</v>
+      </c>
+      <c r="N95">
+        <v>-31333619000</v>
+      </c>
+      <c r="O95">
+        <v>96441200</v>
+      </c>
+      <c r="P95">
+        <v>2096493789000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1670507160000</v>
+      </c>
+      <c r="B96">
+        <v>5340800</v>
+      </c>
+      <c r="C96">
+        <v>2425700</v>
+      </c>
+      <c r="D96">
+        <v>6300</v>
+      </c>
+      <c r="E96">
+        <v>94391172000</v>
+      </c>
+      <c r="F96">
+        <v>43372562000</v>
+      </c>
+      <c r="G96">
+        <v>91353000</v>
+      </c>
+      <c r="H96">
+        <v>7772800</v>
+      </c>
+      <c r="I96">
+        <v>137855087000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2022-12-08T13:46:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>20872094970000</v>
+      </c>
+      <c r="L96">
+        <v>1221078400</v>
+      </c>
+      <c r="M96">
+        <v>-2915100</v>
+      </c>
+      <c r="N96">
+        <v>-51018610000</v>
+      </c>
+      <c r="O96">
+        <v>93526100</v>
+      </c>
+      <c r="P96">
+        <v>2045475179000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1670507280000</v>
+      </c>
+      <c r="B97">
+        <v>7945300</v>
+      </c>
+      <c r="C97">
+        <v>1961600</v>
+      </c>
+      <c r="D97">
+        <v>15600</v>
+      </c>
+      <c r="E97">
+        <v>140900242000</v>
+      </c>
+      <c r="F97">
+        <v>37179512000</v>
+      </c>
+      <c r="G97">
+        <v>139019000</v>
+      </c>
+      <c r="H97">
+        <v>9922500</v>
+      </c>
+      <c r="I97">
+        <v>178218773000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2022-12-08T13:48:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>21050313743000</v>
+      </c>
+      <c r="L97">
+        <v>1231000900</v>
+      </c>
+      <c r="M97">
+        <v>-5983700</v>
+      </c>
+      <c r="N97">
+        <v>-103720730000</v>
+      </c>
+      <c r="O97">
+        <v>87542400</v>
+      </c>
+      <c r="P97">
+        <v>1941754449000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1670507400000</v>
+      </c>
+      <c r="B98">
+        <v>6146100</v>
+      </c>
+      <c r="C98">
+        <v>2885300</v>
+      </c>
+      <c r="D98">
+        <v>76100</v>
+      </c>
+      <c r="E98">
+        <v>102357464000</v>
+      </c>
+      <c r="F98">
+        <v>53657948000</v>
+      </c>
+      <c r="G98">
+        <v>879426000</v>
+      </c>
+      <c r="H98">
+        <v>9107500</v>
+      </c>
+      <c r="I98">
+        <v>156894838000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2022-12-08T13:50:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>21207208581000</v>
+      </c>
+      <c r="L98">
+        <v>1240108400</v>
+      </c>
+      <c r="M98">
+        <v>-3260800</v>
+      </c>
+      <c r="N98">
+        <v>-48699516000</v>
+      </c>
+      <c r="O98">
+        <v>84281600</v>
+      </c>
+      <c r="P98">
+        <v>1893054933000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1670507520000</v>
+      </c>
+      <c r="B99">
+        <v>4933000</v>
+      </c>
+      <c r="C99">
+        <v>3640500</v>
+      </c>
+      <c r="D99">
+        <v>43800</v>
+      </c>
+      <c r="E99">
+        <v>89623691000</v>
+      </c>
+      <c r="F99">
+        <v>59113850000</v>
+      </c>
+      <c r="G99">
+        <v>619458000</v>
+      </c>
+      <c r="H99">
+        <v>8617300</v>
+      </c>
+      <c r="I99">
+        <v>149356999000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2022-12-08T13:52:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>21356565580000</v>
+      </c>
+      <c r="L99">
+        <v>1248725700</v>
+      </c>
+      <c r="M99">
+        <v>-1292500</v>
+      </c>
+      <c r="N99">
+        <v>-30509841000</v>
+      </c>
+      <c r="O99">
+        <v>82989100</v>
+      </c>
+      <c r="P99">
+        <v>1862545092000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1670507640000</v>
+      </c>
+      <c r="B100">
+        <v>4231500</v>
+      </c>
+      <c r="C100">
+        <v>3847700</v>
+      </c>
+      <c r="D100">
+        <v>1900</v>
+      </c>
+      <c r="E100">
+        <v>77207605000</v>
+      </c>
+      <c r="F100">
+        <v>67633416000</v>
+      </c>
+      <c r="G100">
+        <v>40530000</v>
+      </c>
+      <c r="H100">
+        <v>8081100</v>
+      </c>
+      <c r="I100">
+        <v>144881551000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2022-12-08T13:54:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>21501447131000</v>
+      </c>
+      <c r="L100">
+        <v>1256806800</v>
+      </c>
+      <c r="M100">
+        <v>-383800</v>
+      </c>
+      <c r="N100">
+        <v>-9574189000</v>
+      </c>
+      <c r="O100">
+        <v>82605300</v>
+      </c>
+      <c r="P100">
+        <v>1852970903000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1670507760000</v>
+      </c>
+      <c r="B101">
+        <v>2733900</v>
+      </c>
+      <c r="C101">
+        <v>3802900</v>
+      </c>
+      <c r="D101">
+        <v>57300</v>
+      </c>
+      <c r="E101">
+        <v>49980553000</v>
+      </c>
+      <c r="F101">
+        <v>77417697000</v>
+      </c>
+      <c r="G101">
+        <v>1706593000</v>
+      </c>
+      <c r="H101">
+        <v>6594100</v>
+      </c>
+      <c r="I101">
+        <v>129104843000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2022-12-08T13:56:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>21630551974000</v>
+      </c>
+      <c r="L101">
+        <v>1263400900</v>
+      </c>
+      <c r="M101">
+        <v>1069000</v>
+      </c>
+      <c r="N101">
+        <v>27437144000</v>
+      </c>
+      <c r="O101">
+        <v>83674300</v>
+      </c>
+      <c r="P101">
+        <v>1880408047000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1670507880000</v>
+      </c>
+      <c r="B102">
+        <v>3473200</v>
+      </c>
+      <c r="C102">
+        <v>2737100</v>
+      </c>
+      <c r="D102">
+        <v>67000</v>
+      </c>
+      <c r="E102">
+        <v>78126791000</v>
+      </c>
+      <c r="F102">
+        <v>48544729000</v>
+      </c>
+      <c r="G102">
+        <v>1339388000</v>
+      </c>
+      <c r="H102">
+        <v>6277300</v>
+      </c>
+      <c r="I102">
+        <v>128010908000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2022-12-08T13:58:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>21758562882000</v>
+      </c>
+      <c r="L102">
+        <v>1269678200</v>
+      </c>
+      <c r="M102">
+        <v>-736100</v>
+      </c>
+      <c r="N102">
+        <v>-29582062000</v>
+      </c>
+      <c r="O102">
+        <v>82938200</v>
+      </c>
+      <c r="P102">
+        <v>1850825985000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1670508000000</v>
+      </c>
+      <c r="B103">
+        <v>15000800</v>
+      </c>
+      <c r="C103">
+        <v>1959300</v>
+      </c>
+      <c r="D103">
+        <v>154200</v>
+      </c>
+      <c r="E103">
+        <v>274408358000</v>
+      </c>
+      <c r="F103">
+        <v>37482291000</v>
+      </c>
+      <c r="G103">
+        <v>4042180000</v>
+      </c>
+      <c r="H103">
+        <v>17114300</v>
+      </c>
+      <c r="I103">
+        <v>315932829000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2022-12-08T14:00:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>22074495711000</v>
+      </c>
+      <c r="L103">
+        <v>1286792500</v>
+      </c>
+      <c r="M103">
+        <v>-13041500</v>
+      </c>
+      <c r="N103">
+        <v>-236926067000</v>
+      </c>
+      <c r="O103">
+        <v>69896700</v>
+      </c>
+      <c r="P103">
+        <v>1613899918000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1670508120000</v>
+      </c>
+      <c r="B104">
+        <v>20183600</v>
+      </c>
+      <c r="C104">
+        <v>3123900</v>
+      </c>
+      <c r="D104">
+        <v>136700</v>
+      </c>
+      <c r="E104">
+        <v>325030734000</v>
+      </c>
+      <c r="F104">
+        <v>55089770000</v>
+      </c>
+      <c r="G104">
+        <v>2980631000</v>
+      </c>
+      <c r="H104">
+        <v>23444200</v>
+      </c>
+      <c r="I104">
+        <v>383101135000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2022-12-08T14:02:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>22457596846000</v>
+      </c>
+      <c r="L104">
+        <v>1310236700</v>
+      </c>
+      <c r="M104">
+        <v>-17059700</v>
+      </c>
+      <c r="N104">
+        <v>-269940964000</v>
+      </c>
+      <c r="O104">
+        <v>52837000</v>
+      </c>
+      <c r="P104">
+        <v>1343958954000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1670508240000</v>
+      </c>
+      <c r="B105">
+        <v>18433900</v>
+      </c>
+      <c r="C105">
+        <v>7449900</v>
+      </c>
+      <c r="D105">
+        <v>86500</v>
+      </c>
+      <c r="E105">
+        <v>315848571000</v>
+      </c>
+      <c r="F105">
+        <v>116029429000</v>
+      </c>
+      <c r="G105">
+        <v>1292730000</v>
+      </c>
+      <c r="H105">
+        <v>25970300</v>
+      </c>
+      <c r="I105">
+        <v>433170730000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2022-12-08T14:04:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>22890767576000</v>
+      </c>
+      <c r="L105">
+        <v>1336207000</v>
+      </c>
+      <c r="M105">
+        <v>-10984000</v>
+      </c>
+      <c r="N105">
+        <v>-199819142000</v>
+      </c>
+      <c r="O105">
+        <v>41853000</v>
+      </c>
+      <c r="P105">
+        <v>1144139812000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1670508360000</v>
+      </c>
+      <c r="B106">
+        <v>12733000</v>
+      </c>
+      <c r="C106">
+        <v>5933500</v>
+      </c>
+      <c r="D106">
+        <v>86300</v>
+      </c>
+      <c r="E106">
+        <v>186498965000</v>
+      </c>
+      <c r="F106">
+        <v>110060639000</v>
+      </c>
+      <c r="G106">
+        <v>1639082000</v>
+      </c>
+      <c r="H106">
+        <v>18752800</v>
+      </c>
+      <c r="I106">
+        <v>298198686000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2022-12-08T14:06:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>23188966262000</v>
+      </c>
+      <c r="L106">
+        <v>1354959800</v>
+      </c>
+      <c r="M106">
+        <v>-6799500</v>
+      </c>
+      <c r="N106">
+        <v>-76438326000</v>
+      </c>
+      <c r="O106">
+        <v>35053500</v>
+      </c>
+      <c r="P106">
+        <v>1067701486000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1670508480000</v>
+      </c>
+      <c r="B107">
+        <v>3595700</v>
+      </c>
+      <c r="C107">
+        <v>5733500</v>
+      </c>
+      <c r="D107">
+        <v>47400</v>
+      </c>
+      <c r="E107">
+        <v>60684242000</v>
+      </c>
+      <c r="F107">
+        <v>106934301000</v>
+      </c>
+      <c r="G107">
+        <v>649897000</v>
+      </c>
+      <c r="H107">
+        <v>9376600</v>
+      </c>
+      <c r="I107">
+        <v>168268440000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2022-12-08T14:08:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>23357234702000</v>
+      </c>
+      <c r="L107">
+        <v>1364336400</v>
+      </c>
+      <c r="M107">
+        <v>2137800</v>
+      </c>
+      <c r="N107">
+        <v>46250059000</v>
+      </c>
+      <c r="O107">
+        <v>37191300</v>
+      </c>
+      <c r="P107">
+        <v>1113951545000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1670508600000</v>
+      </c>
+      <c r="B108">
+        <v>7439300</v>
+      </c>
+      <c r="C108">
+        <v>3122300</v>
+      </c>
+      <c r="D108">
+        <v>118000</v>
+      </c>
+      <c r="E108">
+        <v>161926381000</v>
+      </c>
+      <c r="F108">
+        <v>52455752000</v>
+      </c>
+      <c r="G108">
+        <v>3013642000</v>
+      </c>
+      <c r="H108">
+        <v>10679600</v>
+      </c>
+      <c r="I108">
+        <v>217395775000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2022-12-08T14:10:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>23574630477000</v>
+      </c>
+      <c r="L108">
+        <v>1375016000</v>
+      </c>
+      <c r="M108">
+        <v>-4317000</v>
+      </c>
+      <c r="N108">
+        <v>-109470629000</v>
+      </c>
+      <c r="O108">
+        <v>32874300</v>
+      </c>
+      <c r="P108">
+        <v>1004480916000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1670508720000</v>
+      </c>
+      <c r="B109">
+        <v>13648600</v>
+      </c>
+      <c r="C109">
+        <v>2886600</v>
+      </c>
+      <c r="D109">
+        <v>90700</v>
+      </c>
+      <c r="E109">
+        <v>241932338000</v>
+      </c>
+      <c r="F109">
+        <v>49295088000</v>
+      </c>
+      <c r="G109">
+        <v>1574611000</v>
+      </c>
+      <c r="H109">
+        <v>16625900</v>
+      </c>
+      <c r="I109">
+        <v>292802037000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2022-12-08T14:12:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>23867432514000</v>
+      </c>
+      <c r="L109">
+        <v>1391641900</v>
+      </c>
+      <c r="M109">
+        <v>-10762000</v>
+      </c>
+      <c r="N109">
+        <v>-192637250000</v>
+      </c>
+      <c r="O109">
+        <v>22112300</v>
+      </c>
+      <c r="P109">
+        <v>811843666000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1670508840000</v>
+      </c>
+      <c r="B110">
+        <v>20203000</v>
+      </c>
+      <c r="C110">
+        <v>4346400</v>
+      </c>
+      <c r="D110">
+        <v>225900</v>
+      </c>
+      <c r="E110">
+        <v>363557698000</v>
+      </c>
+      <c r="F110">
+        <v>73256668000</v>
+      </c>
+      <c r="G110">
+        <v>4255156000</v>
+      </c>
+      <c r="H110">
+        <v>24775300</v>
+      </c>
+      <c r="I110">
+        <v>441069522000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2022-12-08T14:14:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>24308502036000</v>
+      </c>
+      <c r="L110">
+        <v>1416417200</v>
+      </c>
+      <c r="M110">
+        <v>-15856600</v>
+      </c>
+      <c r="N110">
+        <v>-290301030000</v>
+      </c>
+      <c r="O110">
+        <v>6255700</v>
+      </c>
+      <c r="P110">
+        <v>521542636000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1670508960000</v>
+      </c>
+      <c r="B111">
+        <v>52154000</v>
+      </c>
+      <c r="C111">
+        <v>10251100</v>
+      </c>
+      <c r="D111">
+        <v>603600</v>
+      </c>
+      <c r="E111">
+        <v>888695789000</v>
+      </c>
+      <c r="F111">
+        <v>195107402000</v>
+      </c>
+      <c r="G111">
+        <v>8166380000</v>
+      </c>
+      <c r="H111">
+        <v>63008700</v>
+      </c>
+      <c r="I111">
+        <v>1091969571000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2022-12-08T14:16:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>25400471607000</v>
+      </c>
+      <c r="L111">
+        <v>1479425900</v>
+      </c>
+      <c r="M111">
+        <v>-41902900</v>
+      </c>
+      <c r="N111">
+        <v>-693588387000</v>
+      </c>
+      <c r="O111">
+        <v>-35647200</v>
+      </c>
+      <c r="P111">
+        <v>-172045751000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1670509080000</v>
+      </c>
+      <c r="B112">
+        <v>15564300</v>
+      </c>
+      <c r="C112">
+        <v>11248800</v>
+      </c>
+      <c r="D112">
+        <v>251300</v>
+      </c>
+      <c r="E112">
+        <v>299321794000</v>
+      </c>
+      <c r="F112">
+        <v>185122287000</v>
+      </c>
+      <c r="G112">
+        <v>3424660000</v>
+      </c>
+      <c r="H112">
+        <v>27064400</v>
+      </c>
+      <c r="I112">
+        <v>487868741000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2022-12-08T14:18:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>25888340348000</v>
+      </c>
+      <c r="L112">
+        <v>1506490300</v>
+      </c>
+      <c r="M112">
+        <v>-4315500</v>
+      </c>
+      <c r="N112">
+        <v>-114199507000</v>
+      </c>
+      <c r="O112">
+        <v>-39962700</v>
+      </c>
+      <c r="P112">
+        <v>-286245258000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1670509200000</v>
+      </c>
+      <c r="B113">
+        <v>12196600</v>
+      </c>
+      <c r="C113">
+        <v>6572400</v>
+      </c>
+      <c r="D113">
+        <v>155600</v>
+      </c>
+      <c r="E113">
+        <v>200505668000</v>
+      </c>
+      <c r="F113">
+        <v>114971832000</v>
+      </c>
+      <c r="G113">
+        <v>3150546000</v>
+      </c>
+      <c r="H113">
+        <v>18924600</v>
+      </c>
+      <c r="I113">
+        <v>318628046000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2022-12-08T14:20:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>26206968394000</v>
+      </c>
+      <c r="L113">
+        <v>1525414900</v>
+      </c>
+      <c r="M113">
+        <v>-5624200</v>
+      </c>
+      <c r="N113">
+        <v>-85533836000</v>
+      </c>
+      <c r="O113">
+        <v>-45586900</v>
+      </c>
+      <c r="P113">
+        <v>-371779094000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1670509320000</v>
+      </c>
+      <c r="B114">
+        <v>5438400</v>
+      </c>
+      <c r="C114">
+        <v>8967300</v>
+      </c>
+      <c r="D114">
+        <v>48600</v>
+      </c>
+      <c r="E114">
+        <v>89305769000</v>
+      </c>
+      <c r="F114">
+        <v>174439616000</v>
+      </c>
+      <c r="G114">
+        <v>1447164000</v>
+      </c>
+      <c r="H114">
+        <v>14454300</v>
+      </c>
+      <c r="I114">
+        <v>265192549000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2022-12-08T14:22:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>26472160943000</v>
+      </c>
+      <c r="L114">
+        <v>1539869200</v>
+      </c>
+      <c r="M114">
+        <v>3528900</v>
+      </c>
+      <c r="N114">
+        <v>85133847000</v>
+      </c>
+      <c r="O114">
+        <v>-42058000</v>
+      </c>
+      <c r="P114">
+        <v>-286645247000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1670509440000</v>
+      </c>
+      <c r="B115">
+        <v>4703500</v>
+      </c>
+      <c r="C115">
+        <v>10282800</v>
+      </c>
+      <c r="D115">
+        <v>261200</v>
+      </c>
+      <c r="E115">
+        <v>81463803000</v>
+      </c>
+      <c r="F115">
+        <v>199445146000</v>
+      </c>
+      <c r="G115">
+        <v>2109203000</v>
+      </c>
+      <c r="H115">
+        <v>15247500</v>
+      </c>
+      <c r="I115">
+        <v>283018152000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2022-12-08T14:24:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>26755179095000</v>
+      </c>
+      <c r="L115">
+        <v>1555116700</v>
+      </c>
+      <c r="M115">
+        <v>5579300</v>
+      </c>
+      <c r="N115">
+        <v>117981343000</v>
+      </c>
+      <c r="O115">
+        <v>-36478700</v>
+      </c>
+      <c r="P115">
+        <v>-168663904000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1670509560000</v>
+      </c>
+      <c r="B116">
+        <v>5110400</v>
+      </c>
+      <c r="C116">
+        <v>6940900</v>
+      </c>
+      <c r="D116">
+        <v>185600</v>
+      </c>
+      <c r="E116">
+        <v>101117682000</v>
+      </c>
+      <c r="F116">
+        <v>122262648000</v>
+      </c>
+      <c r="G116">
+        <v>3752029000</v>
+      </c>
+      <c r="H116">
+        <v>12236900</v>
+      </c>
+      <c r="I116">
+        <v>227132359000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>2022-12-08T14:26:00.000Z</v>
+      </c>
+      <c r="K116">
+        <v>26982311454000</v>
+      </c>
+      <c r="L116">
+        <v>1567353600</v>
+      </c>
+      <c r="M116">
+        <v>1830500</v>
+      </c>
+      <c r="N116">
+        <v>21144966000</v>
+      </c>
+      <c r="O116">
+        <v>-34648200</v>
+      </c>
+      <c r="P116">
+        <v>-147518938000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1670509680000</v>
+      </c>
+      <c r="B117">
+        <v>7325300</v>
+      </c>
+      <c r="C117">
+        <v>7799700</v>
+      </c>
+      <c r="D117">
+        <v>90300</v>
+      </c>
+      <c r="E117">
+        <v>119023528000</v>
+      </c>
+      <c r="F117">
+        <v>127630474000</v>
+      </c>
+      <c r="G117">
+        <v>1440196000</v>
+      </c>
+      <c r="H117">
+        <v>15215300</v>
+      </c>
+      <c r="I117">
+        <v>248094198000</v>
+      </c>
+      <c r="J117" t="str">
+        <v>2022-12-08T14:28:00.000Z</v>
+      </c>
+      <c r="K117">
+        <v>27230405652000</v>
+      </c>
+      <c r="L117">
+        <v>1582568900</v>
+      </c>
+      <c r="M117">
+        <v>474400</v>
+      </c>
+      <c r="N117">
+        <v>8606946000</v>
+      </c>
+      <c r="O117">
+        <v>-34173800</v>
+      </c>
+      <c r="P117">
+        <v>-138911992000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>1670509800000</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>10200</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>140520000</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>10200</v>
+      </c>
+      <c r="I118">
+        <v>140520000</v>
+      </c>
+      <c r="J118" t="str">
+        <v>2022-12-08T14:30:00.000Z</v>
+      </c>
+      <c r="K118">
+        <v>27230546172000</v>
+      </c>
+      <c r="L118">
+        <v>1582579100</v>
+      </c>
+      <c r="M118">
+        <v>10200</v>
+      </c>
+      <c r="N118">
+        <v>140520000</v>
+      </c>
+      <c r="O118">
+        <v>-34163600</v>
+      </c>
+      <c r="P118">
+        <v>-138771472000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>1670510640000</v>
+      </c>
+      <c r="B119">
         <v>6358300</v>
       </c>
-      <c r="C51">
+      <c r="C119">
         <v>10338800</v>
       </c>
-      <c r="D51">
+      <c r="D119">
         <v>30086500</v>
       </c>
-      <c r="E51">
+      <c r="E119">
         <v>180213743000</v>
       </c>
-      <c r="F51">
+      <c r="F119">
         <v>189893036000</v>
       </c>
-      <c r="G51">
+      <c r="G119">
         <v>630334260000</v>
       </c>
-      <c r="H51">
+      <c r="H119">
         <v>46783600</v>
       </c>
-      <c r="I51">
+      <c r="I119">
         <v>1000441039000</v>
       </c>
-      <c r="J51" t="str">
-        <v>2022-12-08T14:45:00.000Z</v>
-      </c>
-      <c r="K51">
+      <c r="J119" t="str">
+        <v>2022-12-08T14:44:00.000Z</v>
+      </c>
+      <c r="K119">
         <v>28230987211000</v>
       </c>
-      <c r="L51">
+      <c r="L119">
         <v>1629362700</v>
       </c>
-      <c r="M51">
+      <c r="M119">
         <v>3980500</v>
       </c>
-      <c r="N51">
+      <c r="N119">
         <v>9679293000</v>
       </c>
-      <c r="O51">
+      <c r="O119">
         <v>-30183100</v>
       </c>
-      <c r="P51">
+      <c r="P119">
         <v>-129092179000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P119"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20221208/VNINDEX_HOSE_5p_20221208.xlsx
+++ b/name/vnindex/20221208/VNINDEX_HOSE_5p_20221208.xlsx
@@ -566,25 +566,25 @@
         <v>20567600</v>
       </c>
       <c r="E4">
-        <v>74852450000</v>
+        <v>68235273800</v>
       </c>
       <c r="F4">
-        <v>236563027000</v>
+        <v>226676923000</v>
       </c>
       <c r="G4">
-        <v>343692372000</v>
+        <v>293172742200</v>
       </c>
       <c r="H4">
         <v>38937900</v>
       </c>
       <c r="I4">
-        <v>655107849000</v>
+        <v>588084939000</v>
       </c>
       <c r="J4" t="str">
         <v>2022-12-08T09:14:00.000Z</v>
       </c>
       <c r="K4">
-        <v>655117949000</v>
+        <v>588095039000</v>
       </c>
       <c r="L4">
         <v>38938900</v>
@@ -593,13 +593,13 @@
         <v>7915900</v>
       </c>
       <c r="N4">
-        <v>161710577000</v>
+        <v>158441649200</v>
       </c>
       <c r="O4">
         <v>7916900</v>
       </c>
       <c r="P4">
-        <v>161720677000</v>
+        <v>158451749200</v>
       </c>
     </row>
     <row r="5">
@@ -616,10 +616,10 @@
         <v>112500</v>
       </c>
       <c r="E5">
-        <v>72919056000</v>
+        <v>64288894800</v>
       </c>
       <c r="F5">
-        <v>375699088000</v>
+        <v>363099700000</v>
       </c>
       <c r="G5">
         <v>1431003000</v>
@@ -628,13 +628,13 @@
         <v>26506300</v>
       </c>
       <c r="I5">
-        <v>450049147000</v>
+        <v>428819597800</v>
       </c>
       <c r="J5" t="str">
         <v>2022-12-08T09:16:00.000Z</v>
       </c>
       <c r="K5">
-        <v>1105167096000</v>
+        <v>1016914636800</v>
       </c>
       <c r="L5">
         <v>65445200</v>
@@ -643,13 +643,13 @@
         <v>17694400</v>
       </c>
       <c r="N5">
-        <v>302780032000</v>
+        <v>298810805200</v>
       </c>
       <c r="O5">
         <v>25611300</v>
       </c>
       <c r="P5">
-        <v>464500709000</v>
+        <v>457262554400</v>
       </c>
     </row>
     <row r="6">
@@ -666,10 +666,10 @@
         <v>159200</v>
       </c>
       <c r="E6">
-        <v>74473397000</v>
+        <v>70647426800</v>
       </c>
       <c r="F6">
-        <v>172384876000</v>
+        <v>168299165800</v>
       </c>
       <c r="G6">
         <v>2526984000</v>
@@ -678,13 +678,13 @@
         <v>16333200</v>
       </c>
       <c r="I6">
-        <v>249385257000</v>
+        <v>241473576600</v>
       </c>
       <c r="J6" t="str">
         <v>2022-12-08T09:18:00.000Z</v>
       </c>
       <c r="K6">
-        <v>1354552353000</v>
+        <v>1258388213400</v>
       </c>
       <c r="L6">
         <v>81778400</v>
@@ -693,13 +693,13 @@
         <v>7299000</v>
       </c>
       <c r="N6">
-        <v>97911479000</v>
+        <v>97651739000</v>
       </c>
       <c r="O6">
         <v>32910300</v>
       </c>
       <c r="P6">
-        <v>562412188000</v>
+        <v>554914293400</v>
       </c>
     </row>
     <row r="7">
@@ -716,25 +716,25 @@
         <v>235700</v>
       </c>
       <c r="E7">
-        <v>147936739000</v>
+        <v>108490025200</v>
       </c>
       <c r="F7">
-        <v>230623932000</v>
+        <v>170422993200</v>
       </c>
       <c r="G7">
-        <v>3681942000</v>
+        <v>2745679200</v>
       </c>
       <c r="H7">
         <v>25488800</v>
       </c>
       <c r="I7">
-        <v>382242613000</v>
+        <v>281658697600</v>
       </c>
       <c r="J7" t="str">
         <v>2022-12-08T09:20:00.000Z</v>
       </c>
       <c r="K7">
-        <v>1736794966000</v>
+        <v>1540046911000</v>
       </c>
       <c r="L7">
         <v>107267200</v>
@@ -743,13 +743,13 @@
         <v>7498300</v>
       </c>
       <c r="N7">
-        <v>82687193000</v>
+        <v>61932968000</v>
       </c>
       <c r="O7">
         <v>40408600</v>
       </c>
       <c r="P7">
-        <v>645099381000</v>
+        <v>616847261400</v>
       </c>
     </row>
     <row r="8">
@@ -766,25 +766,25 @@
         <v>159500</v>
       </c>
       <c r="E8">
-        <v>180462785000</v>
+        <v>123956947400</v>
       </c>
       <c r="F8">
-        <v>314572732000</v>
+        <v>276207835300</v>
       </c>
       <c r="G8">
-        <v>2199800000</v>
+        <v>2141957900</v>
       </c>
       <c r="H8">
         <v>42423400</v>
       </c>
       <c r="I8">
-        <v>497235317000</v>
+        <v>402306740600</v>
       </c>
       <c r="J8" t="str">
         <v>2022-12-08T09:22:00.000Z</v>
       </c>
       <c r="K8">
-        <v>2234030283000</v>
+        <v>1942353651600</v>
       </c>
       <c r="L8">
         <v>149690600</v>
@@ -793,13 +793,13 @@
         <v>20662500</v>
       </c>
       <c r="N8">
-        <v>134109947000</v>
+        <v>152250887900</v>
       </c>
       <c r="O8">
         <v>61071100</v>
       </c>
       <c r="P8">
-        <v>779209328000</v>
+        <v>769098149300</v>
       </c>
     </row>
     <row r="9">
@@ -816,25 +816,25 @@
         <v>111700</v>
       </c>
       <c r="E9">
-        <v>124903496000</v>
+        <v>93194436800</v>
       </c>
       <c r="F9">
-        <v>139290918000</v>
+        <v>116456775000</v>
       </c>
       <c r="G9">
-        <v>1850841000</v>
+        <v>1689003000</v>
       </c>
       <c r="H9">
         <v>18444700</v>
       </c>
       <c r="I9">
-        <v>266045255000</v>
+        <v>211340214800</v>
       </c>
       <c r="J9" t="str">
         <v>2022-12-08T09:24:00.000Z</v>
       </c>
       <c r="K9">
-        <v>2500075538000</v>
+        <v>2153693866400</v>
       </c>
       <c r="L9">
         <v>168135300</v>
@@ -843,13 +843,13 @@
         <v>1422800</v>
       </c>
       <c r="N9">
-        <v>14387422000</v>
+        <v>23262338200</v>
       </c>
       <c r="O9">
         <v>62493900</v>
       </c>
       <c r="P9">
-        <v>793596750000</v>
+        <v>792360487500</v>
       </c>
     </row>
     <row r="10">
@@ -866,25 +866,25 @@
         <v>222100</v>
       </c>
       <c r="E10">
-        <v>175039089000</v>
+        <v>154148900100</v>
       </c>
       <c r="F10">
-        <v>161232059000</v>
+        <v>140819691800</v>
       </c>
       <c r="G10">
-        <v>2841830000</v>
+        <v>2556815300</v>
       </c>
       <c r="H10">
         <v>26759100</v>
       </c>
       <c r="I10">
-        <v>339112978000</v>
+        <v>297525407200</v>
       </c>
       <c r="J10" t="str">
         <v>2022-12-08T09:26:00.000Z</v>
       </c>
       <c r="K10">
-        <v>2839188516000</v>
+        <v>2451219273600</v>
       </c>
       <c r="L10">
         <v>194894400</v>
@@ -893,13 +893,13 @@
         <v>-2588800</v>
       </c>
       <c r="N10">
-        <v>-13807030000</v>
+        <v>-13329208300</v>
       </c>
       <c r="O10">
         <v>59905100</v>
       </c>
       <c r="P10">
-        <v>779789720000</v>
+        <v>779031279200</v>
       </c>
     </row>
     <row r="11">
@@ -916,25 +916,25 @@
         <v>163100</v>
       </c>
       <c r="E11">
-        <v>121800693000</v>
+        <v>118524072900</v>
       </c>
       <c r="F11">
-        <v>138350658000</v>
+        <v>118805123100</v>
       </c>
       <c r="G11">
-        <v>2877257000</v>
+        <v>2825908400</v>
       </c>
       <c r="H11">
         <v>18622900</v>
       </c>
       <c r="I11">
-        <v>263028608000</v>
+        <v>240155104400</v>
       </c>
       <c r="J11" t="str">
         <v>2022-12-08T09:28:00.000Z</v>
       </c>
       <c r="K11">
-        <v>3102217124000</v>
+        <v>2691374378000</v>
       </c>
       <c r="L11">
         <v>213517300</v>
@@ -943,13 +943,13 @@
         <v>739800</v>
       </c>
       <c r="N11">
-        <v>16549965000</v>
+        <v>281050200</v>
       </c>
       <c r="O11">
         <v>60644900</v>
       </c>
       <c r="P11">
-        <v>796339685000</v>
+        <v>779312329400</v>
       </c>
     </row>
     <row r="12">
@@ -966,10 +966,10 @@
         <v>171600</v>
       </c>
       <c r="E12">
-        <v>84889931000</v>
+        <v>78213014600</v>
       </c>
       <c r="F12">
-        <v>138355842000</v>
+        <v>90986958300</v>
       </c>
       <c r="G12">
         <v>3609734000</v>
@@ -978,13 +978,13 @@
         <v>14907100</v>
       </c>
       <c r="I12">
-        <v>226855507000</v>
+        <v>172809706900</v>
       </c>
       <c r="J12" t="str">
         <v>2022-12-08T09:30:00.000Z</v>
       </c>
       <c r="K12">
-        <v>3329072631000</v>
+        <v>2864184084900</v>
       </c>
       <c r="L12">
         <v>228424400</v>
@@ -993,13 +993,13 @@
         <v>3900900</v>
       </c>
       <c r="N12">
-        <v>53465911000</v>
+        <v>12773943700</v>
       </c>
       <c r="O12">
         <v>64545800</v>
       </c>
       <c r="P12">
-        <v>849805596000</v>
+        <v>792086273100</v>
       </c>
     </row>
     <row r="13">
@@ -1016,10 +1016,10 @@
         <v>138900</v>
       </c>
       <c r="E13">
-        <v>98999712000</v>
+        <v>86678046000</v>
       </c>
       <c r="F13">
-        <v>83769910000</v>
+        <v>74270818600</v>
       </c>
       <c r="G13">
         <v>2499896000</v>
@@ -1028,13 +1028,13 @@
         <v>13122300</v>
       </c>
       <c r="I13">
-        <v>185269518000</v>
+        <v>163448760600</v>
       </c>
       <c r="J13" t="str">
         <v>2022-12-08T09:32:00.000Z</v>
       </c>
       <c r="K13">
-        <v>3514342149000</v>
+        <v>3027632845500</v>
       </c>
       <c r="L13">
         <v>241546700</v>
@@ -1043,13 +1043,13 @@
         <v>-1570800</v>
       </c>
       <c r="N13">
-        <v>-15229802000</v>
+        <v>-12407227400</v>
       </c>
       <c r="O13">
         <v>62975000</v>
       </c>
       <c r="P13">
-        <v>834575794000</v>
+        <v>779679045700</v>
       </c>
     </row>
     <row r="14">
@@ -1066,25 +1066,25 @@
         <v>73300</v>
       </c>
       <c r="E14">
-        <v>109381908000</v>
+        <v>103092004200</v>
       </c>
       <c r="F14">
-        <v>59730270000</v>
+        <v>54703501800</v>
       </c>
       <c r="G14">
-        <v>1206846000</v>
+        <v>1095157800</v>
       </c>
       <c r="H14">
         <v>11754100</v>
       </c>
       <c r="I14">
-        <v>170319024000</v>
+        <v>158890663800</v>
       </c>
       <c r="J14" t="str">
         <v>2022-12-08T09:34:00.000Z</v>
       </c>
       <c r="K14">
-        <v>3684661173000</v>
+        <v>3186523509300</v>
       </c>
       <c r="L14">
         <v>253300800</v>
@@ -1093,13 +1093,13 @@
         <v>-3466800</v>
       </c>
       <c r="N14">
-        <v>-49651638000</v>
+        <v>-48388502400</v>
       </c>
       <c r="O14">
         <v>59508200</v>
       </c>
       <c r="P14">
-        <v>784924156000</v>
+        <v>731290543300</v>
       </c>
     </row>
     <row r="15">
@@ -1116,25 +1116,25 @@
         <v>44400</v>
       </c>
       <c r="E15">
-        <v>152446982000</v>
+        <v>140798542100</v>
       </c>
       <c r="F15">
-        <v>67755515000</v>
+        <v>59450828000</v>
       </c>
       <c r="G15">
-        <v>753921000</v>
+        <v>746428500</v>
       </c>
       <c r="H15">
         <v>15046500</v>
       </c>
       <c r="I15">
-        <v>220956418000</v>
+        <v>200995798600</v>
       </c>
       <c r="J15" t="str">
         <v>2022-12-08T09:36:00.000Z</v>
       </c>
       <c r="K15">
-        <v>3905617591000</v>
+        <v>3387519307900</v>
       </c>
       <c r="L15">
         <v>268347300</v>
@@ -1143,13 +1143,13 @@
         <v>-5914100</v>
       </c>
       <c r="N15">
-        <v>-84691467000</v>
+        <v>-81347714100</v>
       </c>
       <c r="O15">
         <v>53594100</v>
       </c>
       <c r="P15">
-        <v>700232689000</v>
+        <v>649942829200</v>
       </c>
     </row>
     <row r="16">
@@ -1166,10 +1166,10 @@
         <v>19200</v>
       </c>
       <c r="E16">
-        <v>107170439000</v>
+        <v>102299514800</v>
       </c>
       <c r="F16">
-        <v>90625330000</v>
+        <v>79193573200</v>
       </c>
       <c r="G16">
         <v>249990000</v>
@@ -1178,13 +1178,13 @@
         <v>11981500</v>
       </c>
       <c r="I16">
-        <v>198045759000</v>
+        <v>181743078000</v>
       </c>
       <c r="J16" t="str">
         <v>2022-12-08T09:38:00.000Z</v>
       </c>
       <c r="K16">
-        <v>4103663350000</v>
+        <v>3569262385900</v>
       </c>
       <c r="L16">
         <v>280328800</v>
@@ -1193,13 +1193,13 @@
         <v>-892300</v>
       </c>
       <c r="N16">
-        <v>-16545109000</v>
+        <v>-23105941600</v>
       </c>
       <c r="O16">
         <v>52701800</v>
       </c>
       <c r="P16">
-        <v>683687580000</v>
+        <v>626836887600</v>
       </c>
     </row>
     <row r="17">
@@ -1216,10 +1216,10 @@
         <v>62300</v>
       </c>
       <c r="E17">
-        <v>95114300000</v>
+        <v>89573446400</v>
       </c>
       <c r="F17">
-        <v>109159362000</v>
+        <v>89343497700</v>
       </c>
       <c r="G17">
         <v>1388760000</v>
@@ -1228,13 +1228,13 @@
         <v>11964200</v>
       </c>
       <c r="I17">
-        <v>205662422000</v>
+        <v>180305704100</v>
       </c>
       <c r="J17" t="str">
         <v>2022-12-08T09:40:00.000Z</v>
       </c>
       <c r="K17">
-        <v>4309325772000</v>
+        <v>3749568090000</v>
       </c>
       <c r="L17">
         <v>292293000</v>
@@ -1243,13 +1243,13 @@
         <v>95900</v>
       </c>
       <c r="N17">
-        <v>14045062000</v>
+        <v>-229948700</v>
       </c>
       <c r="O17">
         <v>52797700</v>
       </c>
       <c r="P17">
-        <v>697732642000</v>
+        <v>626606938900</v>
       </c>
     </row>
     <row r="18">
@@ -1266,25 +1266,25 @@
         <v>15300</v>
       </c>
       <c r="E18">
-        <v>72345969000</v>
+        <v>69365852100</v>
       </c>
       <c r="F18">
-        <v>132484843000</v>
+        <v>119407733200</v>
       </c>
       <c r="G18">
-        <v>279370000</v>
+        <v>275473900</v>
       </c>
       <c r="H18">
         <v>12400300</v>
       </c>
       <c r="I18">
-        <v>205110182000</v>
+        <v>189049059200</v>
       </c>
       <c r="J18" t="str">
         <v>2022-12-08T09:42:00.000Z</v>
       </c>
       <c r="K18">
-        <v>4514435954000</v>
+        <v>3938617149200</v>
       </c>
       <c r="L18">
         <v>304693300</v>
@@ -1293,13 +1293,13 @@
         <v>4073400</v>
       </c>
       <c r="N18">
-        <v>60138874000</v>
+        <v>50041881100</v>
       </c>
       <c r="O18">
         <v>56871100</v>
       </c>
       <c r="P18">
-        <v>757871516000</v>
+        <v>676648820000</v>
       </c>
     </row>
     <row r="19">
@@ -1316,25 +1316,25 @@
         <v>122600</v>
       </c>
       <c r="E19">
-        <v>113568391000</v>
+        <v>71316585100</v>
       </c>
       <c r="F19">
-        <v>120901244000</v>
+        <v>103791770600</v>
       </c>
       <c r="G19">
-        <v>2870895000</v>
+        <v>2854011900</v>
       </c>
       <c r="H19">
         <v>13640100</v>
       </c>
       <c r="I19">
-        <v>237340530000</v>
+        <v>177962367600</v>
       </c>
       <c r="J19" t="str">
         <v>2022-12-08T09:44:00.000Z</v>
       </c>
       <c r="K19">
-        <v>4751776484000</v>
+        <v>4116579516800</v>
       </c>
       <c r="L19">
         <v>318333400</v>
@@ -1343,13 +1343,13 @@
         <v>-799700</v>
       </c>
       <c r="N19">
-        <v>7332853000</v>
+        <v>32475185500</v>
       </c>
       <c r="O19">
         <v>56071400</v>
       </c>
       <c r="P19">
-        <v>765204369000</v>
+        <v>709124005500</v>
       </c>
     </row>
     <row r="20">
@@ -1366,25 +1366,25 @@
         <v>63400</v>
       </c>
       <c r="E20">
-        <v>122875262000</v>
+        <v>96910852400</v>
       </c>
       <c r="F20">
-        <v>317288709000</v>
+        <v>300696118200</v>
       </c>
       <c r="G20">
-        <v>1061032000</v>
+        <v>946147000</v>
       </c>
       <c r="H20">
         <v>29811700</v>
       </c>
       <c r="I20">
-        <v>441225003000</v>
+        <v>398553117600</v>
       </c>
       <c r="J20" t="str">
         <v>2022-12-08T09:46:00.000Z</v>
       </c>
       <c r="K20">
-        <v>5193001487000</v>
+        <v>4515132634400</v>
       </c>
       <c r="L20">
         <v>348145100</v>
@@ -1393,13 +1393,13 @@
         <v>11151100</v>
       </c>
       <c r="N20">
-        <v>194413447000</v>
+        <v>203785265800</v>
       </c>
       <c r="O20">
         <v>67222500</v>
       </c>
       <c r="P20">
-        <v>959617816000</v>
+        <v>912909271300</v>
       </c>
     </row>
     <row r="21">
@@ -1416,25 +1416,25 @@
         <v>209500</v>
       </c>
       <c r="E21">
-        <v>170251979000</v>
+        <v>151884964400</v>
       </c>
       <c r="F21">
-        <v>410817124000</v>
+        <v>389927434600</v>
       </c>
       <c r="G21">
-        <v>5162833000</v>
+        <v>5051344600</v>
       </c>
       <c r="H21">
         <v>34102500</v>
       </c>
       <c r="I21">
-        <v>586231936000</v>
+        <v>546863743600</v>
       </c>
       <c r="J21" t="str">
         <v>2022-12-08T09:48:00.000Z</v>
       </c>
       <c r="K21">
-        <v>5779233423000</v>
+        <v>5061996378000</v>
       </c>
       <c r="L21">
         <v>382247600</v>
@@ -1443,13 +1443,13 @@
         <v>12874600</v>
       </c>
       <c r="N21">
-        <v>240565145000</v>
+        <v>238042470200</v>
       </c>
       <c r="O21">
         <v>80097100</v>
       </c>
       <c r="P21">
-        <v>1200182961000</v>
+        <v>1150951741500</v>
       </c>
     </row>
     <row r="22">
@@ -1466,25 +1466,25 @@
         <v>191100</v>
       </c>
       <c r="E22">
-        <v>188338121000</v>
+        <v>172752122600</v>
       </c>
       <c r="F22">
-        <v>340344162000</v>
+        <v>292006548000</v>
       </c>
       <c r="G22">
-        <v>3887928000</v>
+        <v>3834581400</v>
       </c>
       <c r="H22">
         <v>31343100</v>
       </c>
       <c r="I22">
-        <v>532570211000</v>
+        <v>468593252000</v>
       </c>
       <c r="J22" t="str">
         <v>2022-12-08T09:50:00.000Z</v>
       </c>
       <c r="K22">
-        <v>6311803634000</v>
+        <v>5530589630000</v>
       </c>
       <c r="L22">
         <v>413590700</v>
@@ -1493,13 +1493,13 @@
         <v>8937000</v>
       </c>
       <c r="N22">
-        <v>152006041000</v>
+        <v>119254425400</v>
       </c>
       <c r="O22">
         <v>89034100</v>
       </c>
       <c r="P22">
-        <v>1352189002000</v>
+        <v>1270206166900</v>
       </c>
     </row>
     <row r="23">
@@ -1516,25 +1516,25 @@
         <v>80900</v>
       </c>
       <c r="E23">
-        <v>264467296000</v>
+        <v>261900165700</v>
       </c>
       <c r="F23">
-        <v>223537523000</v>
+        <v>191797295000</v>
       </c>
       <c r="G23">
-        <v>1223136000</v>
+        <v>1207152000</v>
       </c>
       <c r="H23">
         <v>27779700</v>
       </c>
       <c r="I23">
-        <v>489227955000</v>
+        <v>454904612700</v>
       </c>
       <c r="J23" t="str">
         <v>2022-12-08T09:52:00.000Z</v>
       </c>
       <c r="K23">
-        <v>6801031589000</v>
+        <v>5985494242700</v>
       </c>
       <c r="L23">
         <v>441370400</v>
@@ -1543,13 +1543,13 @@
         <v>-2877400</v>
       </c>
       <c r="N23">
-        <v>-40929773000</v>
+        <v>-70102870700</v>
       </c>
       <c r="O23">
         <v>86156700</v>
       </c>
       <c r="P23">
-        <v>1311259229000</v>
+        <v>1200103296200</v>
       </c>
     </row>
     <row r="24">
@@ -1566,10 +1566,10 @@
         <v>100000</v>
       </c>
       <c r="E24">
-        <v>95976521000</v>
+        <v>88391813300</v>
       </c>
       <c r="F24">
-        <v>244832276000</v>
+        <v>225036991100</v>
       </c>
       <c r="G24">
         <v>1453456000</v>
@@ -1578,13 +1578,13 @@
         <v>19981300</v>
       </c>
       <c r="I24">
-        <v>342262253000</v>
+        <v>314882260400</v>
       </c>
       <c r="J24" t="str">
         <v>2022-12-08T09:54:00.000Z</v>
       </c>
       <c r="K24">
-        <v>7143293842000</v>
+        <v>6300376503100</v>
       </c>
       <c r="L24">
         <v>461351700</v>
@@ -1593,13 +1593,13 @@
         <v>8299100</v>
       </c>
       <c r="N24">
-        <v>148855755000</v>
+        <v>136645177800</v>
       </c>
       <c r="O24">
         <v>94455800</v>
       </c>
       <c r="P24">
-        <v>1460114984000</v>
+        <v>1336748474000</v>
       </c>
     </row>
     <row r="25">
@@ -1616,25 +1616,25 @@
         <v>71000</v>
       </c>
       <c r="E25">
-        <v>113602796000</v>
+        <v>98055359000</v>
       </c>
       <c r="F25">
-        <v>120906417000</v>
+        <v>98883661800</v>
       </c>
       <c r="G25">
-        <v>2123828000</v>
+        <v>2105846000</v>
       </c>
       <c r="H25">
         <v>14122500</v>
       </c>
       <c r="I25">
-        <v>236633041000</v>
+        <v>199044866800</v>
       </c>
       <c r="J25" t="str">
         <v>2022-12-08T09:56:00.000Z</v>
       </c>
       <c r="K25">
-        <v>7379926883000</v>
+        <v>6499421369900</v>
       </c>
       <c r="L25">
         <v>475474200</v>
@@ -1643,13 +1643,13 @@
         <v>506100</v>
       </c>
       <c r="N25">
-        <v>7303621000</v>
+        <v>828302800</v>
       </c>
       <c r="O25">
         <v>94961900</v>
       </c>
       <c r="P25">
-        <v>1467418605000</v>
+        <v>1337576776800</v>
       </c>
     </row>
     <row r="26">
@@ -1666,10 +1666,10 @@
         <v>16900</v>
       </c>
       <c r="E26">
-        <v>73869620000</v>
+        <v>65549548400</v>
       </c>
       <c r="F26">
-        <v>87172056000</v>
+        <v>80347087800</v>
       </c>
       <c r="G26">
         <v>324357000</v>
@@ -1678,13 +1678,13 @@
         <v>8701500</v>
       </c>
       <c r="I26">
-        <v>161366033000</v>
+        <v>146220993200</v>
       </c>
       <c r="J26" t="str">
         <v>2022-12-08T09:58:00.000Z</v>
       </c>
       <c r="K26">
-        <v>7541292916000</v>
+        <v>6645642363100</v>
       </c>
       <c r="L26">
         <v>484175700</v>
@@ -1693,13 +1693,13 @@
         <v>605400</v>
       </c>
       <c r="N26">
-        <v>13302436000</v>
+        <v>14797539400</v>
       </c>
       <c r="O26">
         <v>95567300</v>
       </c>
       <c r="P26">
-        <v>1480721041000</v>
+        <v>1352374316200</v>
       </c>
     </row>
     <row r="27">
@@ -1716,10 +1716,10 @@
         <v>22700</v>
       </c>
       <c r="E27">
-        <v>56415976000</v>
+        <v>51477719200</v>
       </c>
       <c r="F27">
-        <v>54991418000</v>
+        <v>52797214400</v>
       </c>
       <c r="G27">
         <v>173250000</v>
@@ -1728,13 +1728,13 @@
         <v>7266600</v>
       </c>
       <c r="I27">
-        <v>111580644000</v>
+        <v>104448183600</v>
       </c>
       <c r="J27" t="str">
         <v>2022-12-08T10:00:00.000Z</v>
       </c>
       <c r="K27">
-        <v>7652873560000</v>
+        <v>6750090546700</v>
       </c>
       <c r="L27">
         <v>491442300</v>
@@ -1743,13 +1743,13 @@
         <v>-37700</v>
       </c>
       <c r="N27">
-        <v>-1424558000</v>
+        <v>1319495200</v>
       </c>
       <c r="O27">
         <v>95529600</v>
       </c>
       <c r="P27">
-        <v>1479296483000</v>
+        <v>1353693811400</v>
       </c>
     </row>
     <row r="28">
@@ -1766,25 +1766,25 @@
         <v>94100</v>
       </c>
       <c r="E28">
-        <v>81078611000</v>
+        <v>52831985900</v>
       </c>
       <c r="F28">
-        <v>86718440000</v>
+        <v>75232937000</v>
       </c>
       <c r="G28">
-        <v>1752091000</v>
+        <v>1750192900</v>
       </c>
       <c r="H28">
         <v>10964100</v>
       </c>
       <c r="I28">
-        <v>169549142000</v>
+        <v>129815115800</v>
       </c>
       <c r="J28" t="str">
         <v>2022-12-08T10:02:00.000Z</v>
       </c>
       <c r="K28">
-        <v>7822422702000</v>
+        <v>6879905662500</v>
       </c>
       <c r="L28">
         <v>502406400</v>
@@ -1793,13 +1793,13 @@
         <v>689000</v>
       </c>
       <c r="N28">
-        <v>5639829000</v>
+        <v>22400951100</v>
       </c>
       <c r="O28">
         <v>96218600</v>
       </c>
       <c r="P28">
-        <v>1484936312000</v>
+        <v>1376094762500</v>
       </c>
     </row>
     <row r="29">
@@ -1816,10 +1816,10 @@
         <v>39800</v>
       </c>
       <c r="E29">
-        <v>84644981000</v>
+        <v>75899934800</v>
       </c>
       <c r="F29">
-        <v>83017038000</v>
+        <v>74936526600</v>
       </c>
       <c r="G29">
         <v>456501000</v>
@@ -1828,13 +1828,13 @@
         <v>10740900</v>
       </c>
       <c r="I29">
-        <v>168118520000</v>
+        <v>151292962400</v>
       </c>
       <c r="J29" t="str">
         <v>2022-12-08T10:04:00.000Z</v>
       </c>
       <c r="K29">
-        <v>7990541222000</v>
+        <v>7031198624900</v>
       </c>
       <c r="L29">
         <v>513147300</v>
@@ -1843,13 +1843,13 @@
         <v>-1023300</v>
       </c>
       <c r="N29">
-        <v>-1627943000</v>
+        <v>-963408200</v>
       </c>
       <c r="O29">
         <v>95195300</v>
       </c>
       <c r="P29">
-        <v>1483308369000</v>
+        <v>1375131354300</v>
       </c>
     </row>
     <row r="30">
@@ -1866,10 +1866,10 @@
         <v>20500</v>
       </c>
       <c r="E30">
-        <v>87350742000</v>
+        <v>81336762000</v>
       </c>
       <c r="F30">
-        <v>56906498000</v>
+        <v>48128484800</v>
       </c>
       <c r="G30">
         <v>194453000</v>
@@ -1878,13 +1878,13 @@
         <v>8049800</v>
       </c>
       <c r="I30">
-        <v>144451693000</v>
+        <v>129659699800</v>
       </c>
       <c r="J30" t="str">
         <v>2022-12-08T10:06:00.000Z</v>
       </c>
       <c r="K30">
-        <v>8134992915000</v>
+        <v>7160858324700</v>
       </c>
       <c r="L30">
         <v>521197100</v>
@@ -1893,13 +1893,13 @@
         <v>-2248900</v>
       </c>
       <c r="N30">
-        <v>-30444244000</v>
+        <v>-33208277200</v>
       </c>
       <c r="O30">
         <v>92946400</v>
       </c>
       <c r="P30">
-        <v>1452864125000</v>
+        <v>1341923077100</v>
       </c>
     </row>
     <row r="31">
@@ -1916,25 +1916,25 @@
         <v>33000</v>
       </c>
       <c r="E31">
-        <v>80636783000</v>
+        <v>75647777000</v>
       </c>
       <c r="F31">
-        <v>48484199000</v>
+        <v>38286606800</v>
       </c>
       <c r="G31">
-        <v>615952000</v>
+        <v>578989000</v>
       </c>
       <c r="H31">
         <v>8119200</v>
       </c>
       <c r="I31">
-        <v>129736934000</v>
+        <v>114513372800</v>
       </c>
       <c r="J31" t="str">
         <v>2022-12-08T10:08:00.000Z</v>
       </c>
       <c r="K31">
-        <v>8264729849000</v>
+        <v>7275371697500</v>
       </c>
       <c r="L31">
         <v>529316300</v>
@@ -1943,13 +1943,13 @@
         <v>-2994200</v>
       </c>
       <c r="N31">
-        <v>-32152584000</v>
+        <v>-37361170200</v>
       </c>
       <c r="O31">
         <v>89952200</v>
       </c>
       <c r="P31">
-        <v>1420711541000</v>
+        <v>1304561906900</v>
       </c>
     </row>
     <row r="32">
@@ -1966,10 +1966,10 @@
         <v>18100</v>
       </c>
       <c r="E32">
-        <v>59553947000</v>
+        <v>55485919100</v>
       </c>
       <c r="F32">
-        <v>54698097000</v>
+        <v>45273431100</v>
       </c>
       <c r="G32">
         <v>322263000</v>
@@ -1978,13 +1978,13 @@
         <v>6792800</v>
       </c>
       <c r="I32">
-        <v>114574307000</v>
+        <v>101081613200</v>
       </c>
       <c r="J32" t="str">
         <v>2022-12-08T10:10:00.000Z</v>
       </c>
       <c r="K32">
-        <v>8379304156000</v>
+        <v>7376453310700</v>
       </c>
       <c r="L32">
         <v>536109100</v>
@@ -1993,13 +1993,13 @@
         <v>-178900</v>
       </c>
       <c r="N32">
-        <v>-4855850000</v>
+        <v>-10212488000</v>
       </c>
       <c r="O32">
         <v>89773300</v>
       </c>
       <c r="P32">
-        <v>1415855691000</v>
+        <v>1294349418900</v>
       </c>
     </row>
     <row r="33">
@@ -2016,25 +2016,25 @@
         <v>11500</v>
       </c>
       <c r="E33">
-        <v>56855124000</v>
+        <v>54476904600</v>
       </c>
       <c r="F33">
-        <v>132303367000</v>
+        <v>106965730000</v>
       </c>
       <c r="G33">
-        <v>218568000</v>
+        <v>175011600</v>
       </c>
       <c r="H33">
         <v>12785800</v>
       </c>
       <c r="I33">
-        <v>189377059000</v>
+        <v>161617646200</v>
       </c>
       <c r="J33" t="str">
         <v>2022-12-08T10:12:00.000Z</v>
       </c>
       <c r="K33">
-        <v>8568681215000</v>
+        <v>7538070956900</v>
       </c>
       <c r="L33">
         <v>548894900</v>
@@ -2043,13 +2043,13 @@
         <v>4772300</v>
       </c>
       <c r="N33">
-        <v>75448243000</v>
+        <v>52488825400</v>
       </c>
       <c r="O33">
         <v>94545600</v>
       </c>
       <c r="P33">
-        <v>1491303934000</v>
+        <v>1346838244300</v>
       </c>
     </row>
     <row r="34">
@@ -2066,25 +2066,25 @@
         <v>48500</v>
       </c>
       <c r="E34">
-        <v>93344445000</v>
+        <v>87929865000</v>
       </c>
       <c r="F34">
-        <v>81605939000</v>
+        <v>73147905500</v>
       </c>
       <c r="G34">
-        <v>704475000</v>
+        <v>477402300</v>
       </c>
       <c r="H34">
         <v>10400400</v>
       </c>
       <c r="I34">
-        <v>175654859000</v>
+        <v>161555172800</v>
       </c>
       <c r="J34" t="str">
         <v>2022-12-08T10:14:00.000Z</v>
       </c>
       <c r="K34">
-        <v>8744336074000</v>
+        <v>7699626129700</v>
       </c>
       <c r="L34">
         <v>559295300</v>
@@ -2093,13 +2093,13 @@
         <v>-1395900</v>
       </c>
       <c r="N34">
-        <v>-11738506000</v>
+        <v>-14781959500</v>
       </c>
       <c r="O34">
         <v>93149700</v>
       </c>
       <c r="P34">
-        <v>1479565428000</v>
+        <v>1332056284800</v>
       </c>
     </row>
     <row r="35">
@@ -2116,25 +2116,25 @@
         <v>149100</v>
       </c>
       <c r="E35">
-        <v>79561480000</v>
+        <v>68476775800</v>
       </c>
       <c r="F35">
-        <v>93659729000</v>
+        <v>66347069000</v>
       </c>
       <c r="G35">
-        <v>2864568000</v>
+        <v>2862769800</v>
       </c>
       <c r="H35">
         <v>8824100</v>
       </c>
       <c r="I35">
-        <v>176085777000</v>
+        <v>137686614600</v>
       </c>
       <c r="J35" t="str">
         <v>2022-12-08T10:16:00.000Z</v>
       </c>
       <c r="K35">
-        <v>8920421851000</v>
+        <v>7837312744300</v>
       </c>
       <c r="L35">
         <v>568119400</v>
@@ -2143,13 +2143,13 @@
         <v>-163000</v>
       </c>
       <c r="N35">
-        <v>14098249000</v>
+        <v>-2129706800</v>
       </c>
       <c r="O35">
         <v>92986700</v>
       </c>
       <c r="P35">
-        <v>1493663677000</v>
+        <v>1329926578000</v>
       </c>
     </row>
     <row r="36">
@@ -2166,10 +2166,10 @@
         <v>12600</v>
       </c>
       <c r="E36">
-        <v>46550886000</v>
+        <v>43423816200</v>
       </c>
       <c r="F36">
-        <v>92389420000</v>
+        <v>67959374500</v>
       </c>
       <c r="G36">
         <v>173449000</v>
@@ -2178,13 +2178,13 @@
         <v>7224600</v>
       </c>
       <c r="I36">
-        <v>139113755000</v>
+        <v>111556639700</v>
       </c>
       <c r="J36" t="str">
         <v>2022-12-08T10:18:00.000Z</v>
       </c>
       <c r="K36">
-        <v>9059535606000</v>
+        <v>7948869384000</v>
       </c>
       <c r="L36">
         <v>575344000</v>
@@ -2193,13 +2193,13 @@
         <v>1701800</v>
       </c>
       <c r="N36">
-        <v>45838534000</v>
+        <v>24535558300</v>
       </c>
       <c r="O36">
         <v>94688500</v>
       </c>
       <c r="P36">
-        <v>1539502211000</v>
+        <v>1354462136300</v>
       </c>
     </row>
     <row r="37">
@@ -2216,10 +2216,10 @@
         <v>2100</v>
       </c>
       <c r="E37">
-        <v>68669404000</v>
+        <v>65495780800</v>
       </c>
       <c r="F37">
-        <v>114342566000</v>
+        <v>67613242100</v>
       </c>
       <c r="G37">
         <v>45467000</v>
@@ -2228,13 +2228,13 @@
         <v>9946800</v>
       </c>
       <c r="I37">
-        <v>183057437000</v>
+        <v>133154489900</v>
       </c>
       <c r="J37" t="str">
         <v>2022-12-08T10:20:00.000Z</v>
       </c>
       <c r="K37">
-        <v>9242593043000</v>
+        <v>8082023873900</v>
       </c>
       <c r="L37">
         <v>585290800</v>
@@ -2243,13 +2243,13 @@
         <v>1143300</v>
       </c>
       <c r="N37">
-        <v>45673162000</v>
+        <v>2117461300</v>
       </c>
       <c r="O37">
         <v>95831800</v>
       </c>
       <c r="P37">
-        <v>1585175373000</v>
+        <v>1356579597600</v>
       </c>
     </row>
     <row r="38">
@@ -2266,10 +2266,10 @@
         <v>38200</v>
       </c>
       <c r="E38">
-        <v>50635995000</v>
+        <v>47110923600</v>
       </c>
       <c r="F38">
-        <v>117660617000</v>
+        <v>74023797500</v>
       </c>
       <c r="G38">
         <v>608570000</v>
@@ -2278,13 +2278,13 @@
         <v>9007200</v>
       </c>
       <c r="I38">
-        <v>168905182000</v>
+        <v>121743291100</v>
       </c>
       <c r="J38" t="str">
         <v>2022-12-08T10:22:00.000Z</v>
       </c>
       <c r="K38">
-        <v>9411498225000</v>
+        <v>8203767165000</v>
       </c>
       <c r="L38">
         <v>594298000</v>
@@ -2293,13 +2293,13 @@
         <v>2718200</v>
       </c>
       <c r="N38">
-        <v>67024622000</v>
+        <v>26912873900</v>
       </c>
       <c r="O38">
         <v>98550000</v>
       </c>
       <c r="P38">
-        <v>1652199995000</v>
+        <v>1383492471500</v>
       </c>
     </row>
     <row r="39">
@@ -2316,25 +2316,25 @@
         <v>23300</v>
       </c>
       <c r="E39">
-        <v>40531254000</v>
+        <v>35972617200</v>
       </c>
       <c r="F39">
-        <v>87125323000</v>
+        <v>80361094000</v>
       </c>
       <c r="G39">
-        <v>249493000</v>
+        <v>214528000</v>
       </c>
       <c r="H39">
         <v>6885600</v>
       </c>
       <c r="I39">
-        <v>127906070000</v>
+        <v>116548239200</v>
       </c>
       <c r="J39" t="str">
         <v>2022-12-08T10:24:00.000Z</v>
       </c>
       <c r="K39">
-        <v>9539404295000</v>
+        <v>8320315404200</v>
       </c>
       <c r="L39">
         <v>601183600</v>
@@ -2343,13 +2343,13 @@
         <v>2208300</v>
       </c>
       <c r="N39">
-        <v>46594069000</v>
+        <v>44388476800</v>
       </c>
       <c r="O39">
         <v>100758300</v>
       </c>
       <c r="P39">
-        <v>1698794064000</v>
+        <v>1427880948300</v>
       </c>
     </row>
     <row r="40">
@@ -2366,25 +2366,25 @@
         <v>62000</v>
       </c>
       <c r="E40">
-        <v>52574743000</v>
+        <v>44091334900</v>
       </c>
       <c r="F40">
-        <v>91745088000</v>
+        <v>90394240200</v>
       </c>
       <c r="G40">
-        <v>1331048000</v>
+        <v>1329149900</v>
       </c>
       <c r="H40">
         <v>7525300</v>
       </c>
       <c r="I40">
-        <v>145650879000</v>
+        <v>135814725000</v>
       </c>
       <c r="J40" t="str">
         <v>2022-12-08T10:26:00.000Z</v>
       </c>
       <c r="K40">
-        <v>9685055174000</v>
+        <v>8456130129200</v>
       </c>
       <c r="L40">
         <v>608708900</v>
@@ -2393,13 +2393,13 @@
         <v>1888500</v>
       </c>
       <c r="N40">
-        <v>39170345000</v>
+        <v>46302905300</v>
       </c>
       <c r="O40">
         <v>102646800</v>
       </c>
       <c r="P40">
-        <v>1737964409000</v>
+        <v>1474183853600</v>
       </c>
     </row>
     <row r="41">
@@ -2416,25 +2416,25 @@
         <v>26100</v>
       </c>
       <c r="E41">
-        <v>49405401000</v>
+        <v>48389018400</v>
       </c>
       <c r="F41">
-        <v>100634341000</v>
+        <v>95895684400</v>
       </c>
       <c r="G41">
-        <v>469992000</v>
+        <v>458004000</v>
       </c>
       <c r="H41">
         <v>7321000</v>
       </c>
       <c r="I41">
-        <v>150509734000</v>
+        <v>144742706800</v>
       </c>
       <c r="J41" t="str">
         <v>2022-12-08T10:28:00.000Z</v>
       </c>
       <c r="K41">
-        <v>9835564908000</v>
+        <v>8600872836000</v>
       </c>
       <c r="L41">
         <v>616029900</v>
@@ -2443,13 +2443,13 @@
         <v>1852500</v>
       </c>
       <c r="N41">
-        <v>51228940000</v>
+        <v>47506666000</v>
       </c>
       <c r="O41">
         <v>104499300</v>
       </c>
       <c r="P41">
-        <v>1789193349000</v>
+        <v>1521690519600</v>
       </c>
     </row>
     <row r="42">
@@ -2466,25 +2466,25 @@
         <v>112000</v>
       </c>
       <c r="E42">
-        <v>59575113000</v>
+        <v>55888503300</v>
       </c>
       <c r="F42">
-        <v>156306352000</v>
+        <v>144607063000</v>
       </c>
       <c r="G42">
-        <v>1773308000</v>
+        <v>1762618700</v>
       </c>
       <c r="H42">
         <v>10916100</v>
       </c>
       <c r="I42">
-        <v>217654773000</v>
+        <v>202258185000</v>
       </c>
       <c r="J42" t="str">
         <v>2022-12-08T10:30:00.000Z</v>
       </c>
       <c r="K42">
-        <v>10053219681000</v>
+        <v>8803131021000</v>
       </c>
       <c r="L42">
         <v>626946000</v>
@@ -2493,13 +2493,13 @@
         <v>3954100</v>
       </c>
       <c r="N42">
-        <v>96731239000</v>
+        <v>88718559700</v>
       </c>
       <c r="O42">
         <v>108453400</v>
       </c>
       <c r="P42">
-        <v>1885924588000</v>
+        <v>1610409079300</v>
       </c>
     </row>
     <row r="43">
@@ -2516,10 +2516,10 @@
         <v>36200</v>
       </c>
       <c r="E43">
-        <v>44039827000</v>
+        <v>39253418200</v>
       </c>
       <c r="F43">
-        <v>245064993000</v>
+        <v>216585101400</v>
       </c>
       <c r="G43">
         <v>527911000</v>
@@ -2528,13 +2528,13 @@
         <v>15219300</v>
       </c>
       <c r="I43">
-        <v>289632731000</v>
+        <v>256366430600</v>
       </c>
       <c r="J43" t="str">
         <v>2022-12-08T10:32:00.000Z</v>
       </c>
       <c r="K43">
-        <v>10342852412000</v>
+        <v>9059497451600</v>
       </c>
       <c r="L43">
         <v>642165300</v>
@@ -2543,13 +2543,13 @@
         <v>9681700</v>
       </c>
       <c r="N43">
-        <v>201025166000</v>
+        <v>177331683200</v>
       </c>
       <c r="O43">
         <v>118135100</v>
       </c>
       <c r="P43">
-        <v>2086949754000</v>
+        <v>1787740762500</v>
       </c>
     </row>
     <row r="44">
@@ -2566,10 +2566,10 @@
         <v>21500</v>
       </c>
       <c r="E44">
-        <v>50326381000</v>
+        <v>49208100400</v>
       </c>
       <c r="F44">
-        <v>322497935000</v>
+        <v>303728123600</v>
       </c>
       <c r="G44">
         <v>375085000</v>
@@ -2578,13 +2578,13 @@
         <v>18726500</v>
       </c>
       <c r="I44">
-        <v>373199401000</v>
+        <v>353311309000</v>
       </c>
       <c r="J44" t="str">
         <v>2022-12-08T10:34:00.000Z</v>
       </c>
       <c r="K44">
-        <v>10716051813000</v>
+        <v>9412808760600</v>
       </c>
       <c r="L44">
         <v>660891800</v>
@@ -2593,13 +2593,13 @@
         <v>13185600</v>
       </c>
       <c r="N44">
-        <v>272171554000</v>
+        <v>254520023200</v>
       </c>
       <c r="O44">
         <v>131320700</v>
       </c>
       <c r="P44">
-        <v>2359121308000</v>
+        <v>2042260785700</v>
       </c>
     </row>
     <row r="45">
@@ -2616,10 +2616,10 @@
         <v>187100</v>
       </c>
       <c r="E45">
-        <v>61997497000</v>
+        <v>60347748400</v>
       </c>
       <c r="F45">
-        <v>484383861000</v>
+        <v>445110174000</v>
       </c>
       <c r="G45">
         <v>3386390000</v>
@@ -2628,13 +2628,13 @@
         <v>27371000</v>
       </c>
       <c r="I45">
-        <v>549767748000</v>
+        <v>508844312400</v>
       </c>
       <c r="J45" t="str">
         <v>2022-12-08T10:36:00.000Z</v>
       </c>
       <c r="K45">
-        <v>11265819561000</v>
+        <v>9921653073000</v>
       </c>
       <c r="L45">
         <v>688262800</v>
@@ -2643,13 +2643,13 @@
         <v>21153300</v>
       </c>
       <c r="N45">
-        <v>422386364000</v>
+        <v>384762425600</v>
       </c>
       <c r="O45">
         <v>152474000</v>
       </c>
       <c r="P45">
-        <v>2781507672000</v>
+        <v>2427023211300</v>
       </c>
     </row>
     <row r="46">
@@ -2666,10 +2666,10 @@
         <v>69700</v>
       </c>
       <c r="E46">
-        <v>56083647000</v>
+        <v>53211921600</v>
       </c>
       <c r="F46">
-        <v>233668382000</v>
+        <v>219544719800</v>
       </c>
       <c r="G46">
         <v>617372000</v>
@@ -2678,13 +2678,13 @@
         <v>17633700</v>
       </c>
       <c r="I46">
-        <v>290369401000</v>
+        <v>273374013400</v>
       </c>
       <c r="J46" t="str">
         <v>2022-12-08T10:38:00.000Z</v>
       </c>
       <c r="K46">
-        <v>11556188962000</v>
+        <v>10195027086400</v>
       </c>
       <c r="L46">
         <v>705896500</v>
@@ -2693,13 +2693,13 @@
         <v>11172600</v>
       </c>
       <c r="N46">
-        <v>177584735000</v>
+        <v>166332798200</v>
       </c>
       <c r="O46">
         <v>163646600</v>
       </c>
       <c r="P46">
-        <v>2959092407000</v>
+        <v>2593356009500</v>
       </c>
     </row>
     <row r="47">
@@ -2716,10 +2716,10 @@
         <v>19700</v>
       </c>
       <c r="E47">
-        <v>61354709000</v>
+        <v>57844622600</v>
       </c>
       <c r="F47">
-        <v>292579637000</v>
+        <v>275205828200</v>
       </c>
       <c r="G47">
         <v>525143000</v>
@@ -2728,13 +2728,13 @@
         <v>17198700</v>
       </c>
       <c r="I47">
-        <v>354459489000</v>
+        <v>333575593800</v>
       </c>
       <c r="J47" t="str">
         <v>2022-12-08T10:40:00.000Z</v>
       </c>
       <c r="K47">
-        <v>11910648451000</v>
+        <v>10528602680200</v>
       </c>
       <c r="L47">
         <v>723095200</v>
@@ -2743,13 +2743,13 @@
         <v>10073400</v>
       </c>
       <c r="N47">
-        <v>231224928000</v>
+        <v>217361205600</v>
       </c>
       <c r="O47">
         <v>173720000</v>
       </c>
       <c r="P47">
-        <v>3190317335000</v>
+        <v>2810717215100</v>
       </c>
     </row>
     <row r="48">
@@ -2766,25 +2766,25 @@
         <v>107200</v>
       </c>
       <c r="E48">
-        <v>57642749000</v>
+        <v>56326266800</v>
       </c>
       <c r="F48">
-        <v>228084945000</v>
+        <v>211062784200</v>
       </c>
       <c r="G48">
-        <v>1993110000</v>
+        <v>1915188000</v>
       </c>
       <c r="H48">
         <v>14266300</v>
       </c>
       <c r="I48">
-        <v>287720804000</v>
+        <v>269304239000</v>
       </c>
       <c r="J48" t="str">
         <v>2022-12-08T10:42:00.000Z</v>
       </c>
       <c r="K48">
-        <v>12198369255000</v>
+        <v>10797906919200</v>
       </c>
       <c r="L48">
         <v>737361500</v>
@@ -2793,13 +2793,13 @@
         <v>7102300</v>
       </c>
       <c r="N48">
-        <v>170442196000</v>
+        <v>154736517400</v>
       </c>
       <c r="O48">
         <v>180822300</v>
       </c>
       <c r="P48">
-        <v>3360759531000</v>
+        <v>2965453732500</v>
       </c>
     </row>
     <row r="49">
@@ -2816,25 +2816,25 @@
         <v>44400</v>
       </c>
       <c r="E49">
-        <v>131416209000</v>
+        <v>120362973300</v>
       </c>
       <c r="F49">
-        <v>260233596000</v>
+        <v>242093454300</v>
       </c>
       <c r="G49">
-        <v>1174999000</v>
+        <v>1109065000</v>
       </c>
       <c r="H49">
         <v>20769400</v>
       </c>
       <c r="I49">
-        <v>392824804000</v>
+        <v>363565492600</v>
       </c>
       <c r="J49" t="str">
         <v>2022-12-08T10:44:00.000Z</v>
       </c>
       <c r="K49">
-        <v>12591194059000</v>
+        <v>11161472411800</v>
       </c>
       <c r="L49">
         <v>758130900</v>
@@ -2843,13 +2843,13 @@
         <v>5887600</v>
       </c>
       <c r="N49">
-        <v>128817387000</v>
+        <v>121730481000</v>
       </c>
       <c r="O49">
         <v>186709900</v>
       </c>
       <c r="P49">
-        <v>3489576918000</v>
+        <v>3087184213500</v>
       </c>
     </row>
     <row r="50">
@@ -2866,10 +2866,10 @@
         <v>63400</v>
       </c>
       <c r="E50">
-        <v>104937187000</v>
+        <v>100594434100</v>
       </c>
       <c r="F50">
-        <v>259212824000</v>
+        <v>240453901700</v>
       </c>
       <c r="G50">
         <v>931371000</v>
@@ -2878,13 +2878,13 @@
         <v>18804500</v>
       </c>
       <c r="I50">
-        <v>365081382000</v>
+        <v>341979706800</v>
       </c>
       <c r="J50" t="str">
         <v>2022-12-08T10:46:00.000Z</v>
       </c>
       <c r="K50">
-        <v>12956275441000</v>
+        <v>11503452118600</v>
       </c>
       <c r="L50">
         <v>776935400</v>
@@ -2893,13 +2893,13 @@
         <v>7362100</v>
       </c>
       <c r="N50">
-        <v>154275637000</v>
+        <v>139859467600</v>
       </c>
       <c r="O50">
         <v>194072000</v>
       </c>
       <c r="P50">
-        <v>3643852555000</v>
+        <v>3227043681100</v>
       </c>
     </row>
     <row r="51">
@@ -2916,25 +2916,25 @@
         <v>84700</v>
       </c>
       <c r="E51">
-        <v>82984871000</v>
+        <v>77673787400</v>
       </c>
       <c r="F51">
-        <v>119632620000</v>
+        <v>116140315800</v>
       </c>
       <c r="G51">
-        <v>1733215000</v>
+        <v>1666082200</v>
       </c>
       <c r="H51">
         <v>11063900</v>
       </c>
       <c r="I51">
-        <v>204350706000</v>
+        <v>195480185400</v>
       </c>
       <c r="J51" t="str">
         <v>2022-12-08T10:48:00.000Z</v>
       </c>
       <c r="K51">
-        <v>13160626147000</v>
+        <v>11698932304000</v>
       </c>
       <c r="L51">
         <v>787999300</v>
@@ -2943,13 +2943,13 @@
         <v>2287000</v>
       </c>
       <c r="N51">
-        <v>36647749000</v>
+        <v>38466528400</v>
       </c>
       <c r="O51">
         <v>196359000</v>
       </c>
       <c r="P51">
-        <v>3680500304000</v>
+        <v>3265510209500</v>
       </c>
     </row>
     <row r="52">
@@ -2966,25 +2966,25 @@
         <v>62800</v>
       </c>
       <c r="E52">
-        <v>100121786000</v>
+        <v>91271844800</v>
       </c>
       <c r="F52">
-        <v>88963779000</v>
+        <v>85226520000</v>
       </c>
       <c r="G52">
-        <v>614299000</v>
+        <v>602710600</v>
       </c>
       <c r="H52">
         <v>10070600</v>
       </c>
       <c r="I52">
-        <v>189699864000</v>
+        <v>177101075400</v>
       </c>
       <c r="J52" t="str">
         <v>2022-12-08T10:50:00.000Z</v>
       </c>
       <c r="K52">
-        <v>13350326011000</v>
+        <v>11876033379400</v>
       </c>
       <c r="L52">
         <v>798069900</v>
@@ -2993,13 +2993,13 @@
         <v>-1105400</v>
       </c>
       <c r="N52">
-        <v>-11158007000</v>
+        <v>-6045324800</v>
       </c>
       <c r="O52">
         <v>195253600</v>
       </c>
       <c r="P52">
-        <v>3669342297000</v>
+        <v>3259464884700</v>
       </c>
     </row>
     <row r="53">
@@ -3016,25 +3016,25 @@
         <v>32600</v>
       </c>
       <c r="E53">
-        <v>95191177000</v>
+        <v>91283288800</v>
       </c>
       <c r="F53">
-        <v>79967041000</v>
+        <v>74506107400</v>
       </c>
       <c r="G53">
-        <v>507753000</v>
+        <v>367493400</v>
       </c>
       <c r="H53">
         <v>9355200</v>
       </c>
       <c r="I53">
-        <v>175665971000</v>
+        <v>166156889600</v>
       </c>
       <c r="J53" t="str">
         <v>2022-12-08T10:52:00.000Z</v>
       </c>
       <c r="K53">
-        <v>13525991982000</v>
+        <v>12042190269000</v>
       </c>
       <c r="L53">
         <v>807425100</v>
@@ -3043,13 +3043,13 @@
         <v>-2207000</v>
       </c>
       <c r="N53">
-        <v>-15224136000</v>
+        <v>-16777181400</v>
       </c>
       <c r="O53">
         <v>193046600</v>
       </c>
       <c r="P53">
-        <v>3654118161000</v>
+        <v>3242687703300</v>
       </c>
     </row>
     <row r="54">
@@ -3066,10 +3066,10 @@
         <v>68000</v>
       </c>
       <c r="E54">
-        <v>110815527000</v>
+        <v>100399953000</v>
       </c>
       <c r="F54">
-        <v>47802278000</v>
+        <v>43372911800</v>
       </c>
       <c r="G54">
         <v>998856000</v>
@@ -3078,13 +3078,13 @@
         <v>10182600</v>
       </c>
       <c r="I54">
-        <v>159616661000</v>
+        <v>144771720800</v>
       </c>
       <c r="J54" t="str">
         <v>2022-12-08T10:54:00.000Z</v>
       </c>
       <c r="K54">
-        <v>13685608643000</v>
+        <v>12186961989800</v>
       </c>
       <c r="L54">
         <v>817607700</v>
@@ -3093,13 +3093,13 @@
         <v>-4501400</v>
       </c>
       <c r="N54">
-        <v>-63013249000</v>
+        <v>-57027041200</v>
       </c>
       <c r="O54">
         <v>188545200</v>
       </c>
       <c r="P54">
-        <v>3591104912000</v>
+        <v>3185660662100</v>
       </c>
     </row>
     <row r="55">
@@ -3116,25 +3116,25 @@
         <v>29400</v>
       </c>
       <c r="E55">
-        <v>130453997000</v>
+        <v>123717939800</v>
       </c>
       <c r="F55">
-        <v>58506880000</v>
+        <v>51364829200</v>
       </c>
       <c r="G55">
-        <v>377525000</v>
+        <v>371930600</v>
       </c>
       <c r="H55">
         <v>10592600</v>
       </c>
       <c r="I55">
-        <v>189338402000</v>
+        <v>175454699600</v>
       </c>
       <c r="J55" t="str">
         <v>2022-12-08T10:56:00.000Z</v>
       </c>
       <c r="K55">
-        <v>13874947045000</v>
+        <v>12362416689400</v>
       </c>
       <c r="L55">
         <v>828200300</v>
@@ -3143,13 +3143,13 @@
         <v>-4522200</v>
       </c>
       <c r="N55">
-        <v>-71947117000</v>
+        <v>-72353110600</v>
       </c>
       <c r="O55">
         <v>184023000</v>
       </c>
       <c r="P55">
-        <v>3519157795000</v>
+        <v>3113307551500</v>
       </c>
     </row>
     <row r="56">
@@ -3166,10 +3166,10 @@
         <v>23600</v>
       </c>
       <c r="E56">
-        <v>107059898000</v>
+        <v>104008752200</v>
       </c>
       <c r="F56">
-        <v>62883608000</v>
+        <v>59978915600</v>
       </c>
       <c r="G56">
         <v>380483000</v>
@@ -3178,13 +3178,13 @@
         <v>8750000</v>
       </c>
       <c r="I56">
-        <v>170323989000</v>
+        <v>164368150800</v>
       </c>
       <c r="J56" t="str">
         <v>2022-12-08T10:58:00.000Z</v>
       </c>
       <c r="K56">
-        <v>14045271034000</v>
+        <v>12526784840200</v>
       </c>
       <c r="L56">
         <v>836950300</v>
@@ -3193,13 +3193,13 @@
         <v>-3025600</v>
       </c>
       <c r="N56">
-        <v>-44176290000</v>
+        <v>-44029836600</v>
       </c>
       <c r="O56">
         <v>180997400</v>
       </c>
       <c r="P56">
-        <v>3474981505000</v>
+        <v>3069277714900</v>
       </c>
     </row>
     <row r="57">
@@ -3216,25 +3216,25 @@
         <v>35700</v>
       </c>
       <c r="E57">
-        <v>97342882000</v>
+        <v>90190941100</v>
       </c>
       <c r="F57">
-        <v>39781596000</v>
+        <v>38172706500</v>
       </c>
       <c r="G57">
-        <v>936785000</v>
+        <v>574547600</v>
       </c>
       <c r="H57">
         <v>7262900</v>
       </c>
       <c r="I57">
-        <v>138061263000</v>
+        <v>128938195200</v>
       </c>
       <c r="J57" t="str">
         <v>2022-12-08T11:00:00.000Z</v>
       </c>
       <c r="K57">
-        <v>14183332297000</v>
+        <v>12655723035400</v>
       </c>
       <c r="L57">
         <v>844213200</v>
@@ -3243,13 +3243,13 @@
         <v>-3101600</v>
       </c>
       <c r="N57">
-        <v>-57561286000</v>
+        <v>-52018234600</v>
       </c>
       <c r="O57">
         <v>177895800</v>
       </c>
       <c r="P57">
-        <v>3417420219000</v>
+        <v>3017259480300</v>
       </c>
     </row>
     <row r="58">
@@ -3266,25 +3266,25 @@
         <v>41800</v>
       </c>
       <c r="E58">
-        <v>72159733000</v>
+        <v>60804199900</v>
       </c>
       <c r="F58">
-        <v>73833508000</v>
+        <v>60164290900</v>
       </c>
       <c r="G58">
-        <v>353576000</v>
+        <v>338990600</v>
       </c>
       <c r="H58">
         <v>7840000</v>
       </c>
       <c r="I58">
-        <v>146346817000</v>
+        <v>121307481400</v>
       </c>
       <c r="J58" t="str">
         <v>2022-12-08T11:02:00.000Z</v>
       </c>
       <c r="K58">
-        <v>14329679114000</v>
+        <v>12777030516800</v>
       </c>
       <c r="L58">
         <v>852053200</v>
@@ -3293,13 +3293,13 @@
         <v>-868400</v>
       </c>
       <c r="N58">
-        <v>1673775000</v>
+        <v>-639909000</v>
       </c>
       <c r="O58">
         <v>177027400</v>
       </c>
       <c r="P58">
-        <v>3419093994000</v>
+        <v>3016619571300</v>
       </c>
     </row>
     <row r="59">
@@ -3316,10 +3316,10 @@
         <v>18600</v>
       </c>
       <c r="E59">
-        <v>52401604000</v>
+        <v>46842268900</v>
       </c>
       <c r="F59">
-        <v>121682980000</v>
+        <v>111108864700</v>
       </c>
       <c r="G59">
         <v>446415000</v>
@@ -3328,13 +3328,13 @@
         <v>8206700</v>
       </c>
       <c r="I59">
-        <v>174530999000</v>
+        <v>158397548600</v>
       </c>
       <c r="J59" t="str">
         <v>2022-12-08T11:04:00.000Z</v>
       </c>
       <c r="K59">
-        <v>14504210113000</v>
+        <v>12935428065400</v>
       </c>
       <c r="L59">
         <v>860259900</v>
@@ -3343,13 +3343,13 @@
         <v>2952900</v>
       </c>
       <c r="N59">
-        <v>69281376000</v>
+        <v>64266595800</v>
       </c>
       <c r="O59">
         <v>179980300</v>
       </c>
       <c r="P59">
-        <v>3488375370000</v>
+        <v>3080886167100</v>
       </c>
     </row>
     <row r="60">
@@ -3366,10 +3366,10 @@
         <v>37200</v>
       </c>
       <c r="E60">
-        <v>61075068000</v>
+        <v>58008337800</v>
       </c>
       <c r="F60">
-        <v>78526769000</v>
+        <v>71741561000</v>
       </c>
       <c r="G60">
         <v>580713000</v>
@@ -3378,13 +3378,13 @@
         <v>8591200</v>
       </c>
       <c r="I60">
-        <v>140182550000</v>
+        <v>130330611800</v>
       </c>
       <c r="J60" t="str">
         <v>2022-12-08T11:06:00.000Z</v>
       </c>
       <c r="K60">
-        <v>14644392663000</v>
+        <v>13065758677200</v>
       </c>
       <c r="L60">
         <v>868851100</v>
@@ -3393,13 +3393,13 @@
         <v>1584000</v>
       </c>
       <c r="N60">
-        <v>17451701000</v>
+        <v>13733223200</v>
       </c>
       <c r="O60">
         <v>181564300</v>
       </c>
       <c r="P60">
-        <v>3505827071000</v>
+        <v>3094619390300</v>
       </c>
     </row>
     <row r="61">
@@ -3416,25 +3416,25 @@
         <v>6200</v>
       </c>
       <c r="E61">
-        <v>99329566000</v>
+        <v>90422482000</v>
       </c>
       <c r="F61">
-        <v>35554569000</v>
+        <v>34679245200</v>
       </c>
       <c r="G61">
-        <v>241091000</v>
+        <v>103628600</v>
       </c>
       <c r="H61">
         <v>6846800</v>
       </c>
       <c r="I61">
-        <v>135125226000</v>
+        <v>125205355800</v>
       </c>
       <c r="J61" t="str">
         <v>2022-12-08T11:08:00.000Z</v>
       </c>
       <c r="K61">
-        <v>14779517889000</v>
+        <v>13190964033000</v>
       </c>
       <c r="L61">
         <v>875697900</v>
@@ -3443,13 +3443,13 @@
         <v>-2670400</v>
       </c>
       <c r="N61">
-        <v>-63774997000</v>
+        <v>-55743236800</v>
       </c>
       <c r="O61">
         <v>178893900</v>
       </c>
       <c r="P61">
-        <v>3442052074000</v>
+        <v>3038876153500</v>
       </c>
     </row>
     <row r="62">
@@ -3466,10 +3466,10 @@
         <v>71100</v>
       </c>
       <c r="E62">
-        <v>148752365000</v>
+        <v>141344780000</v>
       </c>
       <c r="F62">
-        <v>25019102000</v>
+        <v>18906620600</v>
       </c>
       <c r="G62">
         <v>484513000</v>
@@ -3478,13 +3478,13 @@
         <v>8620900</v>
       </c>
       <c r="I62">
-        <v>174255980000</v>
+        <v>160735913600</v>
       </c>
       <c r="J62" t="str">
         <v>2022-12-08T11:10:00.000Z</v>
       </c>
       <c r="K62">
-        <v>14953773869000</v>
+        <v>13351699946600</v>
       </c>
       <c r="L62">
         <v>884318800</v>
@@ -3493,13 +3493,13 @@
         <v>-5584400</v>
       </c>
       <c r="N62">
-        <v>-123733263000</v>
+        <v>-122438159400</v>
       </c>
       <c r="O62">
         <v>173309500</v>
       </c>
       <c r="P62">
-        <v>3318318811000</v>
+        <v>2916437994100</v>
       </c>
     </row>
     <row r="63">
@@ -3516,25 +3516,25 @@
         <v>45200</v>
       </c>
       <c r="E63">
-        <v>94813954000</v>
+        <v>85557619600</v>
       </c>
       <c r="F63">
-        <v>25535582000</v>
+        <v>24625992500</v>
       </c>
       <c r="G63">
-        <v>1309884000</v>
+        <v>1220873100</v>
       </c>
       <c r="H63">
         <v>7030100</v>
       </c>
       <c r="I63">
-        <v>121659420000</v>
+        <v>111404485200</v>
       </c>
       <c r="J63" t="str">
         <v>2022-12-08T11:12:00.000Z</v>
       </c>
       <c r="K63">
-        <v>15075433289000</v>
+        <v>13463104431800</v>
       </c>
       <c r="L63">
         <v>891348900</v>
@@ -3543,13 +3543,13 @@
         <v>-4319100</v>
       </c>
       <c r="N63">
-        <v>-69278372000</v>
+        <v>-60931627100</v>
       </c>
       <c r="O63">
         <v>168990400</v>
       </c>
       <c r="P63">
-        <v>3249040439000</v>
+        <v>2855506367000</v>
       </c>
     </row>
     <row r="64">
@@ -3566,10 +3566,10 @@
         <v>45000</v>
       </c>
       <c r="E64">
-        <v>65538198000</v>
+        <v>63428110200</v>
       </c>
       <c r="F64">
-        <v>28081439000</v>
+        <v>25784138600</v>
       </c>
       <c r="G64">
         <v>657625000</v>
@@ -3578,13 +3578,13 @@
         <v>6384900</v>
       </c>
       <c r="I64">
-        <v>94277262000</v>
+        <v>89869873800</v>
       </c>
       <c r="J64" t="str">
         <v>2022-12-08T11:14:00.000Z</v>
       </c>
       <c r="K64">
-        <v>15169710551000</v>
+        <v>13552974305600</v>
       </c>
       <c r="L64">
         <v>897733800</v>
@@ -3593,13 +3593,13 @@
         <v>-2858500</v>
       </c>
       <c r="N64">
-        <v>-37456759000</v>
+        <v>-37643971600</v>
       </c>
       <c r="O64">
         <v>166131900</v>
       </c>
       <c r="P64">
-        <v>3211583680000</v>
+        <v>2817862395400</v>
       </c>
     </row>
     <row r="65">
@@ -3616,25 +3616,25 @@
         <v>51900</v>
       </c>
       <c r="E65">
-        <v>41791258000</v>
+        <v>40681568800</v>
       </c>
       <c r="F65">
-        <v>94924172000</v>
+        <v>92363335400</v>
       </c>
       <c r="G65">
-        <v>1897715000</v>
+        <v>1876736000</v>
       </c>
       <c r="H65">
         <v>5901200</v>
       </c>
       <c r="I65">
-        <v>138613145000</v>
+        <v>134921640200</v>
       </c>
       <c r="J65" t="str">
         <v>2022-12-08T11:16:00.000Z</v>
       </c>
       <c r="K65">
-        <v>15308323696000</v>
+        <v>13687895945800</v>
       </c>
       <c r="L65">
         <v>903635000</v>
@@ -3643,13 +3643,13 @@
         <v>1491500</v>
       </c>
       <c r="N65">
-        <v>53132914000</v>
+        <v>51681766600</v>
       </c>
       <c r="O65">
         <v>167623400</v>
       </c>
       <c r="P65">
-        <v>3264716594000</v>
+        <v>2869544162000</v>
       </c>
     </row>
     <row r="66">
@@ -3666,10 +3666,10 @@
         <v>83300</v>
       </c>
       <c r="E66">
-        <v>58309268000</v>
+        <v>55800779000</v>
       </c>
       <c r="F66">
-        <v>58288304000</v>
+        <v>50170230200</v>
       </c>
       <c r="G66">
         <v>1012096000</v>
@@ -3678,13 +3678,13 @@
         <v>5787000</v>
       </c>
       <c r="I66">
-        <v>117609668000</v>
+        <v>106983105200</v>
       </c>
       <c r="J66" t="str">
         <v>2022-12-08T11:18:00.000Z</v>
       </c>
       <c r="K66">
-        <v>15425933364000</v>
+        <v>13794879051000</v>
       </c>
       <c r="L66">
         <v>909422000</v>
@@ -3693,13 +3693,13 @@
         <v>567100</v>
       </c>
       <c r="N66">
-        <v>-20964000</v>
+        <v>-5630548800</v>
       </c>
       <c r="O66">
         <v>168190500</v>
       </c>
       <c r="P66">
-        <v>3264695630000</v>
+        <v>2863913613200</v>
       </c>
     </row>
     <row r="67">
@@ -3716,25 +3716,25 @@
         <v>38000</v>
       </c>
       <c r="E67">
-        <v>79042897000</v>
+        <v>72347199400</v>
       </c>
       <c r="F67">
-        <v>20853660000</v>
+        <v>17023893600</v>
       </c>
       <c r="G67">
-        <v>558611000</v>
+        <v>543026600</v>
       </c>
       <c r="H67">
         <v>5037300</v>
       </c>
       <c r="I67">
-        <v>100455168000</v>
+        <v>89914119600</v>
       </c>
       <c r="J67" t="str">
         <v>2022-12-08T11:20:00.000Z</v>
       </c>
       <c r="K67">
-        <v>15526388532000</v>
+        <v>13884793170600</v>
       </c>
       <c r="L67">
         <v>914459300</v>
@@ -3743,13 +3743,13 @@
         <v>-2656300</v>
       </c>
       <c r="N67">
-        <v>-58189237000</v>
+        <v>-55323305800</v>
       </c>
       <c r="O67">
         <v>165534200</v>
       </c>
       <c r="P67">
-        <v>3206506393000</v>
+        <v>2808590307400</v>
       </c>
     </row>
     <row r="68">
@@ -3766,25 +3766,25 @@
         <v>6300</v>
       </c>
       <c r="E68">
-        <v>72751012000</v>
+        <v>70570794400</v>
       </c>
       <c r="F68">
-        <v>23473947000</v>
+        <v>22056166200</v>
       </c>
       <c r="G68">
-        <v>95890000</v>
+        <v>81504400</v>
       </c>
       <c r="H68">
         <v>5505400</v>
       </c>
       <c r="I68">
-        <v>96320849000</v>
+        <v>92708465000</v>
       </c>
       <c r="J68" t="str">
         <v>2022-12-08T11:22:00.000Z</v>
       </c>
       <c r="K68">
-        <v>15622709381000</v>
+        <v>13977501635600</v>
       </c>
       <c r="L68">
         <v>919964700</v>
@@ -3793,13 +3793,13 @@
         <v>-3068100</v>
       </c>
       <c r="N68">
-        <v>-49277065000</v>
+        <v>-48514628200</v>
       </c>
       <c r="O68">
         <v>162466100</v>
       </c>
       <c r="P68">
-        <v>3157229328000</v>
+        <v>2760075679200</v>
       </c>
     </row>
     <row r="69">
@@ -3816,10 +3816,10 @@
         <v>22900</v>
       </c>
       <c r="E69">
-        <v>49984428000</v>
+        <v>46183432800</v>
       </c>
       <c r="F69">
-        <v>16599594000</v>
+        <v>16425967800</v>
       </c>
       <c r="G69">
         <v>232952000</v>
@@ -3828,13 +3828,13 @@
         <v>5271700</v>
       </c>
       <c r="I69">
-        <v>66816974000</v>
+        <v>62842352600</v>
       </c>
       <c r="J69" t="str">
         <v>2022-12-08T11:24:00.000Z</v>
       </c>
       <c r="K69">
-        <v>15689526355000</v>
+        <v>14040343988200</v>
       </c>
       <c r="L69">
         <v>925236400</v>
@@ -3843,13 +3843,13 @@
         <v>-3506800</v>
       </c>
       <c r="N69">
-        <v>-33384834000</v>
+        <v>-29757465000</v>
       </c>
       <c r="O69">
         <v>158959300</v>
       </c>
       <c r="P69">
-        <v>3123844494000</v>
+        <v>2730318214200</v>
       </c>
     </row>
     <row r="70">
@@ -3866,25 +3866,25 @@
         <v>22900</v>
       </c>
       <c r="E70">
-        <v>135608225000</v>
+        <v>91281995600</v>
       </c>
       <c r="F70">
-        <v>28579723000</v>
+        <v>23666241400</v>
       </c>
       <c r="G70">
-        <v>714810000</v>
+        <v>540384600</v>
       </c>
       <c r="H70">
         <v>8836300</v>
       </c>
       <c r="I70">
-        <v>164902758000</v>
+        <v>115488621600</v>
       </c>
       <c r="J70" t="str">
         <v>2022-12-08T11:26:00.000Z</v>
       </c>
       <c r="K70">
-        <v>15854429113000</v>
+        <v>14155832609800</v>
       </c>
       <c r="L70">
         <v>934072700</v>
@@ -3893,13 +3893,13 @@
         <v>-5690600</v>
       </c>
       <c r="N70">
-        <v>-107028502000</v>
+        <v>-67615754200</v>
       </c>
       <c r="O70">
         <v>153268700</v>
       </c>
       <c r="P70">
-        <v>3016815992000</v>
+        <v>2662702460000</v>
       </c>
     </row>
     <row r="71">
@@ -3916,10 +3916,10 @@
         <v>7700</v>
       </c>
       <c r="E71">
-        <v>198364901000</v>
+        <v>197786080400</v>
       </c>
       <c r="F71">
-        <v>56728486000</v>
+        <v>55513702000</v>
       </c>
       <c r="G71">
         <v>109263000</v>
@@ -3928,13 +3928,13 @@
         <v>14579500</v>
       </c>
       <c r="I71">
-        <v>255202650000</v>
+        <v>253409045400</v>
       </c>
       <c r="J71" t="str">
         <v>2022-12-08T11:28:00.000Z</v>
       </c>
       <c r="K71">
-        <v>16109631763000</v>
+        <v>14409241655200</v>
       </c>
       <c r="L71">
         <v>948652200</v>
@@ -3943,13 +3943,13 @@
         <v>-8227000</v>
       </c>
       <c r="N71">
-        <v>-141636415000</v>
+        <v>-142272378400</v>
       </c>
       <c r="O71">
         <v>145041700</v>
       </c>
       <c r="P71">
-        <v>2875179577000</v>
+        <v>2520430081600</v>
       </c>
     </row>
     <row r="72">
@@ -3984,7 +3984,7 @@
         <v>2022-12-08T11:30:00.000Z</v>
       </c>
       <c r="K72">
-        <v>16109813289000</v>
+        <v>14409423181200</v>
       </c>
       <c r="L72">
         <v>948671400</v>
@@ -3999,7 +3999,7 @@
         <v>145055300</v>
       </c>
       <c r="P72">
-        <v>2875308943000</v>
+        <v>2520559447600</v>
       </c>
     </row>
     <row r="73">
@@ -4016,25 +4016,25 @@
         <v>1634600</v>
       </c>
       <c r="E73">
-        <v>378141347000</v>
+        <v>295973896700</v>
       </c>
       <c r="F73">
-        <v>261018630000</v>
+        <v>256069184400</v>
       </c>
       <c r="G73">
-        <v>26711361000</v>
+        <v>26047625400</v>
       </c>
       <c r="H73">
         <v>39478000</v>
       </c>
       <c r="I73">
-        <v>665871338000</v>
+        <v>578090706500</v>
       </c>
       <c r="J73" t="str">
         <v>2022-12-08T13:00:00.000Z</v>
       </c>
       <c r="K73">
-        <v>16775684627000</v>
+        <v>14987513887700</v>
       </c>
       <c r="L73">
         <v>988149400</v>
@@ -4043,13 +4043,13 @@
         <v>-9120000</v>
       </c>
       <c r="N73">
-        <v>-117122717000</v>
+        <v>-39904712300</v>
       </c>
       <c r="O73">
         <v>135935300</v>
       </c>
       <c r="P73">
-        <v>2758186226000</v>
+        <v>2480654735300</v>
       </c>
     </row>
     <row r="74">
@@ -4066,10 +4066,10 @@
         <v>218600</v>
       </c>
       <c r="E74">
-        <v>94735525000</v>
+        <v>92340522400</v>
       </c>
       <c r="F74">
-        <v>69617976000</v>
+        <v>66378418800</v>
       </c>
       <c r="G74">
         <v>3322616000.0000005</v>
@@ -4078,13 +4078,13 @@
         <v>9400300</v>
       </c>
       <c r="I74">
-        <v>167676117000</v>
+        <v>162041557200</v>
       </c>
       <c r="J74" t="str">
         <v>2022-12-08T13:02:00.000Z</v>
       </c>
       <c r="K74">
-        <v>16943360744000</v>
+        <v>15149555444900</v>
       </c>
       <c r="L74">
         <v>997549700</v>
@@ -4093,13 +4093,13 @@
         <v>-565300</v>
       </c>
       <c r="N74">
-        <v>-25117549000</v>
+        <v>-25962103600</v>
       </c>
       <c r="O74">
         <v>135370000</v>
       </c>
       <c r="P74">
-        <v>2733068677000</v>
+        <v>2454692631700</v>
       </c>
     </row>
     <row r="75">
@@ -4116,10 +4116,10 @@
         <v>48400</v>
       </c>
       <c r="E75">
-        <v>111194281000</v>
+        <v>107408270800</v>
       </c>
       <c r="F75">
-        <v>72444813000</v>
+        <v>72253604400</v>
       </c>
       <c r="G75">
         <v>1133826000</v>
@@ -4128,13 +4128,13 @@
         <v>11537100</v>
       </c>
       <c r="I75">
-        <v>184772920000</v>
+        <v>180795701200</v>
       </c>
       <c r="J75" t="str">
         <v>2022-12-08T13:04:00.000Z</v>
       </c>
       <c r="K75">
-        <v>17128133664000</v>
+        <v>15330351146100</v>
       </c>
       <c r="L75">
         <v>1009086800</v>
@@ -4143,13 +4143,13 @@
         <v>-3098900</v>
       </c>
       <c r="N75">
-        <v>-38749468000</v>
+        <v>-35154666400</v>
       </c>
       <c r="O75">
         <v>132271100</v>
       </c>
       <c r="P75">
-        <v>2694319209000</v>
+        <v>2419537965300</v>
       </c>
     </row>
     <row r="76">
@@ -4166,10 +4166,10 @@
         <v>139700</v>
       </c>
       <c r="E76">
-        <v>88855467000</v>
+        <v>85361364600</v>
       </c>
       <c r="F76">
-        <v>148341528000</v>
+        <v>139882995000</v>
       </c>
       <c r="G76">
         <v>1460950000</v>
@@ -4178,13 +4178,13 @@
         <v>13562500</v>
       </c>
       <c r="I76">
-        <v>238657945000</v>
+        <v>226705309600</v>
       </c>
       <c r="J76" t="str">
         <v>2022-12-08T13:06:00.000Z</v>
       </c>
       <c r="K76">
-        <v>17366791609000</v>
+        <v>15557056455700</v>
       </c>
       <c r="L76">
         <v>1022649300</v>
@@ -4193,13 +4193,13 @@
         <v>1165000</v>
       </c>
       <c r="N76">
-        <v>59486061000</v>
+        <v>54521630400</v>
       </c>
       <c r="O76">
         <v>133436100</v>
       </c>
       <c r="P76">
-        <v>2753805270000</v>
+        <v>2474059595700</v>
       </c>
     </row>
     <row r="77">
@@ -4216,10 +4216,10 @@
         <v>30500</v>
       </c>
       <c r="E77">
-        <v>72580875000</v>
+        <v>68270389800</v>
       </c>
       <c r="F77">
-        <v>107205154000</v>
+        <v>102383980000</v>
       </c>
       <c r="G77">
         <v>727730000</v>
@@ -4228,13 +4228,13 @@
         <v>10426800</v>
       </c>
       <c r="I77">
-        <v>180513759000</v>
+        <v>171382099800</v>
       </c>
       <c r="J77" t="str">
         <v>2022-12-08T13:08:00.000Z</v>
       </c>
       <c r="K77">
-        <v>17547305368000</v>
+        <v>15728438555500</v>
       </c>
       <c r="L77">
         <v>1033076100</v>
@@ -4243,13 +4243,13 @@
         <v>2873900</v>
       </c>
       <c r="N77">
-        <v>34624279000</v>
+        <v>34113590200</v>
       </c>
       <c r="O77">
         <v>136310000</v>
       </c>
       <c r="P77">
-        <v>2788429549000</v>
+        <v>2508173185900</v>
       </c>
     </row>
     <row r="78">
@@ -4266,25 +4266,25 @@
         <v>69200</v>
       </c>
       <c r="E78">
-        <v>93784126000</v>
+        <v>89680633600</v>
       </c>
       <c r="F78">
-        <v>66847505000</v>
+        <v>63542813000</v>
       </c>
       <c r="G78">
-        <v>1423090000</v>
+        <v>1406107000</v>
       </c>
       <c r="H78">
         <v>10582700</v>
       </c>
       <c r="I78">
-        <v>162054721000</v>
+        <v>154629553600</v>
       </c>
       <c r="J78" t="str">
         <v>2022-12-08T13:10:00.000Z</v>
       </c>
       <c r="K78">
-        <v>17709360089000</v>
+        <v>15883068109100</v>
       </c>
       <c r="L78">
         <v>1043658800</v>
@@ -4293,13 +4293,13 @@
         <v>-808700</v>
       </c>
       <c r="N78">
-        <v>-26936621000</v>
+        <v>-26137820600</v>
       </c>
       <c r="O78">
         <v>135501300</v>
       </c>
       <c r="P78">
-        <v>2761492928000</v>
+        <v>2482035365300</v>
       </c>
     </row>
     <row r="79">
@@ -4316,10 +4316,10 @@
         <v>32600</v>
       </c>
       <c r="E79">
-        <v>52686919000</v>
+        <v>51989617000</v>
       </c>
       <c r="F79">
-        <v>144695940000</v>
+        <v>134864781000</v>
       </c>
       <c r="G79">
         <v>521674000</v>
@@ -4328,13 +4328,13 @@
         <v>8569700</v>
       </c>
       <c r="I79">
-        <v>197904533000</v>
+        <v>187376072000</v>
       </c>
       <c r="J79" t="str">
         <v>2022-12-08T13:12:00.000Z</v>
       </c>
       <c r="K79">
-        <v>17907264622000</v>
+        <v>16070444181100</v>
       </c>
       <c r="L79">
         <v>1052228500</v>
@@ -4343,13 +4343,13 @@
         <v>3025900</v>
       </c>
       <c r="N79">
-        <v>92009021000</v>
+        <v>82875164000</v>
       </c>
       <c r="O79">
         <v>138527200</v>
       </c>
       <c r="P79">
-        <v>2853501949000</v>
+        <v>2564910529300</v>
       </c>
     </row>
     <row r="80">
@@ -4366,10 +4366,10 @@
         <v>15500</v>
       </c>
       <c r="E80">
-        <v>45839362000</v>
+        <v>42964240000</v>
       </c>
       <c r="F80">
-        <v>96867086000</v>
+        <v>86565597800</v>
       </c>
       <c r="G80">
         <v>175016000</v>
@@ -4378,13 +4378,13 @@
         <v>7672000</v>
       </c>
       <c r="I80">
-        <v>142881464000</v>
+        <v>129704853800</v>
       </c>
       <c r="J80" t="str">
         <v>2022-12-08T13:14:00.000Z</v>
       </c>
       <c r="K80">
-        <v>18050146086000</v>
+        <v>16200149034900</v>
       </c>
       <c r="L80">
         <v>1059900500</v>
@@ -4393,13 +4393,13 @@
         <v>2551300</v>
       </c>
       <c r="N80">
-        <v>51027724000</v>
+        <v>43601357800</v>
       </c>
       <c r="O80">
         <v>141078500</v>
       </c>
       <c r="P80">
-        <v>2904529673000</v>
+        <v>2608511887100</v>
       </c>
     </row>
     <row r="81">
@@ -4416,25 +4416,25 @@
         <v>16300</v>
       </c>
       <c r="E81">
-        <v>84959997000</v>
+        <v>81327433200</v>
       </c>
       <c r="F81">
-        <v>62204291000</v>
+        <v>58428470600</v>
       </c>
       <c r="G81">
-        <v>429775000</v>
+        <v>421982800</v>
       </c>
       <c r="H81">
         <v>8263000</v>
       </c>
       <c r="I81">
-        <v>147594063000</v>
+        <v>140177886600</v>
       </c>
       <c r="J81" t="str">
         <v>2022-12-08T13:16:00.000Z</v>
       </c>
       <c r="K81">
-        <v>18197740149000</v>
+        <v>16340326921500</v>
       </c>
       <c r="L81">
         <v>1068163500</v>
@@ -4443,13 +4443,13 @@
         <v>-1362900</v>
       </c>
       <c r="N81">
-        <v>-22755706000</v>
+        <v>-22898962600</v>
       </c>
       <c r="O81">
         <v>139715600</v>
       </c>
       <c r="P81">
-        <v>2881773967000</v>
+        <v>2585612924500</v>
       </c>
     </row>
     <row r="82">
@@ -4466,10 +4466,10 @@
         <v>16100</v>
       </c>
       <c r="E82">
-        <v>77125639000</v>
+        <v>75447518800</v>
       </c>
       <c r="F82">
-        <v>100721027000</v>
+        <v>96282070400</v>
       </c>
       <c r="G82">
         <v>207540000</v>
@@ -4478,13 +4478,13 @@
         <v>10729500</v>
       </c>
       <c r="I82">
-        <v>178054206000</v>
+        <v>171937129200</v>
       </c>
       <c r="J82" t="str">
         <v>2022-12-08T13:18:00.000Z</v>
       </c>
       <c r="K82">
-        <v>18375794355000</v>
+        <v>16512264050700</v>
       </c>
       <c r="L82">
         <v>1078893000</v>
@@ -4493,13 +4493,13 @@
         <v>2546600</v>
       </c>
       <c r="N82">
-        <v>23595388000</v>
+        <v>20834551600</v>
       </c>
       <c r="O82">
         <v>142262200</v>
       </c>
       <c r="P82">
-        <v>2905369355000</v>
+        <v>2606447476100</v>
       </c>
     </row>
     <row r="83">
@@ -4516,10 +4516,10 @@
         <v>96000</v>
       </c>
       <c r="E83">
-        <v>119741401000</v>
+        <v>116709835600</v>
       </c>
       <c r="F83">
-        <v>57214043000</v>
+        <v>54345714200</v>
       </c>
       <c r="G83">
         <v>1496268000</v>
@@ -4528,13 +4528,13 @@
         <v>9689100</v>
       </c>
       <c r="I83">
-        <v>178451712000</v>
+        <v>172551817800</v>
       </c>
       <c r="J83" t="str">
         <v>2022-12-08T13:20:00.000Z</v>
       </c>
       <c r="K83">
-        <v>18554246067000</v>
+        <v>16684815868500</v>
       </c>
       <c r="L83">
         <v>1088582100</v>
@@ -4543,13 +4543,13 @@
         <v>-2771900</v>
       </c>
       <c r="N83">
-        <v>-62527358000</v>
+        <v>-62364121400</v>
       </c>
       <c r="O83">
         <v>139490300</v>
       </c>
       <c r="P83">
-        <v>2842841997000</v>
+        <v>2544083354700</v>
       </c>
     </row>
     <row r="84">
@@ -4566,10 +4566,10 @@
         <v>27800</v>
       </c>
       <c r="E84">
-        <v>155033251000</v>
+        <v>146544348400</v>
       </c>
       <c r="F84">
-        <v>41012740000</v>
+        <v>40376377000</v>
       </c>
       <c r="G84">
         <v>703178000</v>
@@ -4578,13 +4578,13 @@
         <v>11462900</v>
       </c>
       <c r="I84">
-        <v>196749169000</v>
+        <v>187623903400</v>
       </c>
       <c r="J84" t="str">
         <v>2022-12-08T13:22:00.000Z</v>
       </c>
       <c r="K84">
-        <v>18750995236000</v>
+        <v>16872439771900</v>
       </c>
       <c r="L84">
         <v>1100045000</v>
@@ -4593,13 +4593,13 @@
         <v>-6333900</v>
       </c>
       <c r="N84">
-        <v>-114020511000</v>
+        <v>-106167971400</v>
       </c>
       <c r="O84">
         <v>133156400</v>
       </c>
       <c r="P84">
-        <v>2728821486000</v>
+        <v>2437915383300</v>
       </c>
     </row>
     <row r="85">
@@ -4616,10 +4616,10 @@
         <v>24000</v>
       </c>
       <c r="E85">
-        <v>111411097000</v>
+        <v>105381332800</v>
       </c>
       <c r="F85">
-        <v>31143414000</v>
+        <v>30938219400</v>
       </c>
       <c r="G85">
         <v>386817000</v>
@@ -4628,13 +4628,13 @@
         <v>8518400</v>
       </c>
       <c r="I85">
-        <v>142941328000</v>
+        <v>136706369200</v>
       </c>
       <c r="J85" t="str">
         <v>2022-12-08T13:24:00.000Z</v>
       </c>
       <c r="K85">
-        <v>18893936564000</v>
+        <v>17009146141100</v>
       </c>
       <c r="L85">
         <v>1108563400</v>
@@ -4643,13 +4643,13 @@
         <v>-4700800</v>
       </c>
       <c r="N85">
-        <v>-80267683000</v>
+        <v>-74443113400</v>
       </c>
       <c r="O85">
         <v>128455600</v>
       </c>
       <c r="P85">
-        <v>2648553803000</v>
+        <v>2363472269900</v>
       </c>
     </row>
     <row r="86">
@@ -4666,25 +4666,25 @@
         <v>56300</v>
       </c>
       <c r="E86">
-        <v>137076926000</v>
+        <v>126795417800</v>
       </c>
       <c r="F86">
-        <v>45867252000</v>
+        <v>44921598600</v>
       </c>
       <c r="G86">
-        <v>1999544000</v>
+        <v>1966577000</v>
       </c>
       <c r="H86">
         <v>12017300</v>
       </c>
       <c r="I86">
-        <v>184943722000</v>
+        <v>173683593400</v>
       </c>
       <c r="J86" t="str">
         <v>2022-12-08T13:26:00.000Z</v>
       </c>
       <c r="K86">
-        <v>19078880286000</v>
+        <v>17182829734500</v>
       </c>
       <c r="L86">
         <v>1120580700</v>
@@ -4693,13 +4693,13 @@
         <v>-6347600</v>
       </c>
       <c r="N86">
-        <v>-91209674000</v>
+        <v>-81873819200</v>
       </c>
       <c r="O86">
         <v>122108000</v>
       </c>
       <c r="P86">
-        <v>2557344129000</v>
+        <v>2281598450700</v>
       </c>
     </row>
     <row r="87">
@@ -4716,10 +4716,10 @@
         <v>19000</v>
       </c>
       <c r="E87">
-        <v>102823935000</v>
+        <v>89674697400</v>
       </c>
       <c r="F87">
-        <v>39459076000</v>
+        <v>33818921800</v>
       </c>
       <c r="G87">
         <v>358457000</v>
@@ -4728,13 +4728,13 @@
         <v>8375600</v>
       </c>
       <c r="I87">
-        <v>142641468000</v>
+        <v>123852076200</v>
       </c>
       <c r="J87" t="str">
         <v>2022-12-08T13:28:00.000Z</v>
       </c>
       <c r="K87">
-        <v>19221521754000</v>
+        <v>17306681810700</v>
       </c>
       <c r="L87">
         <v>1128956300</v>
@@ -4743,13 +4743,13 @@
         <v>-3954400</v>
       </c>
       <c r="N87">
-        <v>-63364859000</v>
+        <v>-55855775600</v>
       </c>
       <c r="O87">
         <v>118153600</v>
       </c>
       <c r="P87">
-        <v>2493979270000</v>
+        <v>2225742675100</v>
       </c>
     </row>
     <row r="88">
@@ -4766,10 +4766,10 @@
         <v>24700</v>
       </c>
       <c r="E88">
-        <v>263750111000</v>
+        <v>253842728300</v>
       </c>
       <c r="F88">
-        <v>43605182000</v>
+        <v>41295593900</v>
       </c>
       <c r="G88">
         <v>443482000</v>
@@ -4778,13 +4778,13 @@
         <v>17052400</v>
       </c>
       <c r="I88">
-        <v>307798775000</v>
+        <v>295581804200</v>
       </c>
       <c r="J88" t="str">
         <v>2022-12-08T13:30:00.000Z</v>
       </c>
       <c r="K88">
-        <v>19529320529000</v>
+        <v>17602263614900</v>
       </c>
       <c r="L88">
         <v>1146008700</v>
@@ -4793,13 +4793,13 @@
         <v>-12519900</v>
       </c>
       <c r="N88">
-        <v>-220144929000</v>
+        <v>-212547134400</v>
       </c>
       <c r="O88">
         <v>105633700</v>
       </c>
       <c r="P88">
-        <v>2273834341000</v>
+        <v>2013195540700</v>
       </c>
     </row>
     <row r="89">
@@ -4816,10 +4816,10 @@
         <v>132400</v>
       </c>
       <c r="E89">
-        <v>254020096000</v>
+        <v>229524016600</v>
       </c>
       <c r="F89">
-        <v>85494817000</v>
+        <v>79545072700</v>
       </c>
       <c r="G89">
         <v>4294990000</v>
@@ -4828,13 +4828,13 @@
         <v>19781600</v>
       </c>
       <c r="I89">
-        <v>343809903000</v>
+        <v>313364079300</v>
       </c>
       <c r="J89" t="str">
         <v>2022-12-08T13:32:00.000Z</v>
       </c>
       <c r="K89">
-        <v>19873130432000</v>
+        <v>17915627694200</v>
       </c>
       <c r="L89">
         <v>1165790300</v>
@@ -4843,13 +4843,13 @@
         <v>-10044800</v>
       </c>
       <c r="N89">
-        <v>-168525279000</v>
+        <v>-149978943900</v>
       </c>
       <c r="O89">
         <v>95588900</v>
       </c>
       <c r="P89">
-        <v>2105309062000</v>
+        <v>1863216596800</v>
       </c>
     </row>
     <row r="90">
@@ -4866,25 +4866,25 @@
         <v>55800</v>
       </c>
       <c r="E90">
-        <v>97523293000</v>
+        <v>85444583800</v>
       </c>
       <c r="F90">
-        <v>100830446000</v>
+        <v>94490991800</v>
       </c>
       <c r="G90">
-        <v>1337338000</v>
+        <v>1062413200</v>
       </c>
       <c r="H90">
         <v>11299700</v>
       </c>
       <c r="I90">
-        <v>199691077000</v>
+        <v>180997988800</v>
       </c>
       <c r="J90" t="str">
         <v>2022-12-08T13:34:00.000Z</v>
       </c>
       <c r="K90">
-        <v>20072821509000</v>
+        <v>18096625683000</v>
       </c>
       <c r="L90">
         <v>1177090000</v>
@@ -4893,13 +4893,13 @@
         <v>87500</v>
       </c>
       <c r="N90">
-        <v>3307153000</v>
+        <v>9046408000</v>
       </c>
       <c r="O90">
         <v>95676400</v>
       </c>
       <c r="P90">
-        <v>2108616215000</v>
+        <v>1872263004800</v>
       </c>
     </row>
     <row r="91">
@@ -4916,25 +4916,25 @@
         <v>58600</v>
       </c>
       <c r="E91">
-        <v>77862407000</v>
+        <v>72020654600</v>
       </c>
       <c r="F91">
-        <v>102482239000</v>
+        <v>84690049000</v>
       </c>
       <c r="G91">
-        <v>1420665000</v>
+        <v>1386499200</v>
       </c>
       <c r="H91">
         <v>10317100</v>
       </c>
       <c r="I91">
-        <v>181765311000</v>
+        <v>158097202800</v>
       </c>
       <c r="J91" t="str">
         <v>2022-12-08T13:36:00.000Z</v>
       </c>
       <c r="K91">
-        <v>20254586820000</v>
+        <v>18254722885800</v>
       </c>
       <c r="L91">
         <v>1187407100</v>
@@ -4943,13 +4943,13 @@
         <v>2800700</v>
       </c>
       <c r="N91">
-        <v>24619832000</v>
+        <v>12669394400</v>
       </c>
       <c r="O91">
         <v>98477100</v>
       </c>
       <c r="P91">
-        <v>2133236047000</v>
+        <v>1884932399200</v>
       </c>
     </row>
     <row r="92">
@@ -4966,25 +4966,25 @@
         <v>53700</v>
       </c>
       <c r="E92">
-        <v>68513071000</v>
+        <v>59005887700</v>
       </c>
       <c r="F92">
-        <v>63110727000</v>
+        <v>54418627800</v>
       </c>
       <c r="G92">
-        <v>1331073000</v>
+        <v>1327077000</v>
       </c>
       <c r="H92">
         <v>6724400</v>
       </c>
       <c r="I92">
-        <v>132954871000</v>
+        <v>114751592500</v>
       </c>
       <c r="J92" t="str">
         <v>2022-12-08T13:38:00.000Z</v>
       </c>
       <c r="K92">
-        <v>20387541691000</v>
+        <v>18369474478300</v>
       </c>
       <c r="L92">
         <v>1194131500</v>
@@ -4993,13 +4993,13 @@
         <v>-160500</v>
       </c>
       <c r="N92">
-        <v>-5402344000</v>
+        <v>-4587259900</v>
       </c>
       <c r="O92">
         <v>98316600</v>
       </c>
       <c r="P92">
-        <v>2127833703000</v>
+        <v>1880345139300</v>
       </c>
     </row>
     <row r="93">
@@ -5016,10 +5016,10 @@
         <v>29600</v>
       </c>
       <c r="E93">
-        <v>67353132000</v>
+        <v>58392102000</v>
       </c>
       <c r="F93">
-        <v>56066054000</v>
+        <v>53726396000</v>
       </c>
       <c r="G93">
         <v>663099000</v>
@@ -5028,13 +5028,13 @@
         <v>6617300</v>
       </c>
       <c r="I93">
-        <v>124082285000</v>
+        <v>112781597000</v>
       </c>
       <c r="J93" t="str">
         <v>2022-12-08T13:40:00.000Z</v>
       </c>
       <c r="K93">
-        <v>20511623976000</v>
+        <v>18482256075300</v>
       </c>
       <c r="L93">
         <v>1200748800</v>
@@ -5043,13 +5043,13 @@
         <v>-1086500</v>
       </c>
       <c r="N93">
-        <v>-11287078000</v>
+        <v>-4665706000</v>
       </c>
       <c r="O93">
         <v>97230100</v>
       </c>
       <c r="P93">
-        <v>2116546625000</v>
+        <v>1875679433300</v>
       </c>
     </row>
     <row r="94">
@@ -5066,10 +5066,10 @@
         <v>8500</v>
       </c>
       <c r="E94">
-        <v>44458958000</v>
+        <v>40381639400</v>
       </c>
       <c r="F94">
-        <v>55739741000</v>
+        <v>46015475000</v>
       </c>
       <c r="G94">
         <v>264742000</v>
@@ -5078,13 +5078,13 @@
         <v>5662100</v>
       </c>
       <c r="I94">
-        <v>100463441000</v>
+        <v>86661856400</v>
       </c>
       <c r="J94" t="str">
         <v>2022-12-08T13:42:00.000Z</v>
       </c>
       <c r="K94">
-        <v>20612087417000</v>
+        <v>18568917931700</v>
       </c>
       <c r="L94">
         <v>1206410900</v>
@@ -5093,13 +5093,13 @@
         <v>485000</v>
       </c>
       <c r="N94">
-        <v>11280783000</v>
+        <v>5633835600</v>
       </c>
       <c r="O94">
         <v>97715100</v>
       </c>
       <c r="P94">
-        <v>2127827408000</v>
+        <v>1881313268900</v>
       </c>
     </row>
     <row r="95">
@@ -5116,25 +5116,25 @@
         <v>77200</v>
       </c>
       <c r="E95">
-        <v>76075359000</v>
+        <v>71775862800</v>
       </c>
       <c r="F95">
-        <v>44741740000</v>
+        <v>40471614400</v>
       </c>
       <c r="G95">
-        <v>1335367000</v>
+        <v>1327974400</v>
       </c>
       <c r="H95">
         <v>6894700</v>
       </c>
       <c r="I95">
-        <v>122152466000</v>
+        <v>113575451600</v>
       </c>
       <c r="J95" t="str">
         <v>2022-12-08T13:44:00.000Z</v>
       </c>
       <c r="K95">
-        <v>20734239883000</v>
+        <v>18682493383300</v>
       </c>
       <c r="L95">
         <v>1213305600</v>
@@ -5143,13 +5143,13 @@
         <v>-1273900</v>
       </c>
       <c r="N95">
-        <v>-31333619000</v>
+        <v>-31304248400</v>
       </c>
       <c r="O95">
         <v>96441200</v>
       </c>
       <c r="P95">
-        <v>2096493789000</v>
+        <v>1850009020500</v>
       </c>
     </row>
     <row r="96">
@@ -5166,10 +5166,10 @@
         <v>6300</v>
       </c>
       <c r="E96">
-        <v>94391172000</v>
+        <v>82216758600</v>
       </c>
       <c r="F96">
-        <v>43372562000</v>
+        <v>39820717400</v>
       </c>
       <c r="G96">
         <v>91353000</v>
@@ -5178,13 +5178,13 @@
         <v>7772800</v>
       </c>
       <c r="I96">
-        <v>137855087000</v>
+        <v>122128829000</v>
       </c>
       <c r="J96" t="str">
         <v>2022-12-08T13:46:00.000Z</v>
       </c>
       <c r="K96">
-        <v>20872094970000</v>
+        <v>18804622212300</v>
       </c>
       <c r="L96">
         <v>1221078400</v>
@@ -5193,13 +5193,13 @@
         <v>-2915100</v>
       </c>
       <c r="N96">
-        <v>-51018610000</v>
+        <v>-42396041200</v>
       </c>
       <c r="O96">
         <v>93526100</v>
       </c>
       <c r="P96">
-        <v>2045475179000</v>
+        <v>1807612979300</v>
       </c>
     </row>
     <row r="97">
@@ -5216,10 +5216,10 @@
         <v>15600</v>
       </c>
       <c r="E97">
-        <v>140900242000</v>
+        <v>125077880200</v>
       </c>
       <c r="F97">
-        <v>37179512000</v>
+        <v>35291202200</v>
       </c>
       <c r="G97">
         <v>139019000</v>
@@ -5228,13 +5228,13 @@
         <v>9922500</v>
       </c>
       <c r="I97">
-        <v>178218773000</v>
+        <v>160508101400</v>
       </c>
       <c r="J97" t="str">
         <v>2022-12-08T13:48:00.000Z</v>
       </c>
       <c r="K97">
-        <v>21050313743000</v>
+        <v>18965130313700</v>
       </c>
       <c r="L97">
         <v>1231000900</v>
@@ -5243,13 +5243,13 @@
         <v>-5983700</v>
       </c>
       <c r="N97">
-        <v>-103720730000</v>
+        <v>-89786678000</v>
       </c>
       <c r="O97">
         <v>87542400</v>
       </c>
       <c r="P97">
-        <v>1941754449000</v>
+        <v>1717826301300</v>
       </c>
     </row>
     <row r="98">
@@ -5266,10 +5266,10 @@
         <v>76100</v>
       </c>
       <c r="E98">
-        <v>102357464000</v>
+        <v>95164763900</v>
       </c>
       <c r="F98">
-        <v>53657948000</v>
+        <v>51497910200</v>
       </c>
       <c r="G98">
         <v>879426000</v>
@@ -5278,13 +5278,13 @@
         <v>9107500</v>
       </c>
       <c r="I98">
-        <v>156894838000</v>
+        <v>147542100100</v>
       </c>
       <c r="J98" t="str">
         <v>2022-12-08T13:50:00.000Z</v>
       </c>
       <c r="K98">
-        <v>21207208581000</v>
+        <v>19112672413800</v>
       </c>
       <c r="L98">
         <v>1240108400</v>
@@ -5293,13 +5293,13 @@
         <v>-3260800</v>
       </c>
       <c r="N98">
-        <v>-48699516000</v>
+        <v>-43666853700</v>
       </c>
       <c r="O98">
         <v>84281600</v>
       </c>
       <c r="P98">
-        <v>1893054933000</v>
+        <v>1674159447600</v>
       </c>
     </row>
     <row r="99">
@@ -5316,10 +5316,10 @@
         <v>43800</v>
       </c>
       <c r="E99">
-        <v>89623691000</v>
+        <v>86202215900</v>
       </c>
       <c r="F99">
-        <v>59113850000</v>
+        <v>51676494800</v>
       </c>
       <c r="G99">
         <v>619458000</v>
@@ -5328,13 +5328,13 @@
         <v>8617300</v>
       </c>
       <c r="I99">
-        <v>149356999000</v>
+        <v>138498168700</v>
       </c>
       <c r="J99" t="str">
         <v>2022-12-08T13:52:00.000Z</v>
       </c>
       <c r="K99">
-        <v>21356565580000</v>
+        <v>19251170582500</v>
       </c>
       <c r="L99">
         <v>1248725700</v>
@@ -5343,13 +5343,13 @@
         <v>-1292500</v>
       </c>
       <c r="N99">
-        <v>-30509841000</v>
+        <v>-34525721100</v>
       </c>
       <c r="O99">
         <v>82989100</v>
       </c>
       <c r="P99">
-        <v>1862545092000</v>
+        <v>1639633726500</v>
       </c>
     </row>
     <row r="100">
@@ -5366,10 +5366,10 @@
         <v>1900</v>
       </c>
       <c r="E100">
-        <v>77207605000</v>
+        <v>69545474800</v>
       </c>
       <c r="F100">
-        <v>67633416000</v>
+        <v>63649803600</v>
       </c>
       <c r="G100">
         <v>40530000</v>
@@ -5378,13 +5378,13 @@
         <v>8081100</v>
       </c>
       <c r="I100">
-        <v>144881551000</v>
+        <v>133235808400</v>
       </c>
       <c r="J100" t="str">
         <v>2022-12-08T13:54:00.000Z</v>
       </c>
       <c r="K100">
-        <v>21501447131000</v>
+        <v>19384406390900</v>
       </c>
       <c r="L100">
         <v>1256806800</v>
@@ -5393,13 +5393,13 @@
         <v>-383800</v>
       </c>
       <c r="N100">
-        <v>-9574189000</v>
+        <v>-5895671200</v>
       </c>
       <c r="O100">
         <v>82605300</v>
       </c>
       <c r="P100">
-        <v>1852970903000</v>
+        <v>1633738055300</v>
       </c>
     </row>
     <row r="101">
@@ -5416,25 +5416,25 @@
         <v>57300</v>
       </c>
       <c r="E101">
-        <v>49980553000</v>
+        <v>48192542800</v>
       </c>
       <c r="F101">
-        <v>77417697000</v>
+        <v>70368153600</v>
       </c>
       <c r="G101">
-        <v>1706593000</v>
+        <v>1705793800</v>
       </c>
       <c r="H101">
         <v>6594100</v>
       </c>
       <c r="I101">
-        <v>129104843000</v>
+        <v>120266490200</v>
       </c>
       <c r="J101" t="str">
         <v>2022-12-08T13:56:00.000Z</v>
       </c>
       <c r="K101">
-        <v>21630551974000</v>
+        <v>19504672881100</v>
       </c>
       <c r="L101">
         <v>1263400900</v>
@@ -5443,13 +5443,13 @@
         <v>1069000</v>
       </c>
       <c r="N101">
-        <v>27437144000</v>
+        <v>22175610800</v>
       </c>
       <c r="O101">
         <v>83674300</v>
       </c>
       <c r="P101">
-        <v>1880408047000</v>
+        <v>1655913666100</v>
       </c>
     </row>
     <row r="102">
@@ -5466,10 +5466,10 @@
         <v>67000</v>
       </c>
       <c r="E102">
-        <v>78126791000</v>
+        <v>70664261000</v>
       </c>
       <c r="F102">
-        <v>48544729000</v>
+        <v>46809266200</v>
       </c>
       <c r="G102">
         <v>1339388000</v>
@@ -5478,13 +5478,13 @@
         <v>6277300</v>
       </c>
       <c r="I102">
-        <v>128010908000</v>
+        <v>118812915200</v>
       </c>
       <c r="J102" t="str">
         <v>2022-12-08T13:58:00.000Z</v>
       </c>
       <c r="K102">
-        <v>21758562882000</v>
+        <v>19623485796300</v>
       </c>
       <c r="L102">
         <v>1269678200</v>
@@ -5493,13 +5493,13 @@
         <v>-736100</v>
       </c>
       <c r="N102">
-        <v>-29582062000</v>
+        <v>-23854994800</v>
       </c>
       <c r="O102">
         <v>82938200</v>
       </c>
       <c r="P102">
-        <v>1850825985000</v>
+        <v>1632058671300</v>
       </c>
     </row>
     <row r="103">
@@ -5516,10 +5516,10 @@
         <v>154200</v>
       </c>
       <c r="E103">
-        <v>274408358000</v>
+        <v>238781820200</v>
       </c>
       <c r="F103">
-        <v>37482291000</v>
+        <v>35644730400</v>
       </c>
       <c r="G103">
         <v>4042180000</v>
@@ -5528,13 +5528,13 @@
         <v>17114300</v>
       </c>
       <c r="I103">
-        <v>315932829000</v>
+        <v>278468730600</v>
       </c>
       <c r="J103" t="str">
         <v>2022-12-08T14:00:00.000Z</v>
       </c>
       <c r="K103">
-        <v>22074495711000</v>
+        <v>19901954526900</v>
       </c>
       <c r="L103">
         <v>1286792500</v>
@@ -5543,13 +5543,13 @@
         <v>-13041500</v>
       </c>
       <c r="N103">
-        <v>-236926067000</v>
+        <v>-203137089800</v>
       </c>
       <c r="O103">
         <v>69896700</v>
       </c>
       <c r="P103">
-        <v>1613899918000</v>
+        <v>1428921581500</v>
       </c>
     </row>
     <row r="104">
@@ -5566,25 +5566,25 @@
         <v>136700</v>
       </c>
       <c r="E104">
-        <v>325030734000</v>
+        <v>287970031800</v>
       </c>
       <c r="F104">
-        <v>55089770000</v>
+        <v>47270796800</v>
       </c>
       <c r="G104">
-        <v>2980631000</v>
+        <v>2958453200</v>
       </c>
       <c r="H104">
         <v>23444200</v>
       </c>
       <c r="I104">
-        <v>383101135000</v>
+        <v>338199281800</v>
       </c>
       <c r="J104" t="str">
         <v>2022-12-08T14:02:00.000Z</v>
       </c>
       <c r="K104">
-        <v>22457596846000</v>
+        <v>20240153808700</v>
       </c>
       <c r="L104">
         <v>1310236700</v>
@@ -5593,13 +5593,13 @@
         <v>-17059700</v>
       </c>
       <c r="N104">
-        <v>-269940964000</v>
+        <v>-240699235000</v>
       </c>
       <c r="O104">
         <v>52837000</v>
       </c>
       <c r="P104">
-        <v>1343958954000</v>
+        <v>1188222346500</v>
       </c>
     </row>
     <row r="105">
@@ -5616,25 +5616,25 @@
         <v>86500</v>
       </c>
       <c r="E105">
-        <v>315848571000</v>
+        <v>297040198200</v>
       </c>
       <c r="F105">
-        <v>116029429000</v>
+        <v>110077786600</v>
       </c>
       <c r="G105">
-        <v>1292730000</v>
+        <v>1198424400</v>
       </c>
       <c r="H105">
         <v>25970300</v>
       </c>
       <c r="I105">
-        <v>433170730000</v>
+        <v>408316409200</v>
       </c>
       <c r="J105" t="str">
         <v>2022-12-08T14:04:00.000Z</v>
       </c>
       <c r="K105">
-        <v>22890767576000</v>
+        <v>20648470217900</v>
       </c>
       <c r="L105">
         <v>1336207000</v>
@@ -5643,13 +5643,13 @@
         <v>-10984000</v>
       </c>
       <c r="N105">
-        <v>-199819142000</v>
+        <v>-186962411600</v>
       </c>
       <c r="O105">
         <v>41853000</v>
       </c>
       <c r="P105">
-        <v>1144139812000</v>
+        <v>1001259934900</v>
       </c>
     </row>
     <row r="106">
@@ -5666,25 +5666,25 @@
         <v>86300</v>
       </c>
       <c r="E106">
-        <v>186498965000</v>
+        <v>184894571000</v>
       </c>
       <c r="F106">
-        <v>110060639000</v>
+        <v>95082632000</v>
       </c>
       <c r="G106">
-        <v>1639082000</v>
+        <v>1604516600</v>
       </c>
       <c r="H106">
         <v>18752800</v>
       </c>
       <c r="I106">
-        <v>298198686000</v>
+        <v>281581719600</v>
       </c>
       <c r="J106" t="str">
         <v>2022-12-08T14:06:00.000Z</v>
       </c>
       <c r="K106">
-        <v>23188966262000</v>
+        <v>20930051937500</v>
       </c>
       <c r="L106">
         <v>1354959800</v>
@@ -5693,13 +5693,13 @@
         <v>-6799500</v>
       </c>
       <c r="N106">
-        <v>-76438326000</v>
+        <v>-89811939000</v>
       </c>
       <c r="O106">
         <v>35053500</v>
       </c>
       <c r="P106">
-        <v>1067701486000</v>
+        <v>911447995900</v>
       </c>
     </row>
     <row r="107">
@@ -5716,10 +5716,10 @@
         <v>47400</v>
       </c>
       <c r="E107">
-        <v>60684242000</v>
+        <v>57178351400</v>
       </c>
       <c r="F107">
-        <v>106934301000</v>
+        <v>86700555000</v>
       </c>
       <c r="G107">
         <v>649897000</v>
@@ -5728,13 +5728,13 @@
         <v>9376600</v>
       </c>
       <c r="I107">
-        <v>168268440000</v>
+        <v>144528803400</v>
       </c>
       <c r="J107" t="str">
         <v>2022-12-08T14:08:00.000Z</v>
       </c>
       <c r="K107">
-        <v>23357234702000</v>
+        <v>21074580740900</v>
       </c>
       <c r="L107">
         <v>1364336400</v>
@@ -5743,13 +5743,13 @@
         <v>2137800</v>
       </c>
       <c r="N107">
-        <v>46250059000</v>
+        <v>29522203600</v>
       </c>
       <c r="O107">
         <v>37191300</v>
       </c>
       <c r="P107">
-        <v>1113951545000</v>
+        <v>940970199500</v>
       </c>
     </row>
     <row r="108">
@@ -5766,25 +5766,25 @@
         <v>118000</v>
       </c>
       <c r="E108">
-        <v>161926381000</v>
+        <v>136914218200</v>
       </c>
       <c r="F108">
-        <v>52455752000</v>
+        <v>41576542100</v>
       </c>
       <c r="G108">
-        <v>3013642000</v>
+        <v>2505350800</v>
       </c>
       <c r="H108">
         <v>10679600</v>
       </c>
       <c r="I108">
-        <v>217395775000</v>
+        <v>180996111100</v>
       </c>
       <c r="J108" t="str">
         <v>2022-12-08T14:10:00.000Z</v>
       </c>
       <c r="K108">
-        <v>23574630477000</v>
+        <v>21255576852000</v>
       </c>
       <c r="L108">
         <v>1375016000</v>
@@ -5793,13 +5793,13 @@
         <v>-4317000</v>
       </c>
       <c r="N108">
-        <v>-109470629000</v>
+        <v>-95337676100</v>
       </c>
       <c r="O108">
         <v>32874300</v>
       </c>
       <c r="P108">
-        <v>1004480916000</v>
+        <v>845632523400</v>
       </c>
     </row>
     <row r="109">
@@ -5816,10 +5816,10 @@
         <v>90700</v>
       </c>
       <c r="E109">
-        <v>241932338000</v>
+        <v>227073411800</v>
       </c>
       <c r="F109">
-        <v>49295088000</v>
+        <v>44490797100</v>
       </c>
       <c r="G109">
         <v>1574611000</v>
@@ -5828,13 +5828,13 @@
         <v>16625900</v>
       </c>
       <c r="I109">
-        <v>292802037000</v>
+        <v>273138819900</v>
       </c>
       <c r="J109" t="str">
         <v>2022-12-08T14:12:00.000Z</v>
       </c>
       <c r="K109">
-        <v>23867432514000</v>
+        <v>21528715671900</v>
       </c>
       <c r="L109">
         <v>1391641900</v>
@@ -5843,13 +5843,13 @@
         <v>-10762000</v>
       </c>
       <c r="N109">
-        <v>-192637250000</v>
+        <v>-182582614700</v>
       </c>
       <c r="O109">
         <v>22112300</v>
       </c>
       <c r="P109">
-        <v>811843666000</v>
+        <v>663049908700</v>
       </c>
     </row>
     <row r="110">
@@ -5866,25 +5866,25 @@
         <v>225900</v>
       </c>
       <c r="E110">
-        <v>363557698000</v>
+        <v>319110389800</v>
       </c>
       <c r="F110">
-        <v>73256668000</v>
+        <v>61796040100</v>
       </c>
       <c r="G110">
-        <v>4255156000</v>
+        <v>4197114100</v>
       </c>
       <c r="H110">
         <v>24775300</v>
       </c>
       <c r="I110">
-        <v>441069522000</v>
+        <v>385103544000</v>
       </c>
       <c r="J110" t="str">
         <v>2022-12-08T14:14:00.000Z</v>
       </c>
       <c r="K110">
-        <v>24308502036000</v>
+        <v>21913819215900</v>
       </c>
       <c r="L110">
         <v>1416417200</v>
@@ -5893,13 +5893,13 @@
         <v>-15856600</v>
       </c>
       <c r="N110">
-        <v>-290301030000</v>
+        <v>-257314349700</v>
       </c>
       <c r="O110">
         <v>6255700</v>
       </c>
       <c r="P110">
-        <v>521542636000</v>
+        <v>405735559000</v>
       </c>
     </row>
     <row r="111">
@@ -5916,25 +5916,25 @@
         <v>603600</v>
       </c>
       <c r="E111">
-        <v>888695789000</v>
+        <v>753663156800</v>
       </c>
       <c r="F111">
-        <v>195107402000</v>
+        <v>183708212600</v>
       </c>
       <c r="G111">
-        <v>8166380000</v>
+        <v>8141105300</v>
       </c>
       <c r="H111">
         <v>63008700</v>
       </c>
       <c r="I111">
-        <v>1091969571000</v>
+        <v>945512474700</v>
       </c>
       <c r="J111" t="str">
         <v>2022-12-08T14:16:00.000Z</v>
       </c>
       <c r="K111">
-        <v>25400471607000</v>
+        <v>22859331690600</v>
       </c>
       <c r="L111">
         <v>1479425900</v>
@@ -5943,13 +5943,13 @@
         <v>-41902900</v>
       </c>
       <c r="N111">
-        <v>-693588387000</v>
+        <v>-569954944200</v>
       </c>
       <c r="O111">
         <v>-35647200</v>
       </c>
       <c r="P111">
-        <v>-172045751000</v>
+        <v>-164219385200</v>
       </c>
     </row>
     <row r="112">
@@ -5966,25 +5966,25 @@
         <v>251300</v>
       </c>
       <c r="E112">
-        <v>299321794000</v>
+        <v>249590974600</v>
       </c>
       <c r="F112">
-        <v>185122287000</v>
+        <v>175991726700</v>
       </c>
       <c r="G112">
-        <v>3424660000</v>
+        <v>3386897800</v>
       </c>
       <c r="H112">
         <v>27064400</v>
       </c>
       <c r="I112">
-        <v>487868741000</v>
+        <v>428969599100</v>
       </c>
       <c r="J112" t="str">
         <v>2022-12-08T14:18:00.000Z</v>
       </c>
       <c r="K112">
-        <v>25888340348000</v>
+        <v>23288301289700</v>
       </c>
       <c r="L112">
         <v>1506490300</v>
@@ -5993,13 +5993,13 @@
         <v>-4315500</v>
       </c>
       <c r="N112">
-        <v>-114199507000</v>
+        <v>-73599247900</v>
       </c>
       <c r="O112">
         <v>-39962700</v>
       </c>
       <c r="P112">
-        <v>-286245258000</v>
+        <v>-237818633100</v>
       </c>
     </row>
     <row r="113">
@@ -6016,25 +6016,25 @@
         <v>155600</v>
       </c>
       <c r="E113">
-        <v>200505668000</v>
+        <v>192227454500</v>
       </c>
       <c r="F113">
-        <v>114971832000</v>
+        <v>107419691700</v>
       </c>
       <c r="G113">
-        <v>3150546000</v>
+        <v>3143353200</v>
       </c>
       <c r="H113">
         <v>18924600</v>
       </c>
       <c r="I113">
-        <v>318628046000</v>
+        <v>302790499400</v>
       </c>
       <c r="J113" t="str">
         <v>2022-12-08T14:20:00.000Z</v>
       </c>
       <c r="K113">
-        <v>26206968394000</v>
+        <v>23591091789100</v>
       </c>
       <c r="L113">
         <v>1525414900</v>
@@ -6043,13 +6043,13 @@
         <v>-5624200</v>
       </c>
       <c r="N113">
-        <v>-85533836000</v>
+        <v>-84807762800</v>
       </c>
       <c r="O113">
         <v>-45586900</v>
       </c>
       <c r="P113">
-        <v>-371779094000</v>
+        <v>-322626395900</v>
       </c>
     </row>
     <row r="114">
@@ -6066,25 +6066,25 @@
         <v>48600</v>
       </c>
       <c r="E114">
-        <v>89305769000</v>
+        <v>83636743700</v>
       </c>
       <c r="F114">
-        <v>174439616000</v>
+        <v>161300967800</v>
       </c>
       <c r="G114">
-        <v>1447164000</v>
+        <v>1076135400</v>
       </c>
       <c r="H114">
         <v>14454300</v>
       </c>
       <c r="I114">
-        <v>265192549000</v>
+        <v>246013846900</v>
       </c>
       <c r="J114" t="str">
         <v>2022-12-08T14:22:00.000Z</v>
       </c>
       <c r="K114">
-        <v>26472160943000</v>
+        <v>23837105636000</v>
       </c>
       <c r="L114">
         <v>1539869200</v>
@@ -6093,13 +6093,13 @@
         <v>3528900</v>
       </c>
       <c r="N114">
-        <v>85133847000</v>
+        <v>77664224100</v>
       </c>
       <c r="O114">
         <v>-42058000</v>
       </c>
       <c r="P114">
-        <v>-286645247000</v>
+        <v>-244962171800</v>
       </c>
     </row>
     <row r="115">
@@ -6116,25 +6116,25 @@
         <v>261200</v>
       </c>
       <c r="E115">
-        <v>81463803000</v>
+        <v>67328552400</v>
       </c>
       <c r="F115">
-        <v>199445146000</v>
+        <v>144764980900</v>
       </c>
       <c r="G115">
-        <v>2109203000</v>
+        <v>1753958600</v>
       </c>
       <c r="H115">
         <v>15247500</v>
       </c>
       <c r="I115">
-        <v>283018152000</v>
+        <v>213847491900</v>
       </c>
       <c r="J115" t="str">
         <v>2022-12-08T14:24:00.000Z</v>
       </c>
       <c r="K115">
-        <v>26755179095000</v>
+        <v>24050953127900</v>
       </c>
       <c r="L115">
         <v>1555116700</v>
@@ -6143,13 +6143,13 @@
         <v>5579300</v>
       </c>
       <c r="N115">
-        <v>117981343000</v>
+        <v>77436428500</v>
       </c>
       <c r="O115">
         <v>-36478700</v>
       </c>
       <c r="P115">
-        <v>-168663904000</v>
+        <v>-167525743300</v>
       </c>
     </row>
     <row r="116">
@@ -6166,10 +6166,10 @@
         <v>185600</v>
       </c>
       <c r="E116">
-        <v>101117682000</v>
+        <v>76810913100</v>
       </c>
       <c r="F116">
-        <v>122262648000</v>
+        <v>105500027400</v>
       </c>
       <c r="G116">
         <v>3752029000</v>
@@ -6178,13 +6178,13 @@
         <v>12236900</v>
       </c>
       <c r="I116">
-        <v>227132359000</v>
+        <v>186062969500</v>
       </c>
       <c r="J116" t="str">
         <v>2022-12-08T14:26:00.000Z</v>
       </c>
       <c r="K116">
-        <v>26982311454000</v>
+        <v>24237016097400</v>
       </c>
       <c r="L116">
         <v>1567353600</v>
@@ -6193,13 +6193,13 @@
         <v>1830500</v>
       </c>
       <c r="N116">
-        <v>21144966000</v>
+        <v>28689114300</v>
       </c>
       <c r="O116">
         <v>-34648200</v>
       </c>
       <c r="P116">
-        <v>-147518938000</v>
+        <v>-138836629000</v>
       </c>
     </row>
     <row r="117">
@@ -6216,10 +6216,10 @@
         <v>90300</v>
       </c>
       <c r="E117">
-        <v>119023528000</v>
+        <v>104876988700</v>
       </c>
       <c r="F117">
-        <v>127630474000</v>
+        <v>109039183900</v>
       </c>
       <c r="G117">
         <v>1440196000</v>
@@ -6228,13 +6228,13 @@
         <v>15215300</v>
       </c>
       <c r="I117">
-        <v>248094198000</v>
+        <v>215356368600</v>
       </c>
       <c r="J117" t="str">
         <v>2022-12-08T14:28:00.000Z</v>
       </c>
       <c r="K117">
-        <v>27230405652000</v>
+        <v>24452372466000</v>
       </c>
       <c r="L117">
         <v>1582568900</v>
@@ -6243,13 +6243,13 @@
         <v>474400</v>
       </c>
       <c r="N117">
-        <v>8606946000</v>
+        <v>4162195200</v>
       </c>
       <c r="O117">
         <v>-34173800</v>
       </c>
       <c r="P117">
-        <v>-138911992000</v>
+        <v>-134674433800</v>
       </c>
     </row>
     <row r="118">
@@ -6284,7 +6284,7 @@
         <v>2022-12-08T14:30:00.000Z</v>
       </c>
       <c r="K118">
-        <v>27230546172000</v>
+        <v>24452512986000</v>
       </c>
       <c r="L118">
         <v>1582579100</v>
@@ -6299,7 +6299,7 @@
         <v>-34163600</v>
       </c>
       <c r="P118">
-        <v>-138771472000</v>
+        <v>-134533913800</v>
       </c>
     </row>
     <row r="119">
@@ -6316,25 +6316,25 @@
         <v>30086500</v>
       </c>
       <c r="E119">
-        <v>180213743000</v>
+        <v>131685919400</v>
       </c>
       <c r="F119">
-        <v>189893036000</v>
+        <v>178135305500</v>
       </c>
       <c r="G119">
-        <v>630334260000</v>
+        <v>427522474800</v>
       </c>
       <c r="H119">
         <v>46783600</v>
       </c>
       <c r="I119">
-        <v>1000441039000</v>
+        <v>737343699700</v>
       </c>
       <c r="J119" t="str">
         <v>2022-12-08T14:44:00.000Z</v>
       </c>
       <c r="K119">
-        <v>28230987211000</v>
+        <v>25189856685700</v>
       </c>
       <c r="L119">
         <v>1629362700</v>
@@ -6343,13 +6343,13 @@
         <v>3980500</v>
       </c>
       <c r="N119">
-        <v>9679293000</v>
+        <v>46449386100</v>
       </c>
       <c r="O119">
         <v>-30183100</v>
       </c>
       <c r="P119">
-        <v>-129092179000</v>
+        <v>-88084527700</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20221208/VNINDEX_HOSE_5p_20221208.xlsx
+++ b/name/vnindex/20221208/VNINDEX_HOSE_5p_20221208.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P119"/>
+  <dimension ref="A1:AC119"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>2020000</v>
       </c>
+      <c r="Q2">
+        <v>2020000</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>200</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V2">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W2">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X2">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y2">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z2">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA2">
+        <v>-255789</v>
+      </c>
+      <c r="AB2">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>10100000</v>
       </c>
+      <c r="Q3">
+        <v>10100000</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1000</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V3">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W3">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X3">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y3">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z3">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA3">
+        <v>-255789</v>
+      </c>
+      <c r="AB3">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>158451749200</v>
       </c>
+      <c r="Q4">
+        <v>226687023000</v>
+      </c>
+      <c r="R4">
+        <v>68235273800</v>
+      </c>
+      <c r="S4">
+        <v>13144100</v>
+      </c>
+      <c r="T4">
+        <v>5227200</v>
+      </c>
+      <c r="U4">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V4">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W4">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X4">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y4">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z4">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA4">
+        <v>-255789</v>
+      </c>
+      <c r="AB4">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC4">
+        <v>212.3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>457262554400</v>
       </c>
+      <c r="Q5">
+        <v>589786723000</v>
+      </c>
+      <c r="R5">
+        <v>132524168600</v>
+      </c>
+      <c r="S5">
+        <v>35188200</v>
+      </c>
+      <c r="T5">
+        <v>9576900</v>
+      </c>
+      <c r="U5">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V5">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W5">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X5">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y5">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z5">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA5">
+        <v>-255789</v>
+      </c>
+      <c r="AB5">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC5">
+        <v>400.3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>554914293400</v>
       </c>
+      <c r="Q6">
+        <v>758085888800</v>
+      </c>
+      <c r="R6">
+        <v>203171595400</v>
+      </c>
+      <c r="S6">
+        <v>46924700</v>
+      </c>
+      <c r="T6">
+        <v>14014400</v>
+      </c>
+      <c r="U6">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V6">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W6">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X6">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y6">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z6">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA6">
+        <v>-255789</v>
+      </c>
+      <c r="AB6">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC6">
+        <v>130.8</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>616847261400</v>
       </c>
+      <c r="Q7">
+        <v>928508882000</v>
+      </c>
+      <c r="R7">
+        <v>311661620600</v>
+      </c>
+      <c r="S7">
+        <v>63300400</v>
+      </c>
+      <c r="T7">
+        <v>22891800</v>
+      </c>
+      <c r="U7">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V7">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W7">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X7">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y7">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z7">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA7">
+        <v>-255789</v>
+      </c>
+      <c r="AB7">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC7">
+        <v>83</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>769098149300</v>
       </c>
+      <c r="Q8">
+        <v>1204716717300</v>
+      </c>
+      <c r="R8">
+        <v>435618568000</v>
+      </c>
+      <c r="S8">
+        <v>94763600</v>
+      </c>
+      <c r="T8">
+        <v>33692500</v>
+      </c>
+      <c r="U8">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V8">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W8">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X8">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y8">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z8">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA8">
+        <v>-255789</v>
+      </c>
+      <c r="AB8">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC8">
+        <v>204</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>792360487500</v>
       </c>
+      <c r="Q9">
+        <v>1321173492300</v>
+      </c>
+      <c r="R9">
+        <v>528813004800</v>
+      </c>
+      <c r="S9">
+        <v>104641500</v>
+      </c>
+      <c r="T9">
+        <v>42147600</v>
+      </c>
+      <c r="U9">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V9">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W9">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X9">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y9">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z9">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA9">
+        <v>-255789</v>
+      </c>
+      <c r="AB9">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC9">
+        <v>31.2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>779031279200</v>
       </c>
+      <c r="Q10">
+        <v>1461993184100</v>
+      </c>
+      <c r="R10">
+        <v>682961904900</v>
+      </c>
+      <c r="S10">
+        <v>116615600</v>
+      </c>
+      <c r="T10">
+        <v>56710500</v>
+      </c>
+      <c r="U10">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V10">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W10">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X10">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y10">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z10">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA10">
+        <v>-255789</v>
+      </c>
+      <c r="AB10">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC10">
+        <v>17.9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>779312329400</v>
       </c>
+      <c r="Q11">
+        <v>1580798307200</v>
+      </c>
+      <c r="R11">
+        <v>801485977800</v>
+      </c>
+      <c r="S11">
+        <v>126215400</v>
+      </c>
+      <c r="T11">
+        <v>65570500</v>
+      </c>
+      <c r="U11">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V11">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W11">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X11">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y11">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z11">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA11">
+        <v>-255789</v>
+      </c>
+      <c r="AB11">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC11">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>792086273100</v>
       </c>
+      <c r="Q12">
+        <v>1671785265500</v>
+      </c>
+      <c r="R12">
+        <v>879698992400</v>
+      </c>
+      <c r="S12">
+        <v>135533600</v>
+      </c>
+      <c r="T12">
+        <v>70987800</v>
+      </c>
+      <c r="U12">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V12">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W12">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X12">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y12">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z12">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA12">
+        <v>-255789</v>
+      </c>
+      <c r="AB12">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC12">
+        <v>17.1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>779679045700</v>
       </c>
+      <c r="Q13">
+        <v>1746056084100</v>
+      </c>
+      <c r="R13">
+        <v>966377038400</v>
+      </c>
+      <c r="S13">
+        <v>141239900</v>
+      </c>
+      <c r="T13">
+        <v>78264900</v>
+      </c>
+      <c r="U13">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V13">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W13">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X13">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y13">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z13">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA13">
+        <v>-255789</v>
+      </c>
+      <c r="AB13">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC13">
+        <v>16.6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>731290543300</v>
       </c>
+      <c r="Q14">
+        <v>1800759585900</v>
+      </c>
+      <c r="R14">
+        <v>1069469042600</v>
+      </c>
+      <c r="S14">
+        <v>145346900</v>
+      </c>
+      <c r="T14">
+        <v>85838700</v>
+      </c>
+      <c r="U14">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V14">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W14">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X14">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y14">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z14">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA14">
+        <v>-255789</v>
+      </c>
+      <c r="AB14">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC14">
+        <v>64.8</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>649942829200</v>
       </c>
+      <c r="Q15">
+        <v>1860210413900</v>
+      </c>
+      <c r="R15">
+        <v>1210267584700</v>
+      </c>
+      <c r="S15">
+        <v>149890900</v>
+      </c>
+      <c r="T15">
+        <v>96296800</v>
+      </c>
+      <c r="U15">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V15">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W15">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X15">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y15">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z15">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA15">
+        <v>-255789</v>
+      </c>
+      <c r="AB15">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC15">
+        <v>109</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>626836887600</v>
       </c>
+      <c r="Q16">
+        <v>1939403987100</v>
+      </c>
+      <c r="R16">
+        <v>1312567099500</v>
+      </c>
+      <c r="S16">
+        <v>155425900</v>
+      </c>
+      <c r="T16">
+        <v>102724100</v>
+      </c>
+      <c r="U16">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V16">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W16">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X16">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y16">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z16">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA16">
+        <v>-255789</v>
+      </c>
+      <c r="AB16">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC16">
+        <v>31</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>626606938900</v>
       </c>
+      <c r="Q17">
+        <v>2028747484800</v>
+      </c>
+      <c r="R17">
+        <v>1402140545900</v>
+      </c>
+      <c r="S17">
+        <v>161424800</v>
+      </c>
+      <c r="T17">
+        <v>108627100</v>
+      </c>
+      <c r="U17">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V17">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W17">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X17">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y17">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z17">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA17">
+        <v>-255789</v>
+      </c>
+      <c r="AB17">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC17">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>676648820000</v>
       </c>
+      <c r="Q18">
+        <v>2148155218000</v>
+      </c>
+      <c r="R18">
+        <v>1471506398000</v>
+      </c>
+      <c r="S18">
+        <v>169654000</v>
+      </c>
+      <c r="T18">
+        <v>112782900</v>
+      </c>
+      <c r="U18">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V18">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W18">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X18">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y18">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z18">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA18">
+        <v>-255789</v>
+      </c>
+      <c r="AB18">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC18">
+        <v>67</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>709124005500</v>
       </c>
+      <c r="Q19">
+        <v>2251946988600</v>
+      </c>
+      <c r="R19">
+        <v>1542822983100</v>
+      </c>
+      <c r="S19">
+        <v>176012900</v>
+      </c>
+      <c r="T19">
+        <v>119941500</v>
+      </c>
+      <c r="U19">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V19">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W19">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X19">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y19">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z19">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA19">
+        <v>-255789</v>
+      </c>
+      <c r="AB19">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC19">
+        <v>43.5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>912909271300</v>
       </c>
+      <c r="Q20">
+        <v>2552643106800</v>
+      </c>
+      <c r="R20">
+        <v>1639733835500</v>
+      </c>
+      <c r="S20">
+        <v>196462600</v>
+      </c>
+      <c r="T20">
+        <v>129240100</v>
+      </c>
+      <c r="U20">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V20">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W20">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X20">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y20">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z20">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA20">
+        <v>-255789</v>
+      </c>
+      <c r="AB20">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC20">
+        <v>273</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>1150951741500</v>
       </c>
+      <c r="Q21">
+        <v>2942570541400</v>
+      </c>
+      <c r="R21">
+        <v>1791618799900</v>
+      </c>
+      <c r="S21">
+        <v>219846400</v>
+      </c>
+      <c r="T21">
+        <v>139749300</v>
+      </c>
+      <c r="U21">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V21">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W21">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X21">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y21">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z21">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA21">
+        <v>-255789</v>
+      </c>
+      <c r="AB21">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC21">
+        <v>318.9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>1270206166900</v>
       </c>
+      <c r="Q22">
+        <v>3234577089400</v>
+      </c>
+      <c r="R22">
+        <v>1964370922500</v>
+      </c>
+      <c r="S22">
+        <v>239890900</v>
+      </c>
+      <c r="T22">
+        <v>150856800</v>
+      </c>
+      <c r="U22">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V22">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W22">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X22">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y22">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z22">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA22">
+        <v>-255789</v>
+      </c>
+      <c r="AB22">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC22">
+        <v>159.8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>1200103296200</v>
       </c>
+      <c r="Q23">
+        <v>3426374384400</v>
+      </c>
+      <c r="R23">
+        <v>2226271088200</v>
+      </c>
+      <c r="S23">
+        <v>252301600</v>
+      </c>
+      <c r="T23">
+        <v>166144900</v>
+      </c>
+      <c r="U23">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V23">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W23">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X23">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y23">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z23">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA23">
+        <v>-255789</v>
+      </c>
+      <c r="AB23">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC23">
+        <v>93.9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>1336748474000</v>
       </c>
+      <c r="Q24">
+        <v>3651411375500</v>
+      </c>
+      <c r="R24">
+        <v>2314662901500</v>
+      </c>
+      <c r="S24">
+        <v>266391800</v>
+      </c>
+      <c r="T24">
+        <v>171936000</v>
+      </c>
+      <c r="U24">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V24">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W24">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X24">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y24">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z24">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA24">
+        <v>-255789</v>
+      </c>
+      <c r="AB24">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC24">
+        <v>183.1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>1337576776800</v>
       </c>
+      <c r="Q25">
+        <v>3750295037300</v>
+      </c>
+      <c r="R25">
+        <v>2412718260500</v>
+      </c>
+      <c r="S25">
+        <v>273670600</v>
+      </c>
+      <c r="T25">
+        <v>178708700</v>
+      </c>
+      <c r="U25">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V25">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W25">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X25">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y25">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z25">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA25">
+        <v>-255789</v>
+      </c>
+      <c r="AB25">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC25">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>1352374316200</v>
       </c>
+      <c r="Q26">
+        <v>3830642125100</v>
+      </c>
+      <c r="R26">
+        <v>2478267808900</v>
+      </c>
+      <c r="S26">
+        <v>278315600</v>
+      </c>
+      <c r="T26">
+        <v>182748300</v>
+      </c>
+      <c r="U26">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V26">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W26">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X26">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y26">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z26">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA26">
+        <v>-255789</v>
+      </c>
+      <c r="AB26">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC26">
+        <v>19.8</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>1353693811400</v>
       </c>
+      <c r="Q27">
+        <v>3883439339500</v>
+      </c>
+      <c r="R27">
+        <v>2529745528100</v>
+      </c>
+      <c r="S27">
+        <v>281918700</v>
+      </c>
+      <c r="T27">
+        <v>186389100</v>
+      </c>
+      <c r="U27">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V27">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W27">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X27">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y27">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z27">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA27">
+        <v>-255789</v>
+      </c>
+      <c r="AB27">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC27">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>1376094762500</v>
       </c>
+      <c r="Q28">
+        <v>3958672276500</v>
+      </c>
+      <c r="R28">
+        <v>2582577514000</v>
+      </c>
+      <c r="S28">
+        <v>287698200</v>
+      </c>
+      <c r="T28">
+        <v>191479600</v>
+      </c>
+      <c r="U28">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V28">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W28">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X28">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y28">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z28">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA28">
+        <v>-255789</v>
+      </c>
+      <c r="AB28">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC28">
+        <v>30</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>1375131354300</v>
       </c>
+      <c r="Q29">
+        <v>4033608803100</v>
+      </c>
+      <c r="R29">
+        <v>2658477448800</v>
+      </c>
+      <c r="S29">
+        <v>292537100</v>
+      </c>
+      <c r="T29">
+        <v>197341800</v>
+      </c>
+      <c r="U29">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V29">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W29">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X29">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y29">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z29">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA29">
+        <v>-255789</v>
+      </c>
+      <c r="AB29">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC29">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>1341923077100</v>
       </c>
+      <c r="Q30">
+        <v>4081737287900</v>
+      </c>
+      <c r="R30">
+        <v>2739814210800</v>
+      </c>
+      <c r="S30">
+        <v>295427300</v>
+      </c>
+      <c r="T30">
+        <v>202480900</v>
+      </c>
+      <c r="U30">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V30">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W30">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X30">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y30">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z30">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA30">
+        <v>-255789</v>
+      </c>
+      <c r="AB30">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC30">
+        <v>44.5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>1304561906900</v>
       </c>
+      <c r="Q31">
+        <v>4120023894700</v>
+      </c>
+      <c r="R31">
+        <v>2815461987800</v>
+      </c>
+      <c r="S31">
+        <v>297973300</v>
+      </c>
+      <c r="T31">
+        <v>208021100</v>
+      </c>
+      <c r="U31">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V31">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W31">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X31">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y31">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z31">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA31">
+        <v>-255789</v>
+      </c>
+      <c r="AB31">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC31">
+        <v>50</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>1294349418900</v>
       </c>
+      <c r="Q32">
+        <v>4165297325800</v>
+      </c>
+      <c r="R32">
+        <v>2870947906900</v>
+      </c>
+      <c r="S32">
+        <v>301271200</v>
+      </c>
+      <c r="T32">
+        <v>211497900</v>
+      </c>
+      <c r="U32">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V32">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W32">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X32">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y32">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z32">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA32">
+        <v>-255789</v>
+      </c>
+      <c r="AB32">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC32">
+        <v>13.7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>1346838244300</v>
       </c>
+      <c r="Q33">
+        <v>4272263055800</v>
+      </c>
+      <c r="R33">
+        <v>2925424811500</v>
+      </c>
+      <c r="S33">
+        <v>310044500</v>
+      </c>
+      <c r="T33">
+        <v>215498900</v>
+      </c>
+      <c r="U33">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V33">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W33">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X33">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y33">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z33">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA33">
+        <v>-255789</v>
+      </c>
+      <c r="AB33">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC33">
+        <v>70.3</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>1332056284800</v>
       </c>
+      <c r="Q34">
+        <v>4345410961300</v>
+      </c>
+      <c r="R34">
+        <v>3013354676500</v>
+      </c>
+      <c r="S34">
+        <v>314522500</v>
+      </c>
+      <c r="T34">
+        <v>221372800</v>
+      </c>
+      <c r="U34">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V34">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W34">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X34">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y34">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z34">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA34">
+        <v>-255789</v>
+      </c>
+      <c r="AB34">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC34">
+        <v>19.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>1329926578000</v>
       </c>
+      <c r="Q35">
+        <v>4411758030300</v>
+      </c>
+      <c r="R35">
+        <v>3081831452300</v>
+      </c>
+      <c r="S35">
+        <v>318778500</v>
+      </c>
+      <c r="T35">
+        <v>225791800</v>
+      </c>
+      <c r="U35">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V35">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W35">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X35">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y35">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z35">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA35">
+        <v>-255789</v>
+      </c>
+      <c r="AB35">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC35">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>1354462136300</v>
       </c>
+      <c r="Q36">
+        <v>4479717404800</v>
+      </c>
+      <c r="R36">
+        <v>3125255268500</v>
+      </c>
+      <c r="S36">
+        <v>323235400</v>
+      </c>
+      <c r="T36">
+        <v>228546900</v>
+      </c>
+      <c r="U36">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V36">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W36">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X36">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y36">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z36">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA36">
+        <v>-255789</v>
+      </c>
+      <c r="AB36">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC36">
+        <v>32.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>1356579597600</v>
       </c>
+      <c r="Q37">
+        <v>4547330646900</v>
+      </c>
+      <c r="R37">
+        <v>3190751049300</v>
+      </c>
+      <c r="S37">
+        <v>328779400</v>
+      </c>
+      <c r="T37">
+        <v>232947600</v>
+      </c>
+      <c r="U37">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V37">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W37">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X37">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y37">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z37">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA37">
+        <v>-255789</v>
+      </c>
+      <c r="AB37">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC37">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>1383492471500</v>
       </c>
+      <c r="Q38">
+        <v>4621354444400</v>
+      </c>
+      <c r="R38">
+        <v>3237861972900</v>
+      </c>
+      <c r="S38">
+        <v>334623000</v>
+      </c>
+      <c r="T38">
+        <v>236073000</v>
+      </c>
+      <c r="U38">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V38">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W38">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X38">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y38">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z38">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA38">
+        <v>-255789</v>
+      </c>
+      <c r="AB38">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC38">
+        <v>36.1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>1427880948300</v>
       </c>
+      <c r="Q39">
+        <v>4701715538400</v>
+      </c>
+      <c r="R39">
+        <v>3273834590100</v>
+      </c>
+      <c r="S39">
+        <v>339158300</v>
+      </c>
+      <c r="T39">
+        <v>238400000</v>
+      </c>
+      <c r="U39">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V39">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W39">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X39">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y39">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z39">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA39">
+        <v>-255789</v>
+      </c>
+      <c r="AB39">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC39">
+        <v>59.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>1474183853600</v>
       </c>
+      <c r="Q40">
+        <v>4792109778600</v>
+      </c>
+      <c r="R40">
+        <v>3317925925000</v>
+      </c>
+      <c r="S40">
+        <v>343834200</v>
+      </c>
+      <c r="T40">
+        <v>241187400</v>
+      </c>
+      <c r="U40">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V40">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W40">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X40">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y40">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z40">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA40">
+        <v>-255789</v>
+      </c>
+      <c r="AB40">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC40">
+        <v>62</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>1521690519600</v>
       </c>
+      <c r="Q41">
+        <v>4888005463000</v>
+      </c>
+      <c r="R41">
+        <v>3366314943400</v>
+      </c>
+      <c r="S41">
+        <v>348407900</v>
+      </c>
+      <c r="T41">
+        <v>243908600</v>
+      </c>
+      <c r="U41">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V41">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W41">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X41">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y41">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z41">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA41">
+        <v>-255789</v>
+      </c>
+      <c r="AB41">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC41">
+        <v>63.6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>1610409079300</v>
       </c>
+      <c r="Q42">
+        <v>5032612526000</v>
+      </c>
+      <c r="R42">
+        <v>3422203446700</v>
+      </c>
+      <c r="S42">
+        <v>355787000</v>
+      </c>
+      <c r="T42">
+        <v>247333600</v>
+      </c>
+      <c r="U42">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V42">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W42">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X42">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y42">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z42">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA42">
+        <v>-255789</v>
+      </c>
+      <c r="AB42">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC42">
+        <v>118.8</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>1787740762500</v>
       </c>
+      <c r="Q43">
+        <v>5249197627400</v>
+      </c>
+      <c r="R43">
+        <v>3461456864900</v>
+      </c>
+      <c r="S43">
+        <v>368219400</v>
+      </c>
+      <c r="T43">
+        <v>250084300</v>
+      </c>
+      <c r="U43">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V43">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W43">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X43">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y43">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z43">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA43">
+        <v>-255789</v>
+      </c>
+      <c r="AB43">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC43">
+        <v>237.6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>2042260785700</v>
       </c>
+      <c r="Q44">
+        <v>5552925751000</v>
+      </c>
+      <c r="R44">
+        <v>3510664965300</v>
+      </c>
+      <c r="S44">
+        <v>384164700</v>
+      </c>
+      <c r="T44">
+        <v>252844000</v>
+      </c>
+      <c r="U44">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V44">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W44">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X44">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y44">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z44">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA44">
+        <v>-255789</v>
+      </c>
+      <c r="AB44">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC44">
+        <v>341</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>2427023211300</v>
       </c>
+      <c r="Q45">
+        <v>5998035925000</v>
+      </c>
+      <c r="R45">
+        <v>3571012713700</v>
+      </c>
+      <c r="S45">
+        <v>408333300</v>
+      </c>
+      <c r="T45">
+        <v>255859300</v>
+      </c>
+      <c r="U45">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V45">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W45">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X45">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y45">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z45">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA45">
+        <v>-255789</v>
+      </c>
+      <c r="AB45">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC45">
+        <v>515.4</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>2593356009500</v>
       </c>
+      <c r="Q46">
+        <v>6217580644800</v>
+      </c>
+      <c r="R46">
+        <v>3624224635300</v>
+      </c>
+      <c r="S46">
+        <v>422701600</v>
+      </c>
+      <c r="T46">
+        <v>259055000</v>
+      </c>
+      <c r="U46">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V46">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W46">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X46">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y46">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z46">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA46">
+        <v>-255789</v>
+      </c>
+      <c r="AB46">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC46">
+        <v>222.8</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>2810717215100</v>
       </c>
+      <c r="Q47">
+        <v>6492786473000</v>
+      </c>
+      <c r="R47">
+        <v>3682069257900</v>
+      </c>
+      <c r="S47">
+        <v>436327800</v>
+      </c>
+      <c r="T47">
+        <v>262607800</v>
+      </c>
+      <c r="U47">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V47">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W47">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X47">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y47">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z47">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA47">
+        <v>-255789</v>
+      </c>
+      <c r="AB47">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC47">
+        <v>291.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>2965453732500</v>
       </c>
+      <c r="Q48">
+        <v>6703849257200</v>
+      </c>
+      <c r="R48">
+        <v>3738395524700</v>
+      </c>
+      <c r="S48">
+        <v>446958500</v>
+      </c>
+      <c r="T48">
+        <v>266136200</v>
+      </c>
+      <c r="U48">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V48">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W48">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X48">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y48">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z48">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA48">
+        <v>-255789</v>
+      </c>
+      <c r="AB48">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC48">
+        <v>207.3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>3087184213500</v>
       </c>
+      <c r="Q49">
+        <v>6945942711500</v>
+      </c>
+      <c r="R49">
+        <v>3858758498000</v>
+      </c>
+      <c r="S49">
+        <v>460264800</v>
+      </c>
+      <c r="T49">
+        <v>273554900</v>
+      </c>
+      <c r="U49">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V49">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W49">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X49">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y49">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z49">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA49">
+        <v>-255789</v>
+      </c>
+      <c r="AB49">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC49">
+        <v>163.1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>3227043681100</v>
       </c>
+      <c r="Q50">
+        <v>7186396613200</v>
+      </c>
+      <c r="R50">
+        <v>3959352932100</v>
+      </c>
+      <c r="S50">
+        <v>473316400</v>
+      </c>
+      <c r="T50">
+        <v>279244400</v>
+      </c>
+      <c r="U50">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V50">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W50">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X50">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y50">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z50">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA50">
+        <v>-255789</v>
+      </c>
+      <c r="AB50">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC50">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>3265510209500</v>
       </c>
+      <c r="Q51">
+        <v>7302536929000</v>
+      </c>
+      <c r="R51">
+        <v>4037026719500</v>
+      </c>
+      <c r="S51">
+        <v>479949500</v>
+      </c>
+      <c r="T51">
+        <v>283590500</v>
+      </c>
+      <c r="U51">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V51">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W51">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X51">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y51">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z51">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA51">
+        <v>-255789</v>
+      </c>
+      <c r="AB51">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC51">
+        <v>51.5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>3259464884700</v>
       </c>
+      <c r="Q52">
+        <v>7387763449000</v>
+      </c>
+      <c r="R52">
+        <v>4128298564300</v>
+      </c>
+      <c r="S52">
+        <v>484400700</v>
+      </c>
+      <c r="T52">
+        <v>289147100</v>
+      </c>
+      <c r="U52">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V52">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W52">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X52">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y52">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z52">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA52">
+        <v>-255789</v>
+      </c>
+      <c r="AB52">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC52">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>3242687703300</v>
       </c>
+      <c r="Q53">
+        <v>7462269556400</v>
+      </c>
+      <c r="R53">
+        <v>4219581853100</v>
+      </c>
+      <c r="S53">
+        <v>487958500</v>
+      </c>
+      <c r="T53">
+        <v>294911900</v>
+      </c>
+      <c r="U53">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V53">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W53">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X53">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y53">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z53">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA53">
+        <v>-255789</v>
+      </c>
+      <c r="AB53">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC53">
+        <v>22.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>3185660662100</v>
       </c>
+      <c r="Q54">
+        <v>7505642468200</v>
+      </c>
+      <c r="R54">
+        <v>4319981806100</v>
+      </c>
+      <c r="S54">
+        <v>490765100</v>
+      </c>
+      <c r="T54">
+        <v>302219900</v>
+      </c>
+      <c r="U54">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V54">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W54">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X54">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y54">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z54">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA54">
+        <v>-255789</v>
+      </c>
+      <c r="AB54">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC54">
+        <v>76.4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>3113307551500</v>
       </c>
+      <c r="Q55">
+        <v>7557007297400</v>
+      </c>
+      <c r="R55">
+        <v>4443699745900</v>
+      </c>
+      <c r="S55">
+        <v>493785600</v>
+      </c>
+      <c r="T55">
+        <v>309762600</v>
+      </c>
+      <c r="U55">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V55">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W55">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X55">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y55">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z55">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA55">
+        <v>-255789</v>
+      </c>
+      <c r="AB55">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC55">
+        <v>96.9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>3069277714900</v>
       </c>
+      <c r="Q56">
+        <v>7616986213000</v>
+      </c>
+      <c r="R56">
+        <v>4547708498100</v>
+      </c>
+      <c r="S56">
+        <v>496636000</v>
+      </c>
+      <c r="T56">
+        <v>315638600</v>
+      </c>
+      <c r="U56">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V56">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W56">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X56">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y56">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z56">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA56">
+        <v>-255789</v>
+      </c>
+      <c r="AB56">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC56">
+        <v>59</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>3017259480300</v>
       </c>
+      <c r="Q57">
+        <v>7655158919500</v>
+      </c>
+      <c r="R57">
+        <v>4637899439200</v>
+      </c>
+      <c r="S57">
+        <v>498698800</v>
+      </c>
+      <c r="T57">
+        <v>320803000</v>
+      </c>
+      <c r="U57">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V57">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W57">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X57">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y57">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z57">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA57">
+        <v>-255789</v>
+      </c>
+      <c r="AB57">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC57">
+        <v>69.7</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>3016619571300</v>
       </c>
+      <c r="Q58">
+        <v>7715323210400</v>
+      </c>
+      <c r="R58">
+        <v>4698703639100</v>
+      </c>
+      <c r="S58">
+        <v>502163700</v>
+      </c>
+      <c r="T58">
+        <v>325136300</v>
+      </c>
+      <c r="U58">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V58">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W58">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X58">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y58">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z58">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA58">
+        <v>-255789</v>
+      </c>
+      <c r="AB58">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC58">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>3080886167100</v>
       </c>
+      <c r="Q59">
+        <v>7826432075100</v>
+      </c>
+      <c r="R59">
+        <v>4745545908000</v>
+      </c>
+      <c r="S59">
+        <v>507734200</v>
+      </c>
+      <c r="T59">
+        <v>327753900</v>
+      </c>
+      <c r="U59">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V59">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W59">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X59">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y59">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z59">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA59">
+        <v>-255789</v>
+      </c>
+      <c r="AB59">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC59">
+        <v>86.1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>3094619390300</v>
       </c>
+      <c r="Q60">
+        <v>7898173636100</v>
+      </c>
+      <c r="R60">
+        <v>4803554245800</v>
+      </c>
+      <c r="S60">
+        <v>512803200</v>
+      </c>
+      <c r="T60">
+        <v>331238900</v>
+      </c>
+      <c r="U60">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V60">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W60">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X60">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y60">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z60">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA60">
+        <v>-255789</v>
+      </c>
+      <c r="AB60">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC60">
+        <v>18.4</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>3038876153500</v>
       </c>
+      <c r="Q61">
+        <v>7932852881300</v>
+      </c>
+      <c r="R61">
+        <v>4893976727800</v>
+      </c>
+      <c r="S61">
+        <v>514888300</v>
+      </c>
+      <c r="T61">
+        <v>335994400</v>
+      </c>
+      <c r="U61">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V61">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W61">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X61">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y61">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z61">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA61">
+        <v>-255789</v>
+      </c>
+      <c r="AB61">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC61">
+        <v>74.7</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>2916437994100</v>
       </c>
+      <c r="Q62">
+        <v>7951759501900</v>
+      </c>
+      <c r="R62">
+        <v>5035321507800</v>
+      </c>
+      <c r="S62">
+        <v>516371000</v>
+      </c>
+      <c r="T62">
+        <v>343061500</v>
+      </c>
+      <c r="U62">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V62">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W62">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X62">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y62">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z62">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA62">
+        <v>-255789</v>
+      </c>
+      <c r="AB62">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC62">
+        <v>164</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>2855506367000</v>
       </c>
+      <c r="Q63">
+        <v>7976385494400</v>
+      </c>
+      <c r="R63">
+        <v>5120879127400</v>
+      </c>
+      <c r="S63">
+        <v>517703900</v>
+      </c>
+      <c r="T63">
+        <v>348713500</v>
+      </c>
+      <c r="U63">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V63">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W63">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X63">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y63">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z63">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA63">
+        <v>-255789</v>
+      </c>
+      <c r="AB63">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC63">
+        <v>81.6</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>2817862395400</v>
       </c>
+      <c r="Q64">
+        <v>8002169633000</v>
+      </c>
+      <c r="R64">
+        <v>5184307237600</v>
+      </c>
+      <c r="S64">
+        <v>519444600</v>
+      </c>
+      <c r="T64">
+        <v>353312700</v>
+      </c>
+      <c r="U64">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V64">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W64">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X64">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y64">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z64">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA64">
+        <v>-255789</v>
+      </c>
+      <c r="AB64">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC64">
+        <v>50.4</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>2869544162000</v>
       </c>
+      <c r="Q65">
+        <v>8094532968400</v>
+      </c>
+      <c r="R65">
+        <v>5224988806400</v>
+      </c>
+      <c r="S65">
+        <v>523115000</v>
+      </c>
+      <c r="T65">
+        <v>355491600</v>
+      </c>
+      <c r="U65">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V65">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W65">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X65">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y65">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z65">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA65">
+        <v>-255789</v>
+      </c>
+      <c r="AB65">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC65">
+        <v>69.2</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>2863913613200</v>
       </c>
+      <c r="Q66">
+        <v>8144703198600</v>
+      </c>
+      <c r="R66">
+        <v>5280789585400</v>
+      </c>
+      <c r="S66">
+        <v>526250400</v>
+      </c>
+      <c r="T66">
+        <v>358059900</v>
+      </c>
+      <c r="U66">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V66">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W66">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X66">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y66">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z66">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA66">
+        <v>-255789</v>
+      </c>
+      <c r="AB66">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC66">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>2808590307400</v>
       </c>
+      <c r="Q67">
+        <v>8161727092200</v>
+      </c>
+      <c r="R67">
+        <v>5353136784800</v>
+      </c>
+      <c r="S67">
+        <v>527421900</v>
+      </c>
+      <c r="T67">
+        <v>361887700</v>
+      </c>
+      <c r="U67">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V67">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W67">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X67">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y67">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z67">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA67">
+        <v>-255789</v>
+      </c>
+      <c r="AB67">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC67">
+        <v>74.1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>2760075679200</v>
       </c>
+      <c r="Q68">
+        <v>8183783258400</v>
+      </c>
+      <c r="R68">
+        <v>5423707579200</v>
+      </c>
+      <c r="S68">
+        <v>528637400</v>
+      </c>
+      <c r="T68">
+        <v>366171300</v>
+      </c>
+      <c r="U68">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V68">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W68">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X68">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y68">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z68">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA68">
+        <v>-255789</v>
+      </c>
+      <c r="AB68">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC68">
+        <v>65</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>2730318214200</v>
       </c>
+      <c r="Q69">
+        <v>8200209226200</v>
+      </c>
+      <c r="R69">
+        <v>5469891012000</v>
+      </c>
+      <c r="S69">
+        <v>529508400</v>
+      </c>
+      <c r="T69">
+        <v>370549100</v>
+      </c>
+      <c r="U69">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V69">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W69">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X69">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y69">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z69">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA69">
+        <v>-255789</v>
+      </c>
+      <c r="AB69">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC69">
+        <v>39.9</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>2662702460000</v>
       </c>
+      <c r="Q70">
+        <v>8223875467600</v>
+      </c>
+      <c r="R70">
+        <v>5561173007600</v>
+      </c>
+      <c r="S70">
+        <v>531069800</v>
+      </c>
+      <c r="T70">
+        <v>377801100</v>
+      </c>
+      <c r="U70">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V70">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W70">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X70">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y70">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z70">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA70">
+        <v>-255789</v>
+      </c>
+      <c r="AB70">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC70">
+        <v>90.6</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>2520430081600</v>
       </c>
+      <c r="Q71">
+        <v>8279389169600</v>
+      </c>
+      <c r="R71">
+        <v>5758959088000</v>
+      </c>
+      <c r="S71">
+        <v>534242200</v>
+      </c>
+      <c r="T71">
+        <v>389200500</v>
+      </c>
+      <c r="U71">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V71">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W71">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X71">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y71">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z71">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA71">
+        <v>-255789</v>
+      </c>
+      <c r="AB71">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC71">
+        <v>190.6</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>2520559447600</v>
       </c>
+      <c r="Q72">
+        <v>8279544615600</v>
+      </c>
+      <c r="R72">
+        <v>5758985168000</v>
+      </c>
+      <c r="S72">
+        <v>534258600</v>
+      </c>
+      <c r="T72">
+        <v>389203300</v>
+      </c>
+      <c r="U72">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V72">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W72">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X72">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y72">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z72">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA72">
+        <v>-255789</v>
+      </c>
+      <c r="AB72">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC72">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>2480654735300</v>
       </c>
+      <c r="Q73">
+        <v>8535613800000</v>
+      </c>
+      <c r="R73">
+        <v>6054959064700</v>
+      </c>
+      <c r="S73">
+        <v>548620300</v>
+      </c>
+      <c r="T73">
+        <v>412685000</v>
+      </c>
+      <c r="U73">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V73">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W73">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X73">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y73">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z73">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA73">
+        <v>-255789</v>
+      </c>
+      <c r="AB73">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC73">
+        <v>53.5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>2454692631700</v>
       </c>
+      <c r="Q74">
+        <v>8601992218800</v>
+      </c>
+      <c r="R74">
+        <v>6147299587100</v>
+      </c>
+      <c r="S74">
+        <v>552928500</v>
+      </c>
+      <c r="T74">
+        <v>417558500</v>
+      </c>
+      <c r="U74">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V74">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W74">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X74">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y74">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z74">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA74">
+        <v>-255789</v>
+      </c>
+      <c r="AB74">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC74">
+        <v>34.8</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>2419537965300</v>
       </c>
+      <c r="Q75">
+        <v>8674245823200</v>
+      </c>
+      <c r="R75">
+        <v>6254707857900</v>
+      </c>
+      <c r="S75">
+        <v>557123400</v>
+      </c>
+      <c r="T75">
+        <v>424852300</v>
+      </c>
+      <c r="U75">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V75">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W75">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X75">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y75">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z75">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA75">
+        <v>-255789</v>
+      </c>
+      <c r="AB75">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC75">
+        <v>47.1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>2474059595700</v>
       </c>
+      <c r="Q76">
+        <v>8814128818200</v>
+      </c>
+      <c r="R76">
+        <v>6340069222500</v>
+      </c>
+      <c r="S76">
+        <v>564417300</v>
+      </c>
+      <c r="T76">
+        <v>430981200</v>
+      </c>
+      <c r="U76">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V76">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W76">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X76">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y76">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z76">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA76">
+        <v>-255789</v>
+      </c>
+      <c r="AB76">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC76">
+        <v>73</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>2508173185900</v>
       </c>
+      <c r="Q77">
+        <v>8916512798200</v>
+      </c>
+      <c r="R77">
+        <v>6408339612300</v>
+      </c>
+      <c r="S77">
+        <v>571052400</v>
+      </c>
+      <c r="T77">
+        <v>434742400</v>
+      </c>
+      <c r="U77">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V77">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W77">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X77">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y77">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z77">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA77">
+        <v>-255789</v>
+      </c>
+      <c r="AB77">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC77">
+        <v>45.7</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>2482035365300</v>
       </c>
+      <c r="Q78">
+        <v>8980055611200</v>
+      </c>
+      <c r="R78">
+        <v>6498020245900</v>
+      </c>
+      <c r="S78">
+        <v>575904800</v>
+      </c>
+      <c r="T78">
+        <v>440403500</v>
+      </c>
+      <c r="U78">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V78">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W78">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X78">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y78">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z78">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA78">
+        <v>-255789</v>
+      </c>
+      <c r="AB78">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC78">
+        <v>35</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>2564910529300</v>
       </c>
+      <c r="Q79">
+        <v>9114920392200</v>
+      </c>
+      <c r="R79">
+        <v>6550009862900</v>
+      </c>
+      <c r="S79">
+        <v>581686300</v>
+      </c>
+      <c r="T79">
+        <v>443159100</v>
+      </c>
+      <c r="U79">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V79">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W79">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X79">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y79">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z79">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA79">
+        <v>-255789</v>
+      </c>
+      <c r="AB79">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC79">
+        <v>111</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>2608511887100</v>
       </c>
+      <c r="Q80">
+        <v>9201485990000</v>
+      </c>
+      <c r="R80">
+        <v>6592974102900</v>
+      </c>
+      <c r="S80">
+        <v>586790200</v>
+      </c>
+      <c r="T80">
+        <v>445711700</v>
+      </c>
+      <c r="U80">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V80">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W80">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X80">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y80">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z80">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA80">
+        <v>-255789</v>
+      </c>
+      <c r="AB80">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC80">
+        <v>58.4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>2585612924500</v>
       </c>
+      <c r="Q81">
+        <v>9259914460600</v>
+      </c>
+      <c r="R81">
+        <v>6674301536100</v>
+      </c>
+      <c r="S81">
+        <v>590232100</v>
+      </c>
+      <c r="T81">
+        <v>450516500</v>
+      </c>
+      <c r="U81">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V81">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W81">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X81">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y81">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z81">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA81">
+        <v>-255789</v>
+      </c>
+      <c r="AB81">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC81">
+        <v>30.7</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>2606447476100</v>
       </c>
+      <c r="Q82">
+        <v>9356196531000</v>
+      </c>
+      <c r="R82">
+        <v>6749749054900</v>
+      </c>
+      <c r="S82">
+        <v>596862100</v>
+      </c>
+      <c r="T82">
+        <v>454599900</v>
+      </c>
+      <c r="U82">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V82">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W82">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X82">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y82">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z82">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA82">
+        <v>-255789</v>
+      </c>
+      <c r="AB82">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC82">
+        <v>27.9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>2544083354700</v>
       </c>
+      <c r="Q83">
+        <v>9410542245200</v>
+      </c>
+      <c r="R83">
+        <v>6866458890500</v>
+      </c>
+      <c r="S83">
+        <v>600272700</v>
+      </c>
+      <c r="T83">
+        <v>460782400</v>
+      </c>
+      <c r="U83">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V83">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W83">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X83">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y83">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z83">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA83">
+        <v>-255789</v>
+      </c>
+      <c r="AB83">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC83">
+        <v>83.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>2437915383300</v>
       </c>
+      <c r="Q84">
+        <v>9450918622200</v>
+      </c>
+      <c r="R84">
+        <v>7013003238900</v>
+      </c>
+      <c r="S84">
+        <v>602823300</v>
+      </c>
+      <c r="T84">
+        <v>469666900</v>
+      </c>
+      <c r="U84">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V84">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W84">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X84">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y84">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z84">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA84">
+        <v>-255789</v>
+      </c>
+      <c r="AB84">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC84">
+        <v>142.2</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>2363472269900</v>
       </c>
+      <c r="Q85">
+        <v>9481856841600</v>
+      </c>
+      <c r="R85">
+        <v>7118384571700</v>
+      </c>
+      <c r="S85">
+        <v>604720100</v>
+      </c>
+      <c r="T85">
+        <v>476264500</v>
+      </c>
+      <c r="U85">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V85">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W85">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X85">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y85">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z85">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA85">
+        <v>-255789</v>
+      </c>
+      <c r="AB85">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC85">
+        <v>99.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>2281598450700</v>
       </c>
+      <c r="Q86">
+        <v>9526778440200</v>
+      </c>
+      <c r="R86">
+        <v>7245179989500</v>
+      </c>
+      <c r="S86">
+        <v>607526800</v>
+      </c>
+      <c r="T86">
+        <v>485418800</v>
+      </c>
+      <c r="U86">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V86">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W86">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X86">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y86">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z86">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA86">
+        <v>-255789</v>
+      </c>
+      <c r="AB86">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC86">
+        <v>109.7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>2225742675100</v>
       </c>
+      <c r="Q87">
+        <v>9560597362000</v>
+      </c>
+      <c r="R87">
+        <v>7334854686900</v>
+      </c>
+      <c r="S87">
+        <v>609727900</v>
+      </c>
+      <c r="T87">
+        <v>491574300</v>
+      </c>
+      <c r="U87">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V87">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W87">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X87">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y87">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z87">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA87">
+        <v>-255789</v>
+      </c>
+      <c r="AB87">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC87">
+        <v>74.8</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>2013195540700</v>
       </c>
+      <c r="Q88">
+        <v>9601892955900</v>
+      </c>
+      <c r="R88">
+        <v>7588697415200</v>
+      </c>
+      <c r="S88">
+        <v>611981800</v>
+      </c>
+      <c r="T88">
+        <v>506348100</v>
+      </c>
+      <c r="U88">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V88">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W88">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X88">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y88">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z88">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA88">
+        <v>-255789</v>
+      </c>
+      <c r="AB88">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC88">
+        <v>284.7</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>1863216596800</v>
       </c>
+      <c r="Q89">
+        <v>9681438028600</v>
+      </c>
+      <c r="R89">
+        <v>7818221431800</v>
+      </c>
+      <c r="S89">
+        <v>616784000</v>
+      </c>
+      <c r="T89">
+        <v>521195100</v>
+      </c>
+      <c r="U89">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V89">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W89">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X89">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y89">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z89">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA89">
+        <v>-255789</v>
+      </c>
+      <c r="AB89">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC89">
+        <v>200.9</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>1872263004800</v>
       </c>
+      <c r="Q90">
+        <v>9775929020400</v>
+      </c>
+      <c r="R90">
+        <v>7903666015600</v>
+      </c>
+      <c r="S90">
+        <v>622449700</v>
+      </c>
+      <c r="T90">
+        <v>526773300</v>
+      </c>
+      <c r="U90">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V90">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W90">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X90">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y90">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z90">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA90">
+        <v>-255789</v>
+      </c>
+      <c r="AB90">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC90">
+        <v>12.1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>1884932399200</v>
       </c>
+      <c r="Q91">
+        <v>9860619069400</v>
+      </c>
+      <c r="R91">
+        <v>7975686670200</v>
+      </c>
+      <c r="S91">
+        <v>628979300</v>
+      </c>
+      <c r="T91">
+        <v>530502200</v>
+      </c>
+      <c r="U91">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V91">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W91">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X91">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y91">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z91">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA91">
+        <v>-255789</v>
+      </c>
+      <c r="AB91">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC91">
+        <v>17</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>1880345139300</v>
       </c>
+      <c r="Q92">
+        <v>9915037697200</v>
+      </c>
+      <c r="R92">
+        <v>8034692557900</v>
+      </c>
+      <c r="S92">
+        <v>632234400</v>
+      </c>
+      <c r="T92">
+        <v>533917800</v>
+      </c>
+      <c r="U92">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V92">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W92">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X92">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y92">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z92">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA92">
+        <v>-255789</v>
+      </c>
+      <c r="AB92">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC92">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>1875679433300</v>
       </c>
+      <c r="Q93">
+        <v>9968764093200</v>
+      </c>
+      <c r="R93">
+        <v>8093084659900</v>
+      </c>
+      <c r="S93">
+        <v>634985000</v>
+      </c>
+      <c r="T93">
+        <v>537754900</v>
+      </c>
+      <c r="U93">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V93">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W93">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X93">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y93">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z93">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA93">
+        <v>-255789</v>
+      </c>
+      <c r="AB93">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC93">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>1881313268900</v>
       </c>
+      <c r="Q94">
+        <v>10014779568200</v>
+      </c>
+      <c r="R94">
+        <v>8133466299300</v>
+      </c>
+      <c r="S94">
+        <v>638054300</v>
+      </c>
+      <c r="T94">
+        <v>540339200</v>
+      </c>
+      <c r="U94">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V94">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W94">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X94">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y94">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z94">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA94">
+        <v>-255789</v>
+      </c>
+      <c r="AB94">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC94">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>1850009020500</v>
       </c>
+      <c r="Q95">
+        <v>10055251182600</v>
+      </c>
+      <c r="R95">
+        <v>8205242162100</v>
+      </c>
+      <c r="S95">
+        <v>640826100</v>
+      </c>
+      <c r="T95">
+        <v>544384900</v>
+      </c>
+      <c r="U95">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V95">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W95">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X95">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y95">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z95">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA95">
+        <v>-255789</v>
+      </c>
+      <c r="AB95">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC95">
+        <v>41.9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>1807612979300</v>
       </c>
+      <c r="Q96">
+        <v>10095071900000</v>
+      </c>
+      <c r="R96">
+        <v>8287458920700</v>
+      </c>
+      <c r="S96">
+        <v>643251800</v>
+      </c>
+      <c r="T96">
+        <v>549725700</v>
+      </c>
+      <c r="U96">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V96">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W96">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X96">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y96">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z96">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA96">
+        <v>-255789</v>
+      </c>
+      <c r="AB96">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC96">
+        <v>56.8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>1717826301300</v>
       </c>
+      <c r="Q97">
+        <v>10130363102200</v>
+      </c>
+      <c r="R97">
+        <v>8412536800900</v>
+      </c>
+      <c r="S97">
+        <v>645213400</v>
+      </c>
+      <c r="T97">
+        <v>557671000</v>
+      </c>
+      <c r="U97">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V97">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W97">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X97">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y97">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z97">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA97">
+        <v>-255789</v>
+      </c>
+      <c r="AB97">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC97">
+        <v>120.3</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>1674159447600</v>
       </c>
+      <c r="Q98">
+        <v>10181861012400</v>
+      </c>
+      <c r="R98">
+        <v>8507701564800</v>
+      </c>
+      <c r="S98">
+        <v>648098700</v>
+      </c>
+      <c r="T98">
+        <v>563817100</v>
+      </c>
+      <c r="U98">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V98">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W98">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X98">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y98">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z98">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA98">
+        <v>-255789</v>
+      </c>
+      <c r="AB98">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC98">
+        <v>58.5</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>1639633726500</v>
       </c>
+      <c r="Q99">
+        <v>10233537507200</v>
+      </c>
+      <c r="R99">
+        <v>8593903780700</v>
+      </c>
+      <c r="S99">
+        <v>651739200</v>
+      </c>
+      <c r="T99">
+        <v>568750100</v>
+      </c>
+      <c r="U99">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V99">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W99">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X99">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y99">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z99">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA99">
+        <v>-255789</v>
+      </c>
+      <c r="AB99">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC99">
+        <v>46.3</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>1633738055300</v>
       </c>
+      <c r="Q100">
+        <v>10297187310800</v>
+      </c>
+      <c r="R100">
+        <v>8663449255500</v>
+      </c>
+      <c r="S100">
+        <v>655586900</v>
+      </c>
+      <c r="T100">
+        <v>572981600</v>
+      </c>
+      <c r="U100">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V100">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W100">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X100">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y100">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z100">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA100">
+        <v>-255789</v>
+      </c>
+      <c r="AB100">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC100">
+        <v>7.9</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>1655913666100</v>
       </c>
+      <c r="Q101">
+        <v>10367555464400</v>
+      </c>
+      <c r="R101">
+        <v>8711641798300</v>
+      </c>
+      <c r="S101">
+        <v>659389800</v>
+      </c>
+      <c r="T101">
+        <v>575715500</v>
+      </c>
+      <c r="U101">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V101">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W101">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X101">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y101">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z101">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA101">
+        <v>-255789</v>
+      </c>
+      <c r="AB101">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC101">
+        <v>29.7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>1632058671300</v>
       </c>
+      <c r="Q102">
+        <v>10414364730600</v>
+      </c>
+      <c r="R102">
+        <v>8782306059300</v>
+      </c>
+      <c r="S102">
+        <v>662126900</v>
+      </c>
+      <c r="T102">
+        <v>579188700</v>
+      </c>
+      <c r="U102">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V102">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W102">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X102">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y102">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z102">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA102">
+        <v>-255789</v>
+      </c>
+      <c r="AB102">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC102">
+        <v>32</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>1428921581500</v>
       </c>
+      <c r="Q103">
+        <v>10450009461000</v>
+      </c>
+      <c r="R103">
+        <v>9021087879500</v>
+      </c>
+      <c r="S103">
+        <v>664086200</v>
+      </c>
+      <c r="T103">
+        <v>594189500</v>
+      </c>
+      <c r="U103">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V103">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W103">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X103">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y103">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z103">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA103">
+        <v>-255789</v>
+      </c>
+      <c r="AB103">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC103">
+        <v>272.1</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>1188222346500</v>
       </c>
+      <c r="Q104">
+        <v>10497280257800</v>
+      </c>
+      <c r="R104">
+        <v>9309057911300</v>
+      </c>
+      <c r="S104">
+        <v>667210100</v>
+      </c>
+      <c r="T104">
+        <v>614373100</v>
+      </c>
+      <c r="U104">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V104">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W104">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X104">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y104">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z104">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA104">
+        <v>-255789</v>
+      </c>
+      <c r="AB104">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC104">
+        <v>322.4</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>1001259934900</v>
       </c>
+      <c r="Q105">
+        <v>10607358044400</v>
+      </c>
+      <c r="R105">
+        <v>9606098109500</v>
+      </c>
+      <c r="S105">
+        <v>674660000</v>
+      </c>
+      <c r="T105">
+        <v>632807000</v>
+      </c>
+      <c r="U105">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V105">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W105">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X105">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y105">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z105">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA105">
+        <v>-255789</v>
+      </c>
+      <c r="AB105">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC105">
+        <v>250.5</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>911447995900</v>
       </c>
+      <c r="Q106">
+        <v>10702440676400</v>
+      </c>
+      <c r="R106">
+        <v>9790992680500</v>
+      </c>
+      <c r="S106">
+        <v>680593500</v>
+      </c>
+      <c r="T106">
+        <v>645540000</v>
+      </c>
+      <c r="U106">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V106">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W106">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X106">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y106">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z106">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA106">
+        <v>-255789</v>
+      </c>
+      <c r="AB106">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC106">
+        <v>120.3</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>940970199500</v>
       </c>
+      <c r="Q107">
+        <v>10789141231400</v>
+      </c>
+      <c r="R107">
+        <v>9848171031900</v>
+      </c>
+      <c r="S107">
+        <v>686327000</v>
+      </c>
+      <c r="T107">
+        <v>649135700</v>
+      </c>
+      <c r="U107">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V107">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W107">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X107">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y107">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z107">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA107">
+        <v>-255789</v>
+      </c>
+      <c r="AB107">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC107">
+        <v>39.5</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>845632523400</v>
       </c>
+      <c r="Q108">
+        <v>10830717773500</v>
+      </c>
+      <c r="R108">
+        <v>9985085250100</v>
+      </c>
+      <c r="S108">
+        <v>689449300</v>
+      </c>
+      <c r="T108">
+        <v>656575000</v>
+      </c>
+      <c r="U108">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V108">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W108">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X108">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y108">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z108">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA108">
+        <v>-255789</v>
+      </c>
+      <c r="AB108">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC108">
+        <v>127.7</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>663049908700</v>
       </c>
+      <c r="Q109">
+        <v>10875208570600</v>
+      </c>
+      <c r="R109">
+        <v>10212158661900</v>
+      </c>
+      <c r="S109">
+        <v>692335900</v>
+      </c>
+      <c r="T109">
+        <v>670223600</v>
+      </c>
+      <c r="U109">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V109">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W109">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X109">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y109">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z109">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA109">
+        <v>-255789</v>
+      </c>
+      <c r="AB109">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC109">
+        <v>244.6</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>405735559000</v>
       </c>
+      <c r="Q110">
+        <v>10937004610700</v>
+      </c>
+      <c r="R110">
+        <v>10531269051700</v>
+      </c>
+      <c r="S110">
+        <v>696682300</v>
+      </c>
+      <c r="T110">
+        <v>690426600</v>
+      </c>
+      <c r="U110">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V110">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W110">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X110">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y110">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z110">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA110">
+        <v>-255789</v>
+      </c>
+      <c r="AB110">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC110">
+        <v>344.7</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>-164219385200</v>
       </c>
+      <c r="Q111">
+        <v>11120712823300</v>
+      </c>
+      <c r="R111">
+        <v>11284932208500</v>
+      </c>
+      <c r="S111">
+        <v>706933400</v>
+      </c>
+      <c r="T111">
+        <v>742580600</v>
+      </c>
+      <c r="U111">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V111">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W111">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X111">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y111">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z111">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA111">
+        <v>-255789</v>
+      </c>
+      <c r="AB111">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC111">
+        <v>763.5</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>-237818633100</v>
       </c>
+      <c r="Q112">
+        <v>11296704550000</v>
+      </c>
+      <c r="R112">
+        <v>11534523183100</v>
+      </c>
+      <c r="S112">
+        <v>718182200</v>
+      </c>
+      <c r="T112">
+        <v>758144900</v>
+      </c>
+      <c r="U112">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V112">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W112">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X112">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y112">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z112">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA112">
+        <v>-255789</v>
+      </c>
+      <c r="AB112">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC112">
+        <v>98.6</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>-322626395900</v>
       </c>
+      <c r="Q113">
+        <v>11404124241700</v>
+      </c>
+      <c r="R113">
+        <v>11726750637600</v>
+      </c>
+      <c r="S113">
+        <v>724754600</v>
+      </c>
+      <c r="T113">
+        <v>770341500</v>
+      </c>
+      <c r="U113">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V113">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W113">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X113">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y113">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z113">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA113">
+        <v>-255789</v>
+      </c>
+      <c r="AB113">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC113">
+        <v>113.6</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>-244962171800</v>
       </c>
+      <c r="Q114">
+        <v>11565425209500</v>
+      </c>
+      <c r="R114">
+        <v>11810387381300</v>
+      </c>
+      <c r="S114">
+        <v>733721900</v>
+      </c>
+      <c r="T114">
+        <v>775779900</v>
+      </c>
+      <c r="U114">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V114">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W114">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X114">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y114">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z114">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA114">
+        <v>-255789</v>
+      </c>
+      <c r="AB114">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC114">
+        <v>104</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>-167525743300</v>
       </c>
+      <c r="Q115">
+        <v>11710190190400</v>
+      </c>
+      <c r="R115">
+        <v>11877715933700</v>
+      </c>
+      <c r="S115">
+        <v>744004700</v>
+      </c>
+      <c r="T115">
+        <v>780483400</v>
+      </c>
+      <c r="U115">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V115">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W115">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X115">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y115">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z115">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA115">
+        <v>-255789</v>
+      </c>
+      <c r="AB115">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC115">
+        <v>103.7</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>-138836629000</v>
       </c>
+      <c r="Q116">
+        <v>11815690217800</v>
+      </c>
+      <c r="R116">
+        <v>11954526846800</v>
+      </c>
+      <c r="S116">
+        <v>750945600</v>
+      </c>
+      <c r="T116">
+        <v>785593800</v>
+      </c>
+      <c r="U116">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V116">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W116">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X116">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y116">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z116">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA116">
+        <v>-255789</v>
+      </c>
+      <c r="AB116">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC116">
+        <v>38.4</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,6 +10775,45 @@
       <c r="P117">
         <v>-134674433800</v>
       </c>
+      <c r="Q117">
+        <v>11924729401700</v>
+      </c>
+      <c r="R117">
+        <v>12059403835500</v>
+      </c>
+      <c r="S117">
+        <v>758745300</v>
+      </c>
+      <c r="T117">
+        <v>792919100</v>
+      </c>
+      <c r="U117">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V117">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W117">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X117">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y117">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z117">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA117">
+        <v>-255789</v>
+      </c>
+      <c r="AB117">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC117">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -6301,6 +10864,45 @@
       <c r="P118">
         <v>-134533913800</v>
       </c>
+      <c r="Q118">
+        <v>11924869921700</v>
+      </c>
+      <c r="R118">
+        <v>12059403835500</v>
+      </c>
+      <c r="S118">
+        <v>758755500</v>
+      </c>
+      <c r="T118">
+        <v>792919100</v>
+      </c>
+      <c r="U118">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V118">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W118">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X118">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y118">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z118">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA118">
+        <v>-255789</v>
+      </c>
+      <c r="AB118">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC118">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -6351,10 +10953,49 @@
       <c r="P119">
         <v>-88084527700</v>
       </c>
+      <c r="Q119">
+        <v>12103005227200</v>
+      </c>
+      <c r="R119">
+        <v>12191089754900</v>
+      </c>
+      <c r="S119">
+        <v>769094300</v>
+      </c>
+      <c r="T119">
+        <v>799277400</v>
+      </c>
+      <c r="U119">
+        <v>102567840908.5</v>
+      </c>
+      <c r="V119">
+        <v>103314319956.8</v>
+      </c>
+      <c r="W119">
+        <v>213473361743.2</v>
+      </c>
+      <c r="X119">
+        <v>13808158.5</v>
+      </c>
+      <c r="Y119">
+        <v>6517748.3</v>
+      </c>
+      <c r="Z119">
+        <v>6773537.3</v>
+      </c>
+      <c r="AA119">
+        <v>-255789</v>
+      </c>
+      <c r="AB119">
+        <v>-746479048.3</v>
+      </c>
+      <c r="AC119">
+        <v>62.2</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P119"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC119"/>
   </ignoredErrors>
 </worksheet>
 </file>